--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="408">
   <si>
     <t>44220</t>
   </si>
@@ -815,15 +815,6 @@
     <t>biomedica@upp.edu.mx</t>
   </si>
   <si>
-    <t>Leticia Margarita</t>
-  </si>
-  <si>
-    <t>Melchum</t>
-  </si>
-  <si>
-    <t>Méndez</t>
-  </si>
-  <si>
     <t>Coordinación de la Licenciatura en Médico Cirujano</t>
   </si>
   <si>
@@ -1254,6 +1245,12 @@
   </si>
   <si>
     <t>crystycortes@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Brenda Berenice</t>
+  </si>
+  <si>
+    <t>Escorza</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1331,21 +1328,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1377,26 +1365,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1681,7 +1655,7 @@
   <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1671,7 @@
     <col min="9" max="9" width="32.5703125" customWidth="1"/>
     <col min="10" max="10" width="22.140625" customWidth="1"/>
     <col min="11" max="11" width="37.42578125" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" customWidth="1"/>
     <col min="15" max="15" width="42.42578125" customWidth="1"/>
@@ -1715,7 +1689,7 @@
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.85546875" customWidth="1"/>
+    <col min="30" max="30" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -1724,40 +1698,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1944,38 +1916,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2069,15 +2041,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -2152,10 +2124,10 @@
         <v>170</v>
       </c>
       <c r="AB8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
@@ -2242,10 +2214,10 @@
         <v>170</v>
       </c>
       <c r="AB9" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC9" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
@@ -2332,10 +2304,10 @@
         <v>170</v>
       </c>
       <c r="AB10" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC10" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
@@ -2356,13 +2328,13 @@
         <v>196</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>199</v>
@@ -2416,16 +2388,16 @@
         <v>2262</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AB11" s="11">
-        <v>44114</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>44114</v>
+      <c r="AB11" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>44206</v>
       </c>
       <c r="AD11" s="2"/>
     </row>
@@ -2512,10 +2484,10 @@
         <v>170</v>
       </c>
       <c r="AB12" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC12" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD12" s="2"/>
     </row>
@@ -2602,10 +2574,10 @@
         <v>170</v>
       </c>
       <c r="AB13" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC13" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD13" s="2"/>
     </row>
@@ -2686,16 +2658,16 @@
         <v>2215</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB14" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC14" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD14" s="2"/>
     </row>
@@ -2782,10 +2754,10 @@
         <v>170</v>
       </c>
       <c r="AB15" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC15" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD15" s="2"/>
     </row>
@@ -2872,10 +2844,10 @@
         <v>170</v>
       </c>
       <c r="AB16" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC16" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD16" s="2"/>
     </row>
@@ -2956,16 +2928,16 @@
         <v>2276</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB17" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC17" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD17" s="2"/>
     </row>
@@ -3052,10 +3024,10 @@
         <v>170</v>
       </c>
       <c r="AB18" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC18" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD18" s="2"/>
     </row>
@@ -3142,10 +3114,10 @@
         <v>170</v>
       </c>
       <c r="AB19" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC19" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD19" s="2"/>
     </row>
@@ -3232,10 +3204,10 @@
         <v>170</v>
       </c>
       <c r="AB20" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC20" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD20" s="2"/>
     </row>
@@ -3322,10 +3294,10 @@
         <v>170</v>
       </c>
       <c r="AB21" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC21" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
@@ -3412,10 +3384,10 @@
         <v>170</v>
       </c>
       <c r="AB22" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC22" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
@@ -3502,10 +3474,10 @@
         <v>170</v>
       </c>
       <c r="AB23" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC23" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
@@ -3592,10 +3564,10 @@
         <v>170</v>
       </c>
       <c r="AB24" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC24" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD24" s="2"/>
     </row>
@@ -3682,10 +3654,10 @@
         <v>170</v>
       </c>
       <c r="AB25" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC25" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD25" s="2"/>
     </row>
@@ -3706,10 +3678,10 @@
         <v>232</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>251</v>
@@ -3772,10 +3744,10 @@
         <v>170</v>
       </c>
       <c r="AB26" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC26" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
@@ -3796,19 +3768,19 @@
         <v>232</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="J27" s="5">
-        <v>42566</v>
+        <v>44120</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>87</v>
@@ -3856,16 +3828,16 @@
         <v>2528</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AA27" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB27" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC27" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD27" s="2"/>
     </row>
@@ -3883,19 +3855,19 @@
         <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>172</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>206</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J28" s="5">
         <v>40679</v>
@@ -3946,16 +3918,16 @@
         <v>2381</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB28" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC28" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD28" s="2"/>
     </row>
@@ -3973,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>226</v>
@@ -3982,10 +3954,10 @@
         <v>211</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J29" s="5">
         <v>42759</v>
@@ -4042,10 +4014,10 @@
         <v>170</v>
       </c>
       <c r="AB29" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC29" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD29" s="2"/>
     </row>
@@ -4063,19 +4035,19 @@
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J30" s="5">
         <v>41655</v>
@@ -4126,16 +4098,16 @@
         <v>2279</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA30" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB30" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC30" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD30" s="2"/>
     </row>
@@ -4150,13 +4122,13 @@
         <v>44104</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>251</v>
@@ -4165,7 +4137,7 @@
         <v>197</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J31" s="5">
         <v>43320</v>
@@ -4216,16 +4188,16 @@
         <v>2503</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB31" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC31" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD31" s="2"/>
     </row>
@@ -4243,19 +4215,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
@@ -4306,16 +4278,16 @@
         <v>2503</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA32" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB32" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC32" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD32" s="2"/>
     </row>
@@ -4333,19 +4305,19 @@
         <v>10</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
@@ -4396,19 +4368,19 @@
         <v>2503</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB33" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC33" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -4425,19 +4397,19 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
@@ -4488,16 +4460,16 @@
         <v>2503</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB34" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC34" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD34" s="2"/>
     </row>
@@ -4515,19 +4487,19 @@
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="J35" s="5">
         <v>42095</v>
@@ -4578,16 +4550,16 @@
         <v>2210</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB35" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC35" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD35" s="2"/>
     </row>
@@ -4605,19 +4577,19 @@
         <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
@@ -4668,16 +4640,16 @@
         <v>2265</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AA36" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB36" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC36" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD36" s="2"/>
     </row>
@@ -4695,19 +4667,19 @@
         <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J37" s="5">
         <v>40756</v>
@@ -4758,16 +4730,16 @@
         <v>2274</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AA37" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB37" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC37" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD37" s="2"/>
     </row>
@@ -4785,19 +4757,19 @@
         <v>9</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="J38" s="5">
         <v>43517</v>
@@ -4848,16 +4820,16 @@
         <v>2824</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB38" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC38" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD38" s="2"/>
     </row>
@@ -4875,19 +4847,19 @@
         <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>251</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J39" s="5">
         <v>38384</v>
@@ -4938,16 +4910,16 @@
         <v>2205</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AA39" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB39" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC39" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD39" s="2"/>
     </row>
@@ -4965,19 +4937,19 @@
         <v>9</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="J40" s="5">
         <v>40452</v>
@@ -5028,16 +5000,16 @@
         <v>2300</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AA40" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB40" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC40" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD40" s="2"/>
     </row>
@@ -5055,19 +5027,19 @@
         <v>9</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J41" s="5">
         <v>43831</v>
@@ -5124,10 +5096,10 @@
         <v>170</v>
       </c>
       <c r="AB41" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC41" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD41" s="2"/>
     </row>
@@ -5145,19 +5117,19 @@
         <v>9</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
@@ -5208,16 +5180,16 @@
         <v>2215</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AA42" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB42" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC42" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD42" s="2"/>
     </row>
@@ -5235,10 +5207,10 @@
         <v>9</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>193</v>
@@ -5247,7 +5219,7 @@
         <v>198</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J43" s="5">
         <v>39326</v>
@@ -5298,16 +5270,16 @@
         <v>2230</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB43" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC43" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD43" s="2"/>
     </row>
@@ -5325,19 +5297,19 @@
         <v>9</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>251</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J44" s="5">
         <v>40547</v>
@@ -5388,16 +5360,16 @@
         <v>2493</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA44" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB44" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC44" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD44" s="2"/>
     </row>
@@ -5415,19 +5387,19 @@
         <v>9</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>211</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J45" s="5">
         <v>43877</v>
@@ -5478,16 +5450,16 @@
         <v>2204</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AA45" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB45" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC45" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD45" s="2"/>
     </row>
@@ -5505,19 +5477,19 @@
         <v>9</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>237</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J46" s="5">
         <v>38626</v>
@@ -5568,16 +5540,16 @@
         <v>2259</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AA46" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB46" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC46" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD46" s="2"/>
     </row>
@@ -5595,19 +5567,19 @@
         <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>185</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J47" s="5">
         <v>42646</v>
@@ -5658,16 +5630,16 @@
         <v>2450</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB47" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC47" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD47" s="2"/>
     </row>
@@ -5685,19 +5657,19 @@
         <v>9</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>185</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J48" s="5">
         <v>43466</v>
@@ -5748,16 +5720,16 @@
         <v>2311</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB48" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC48" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD48" s="2"/>
     </row>
@@ -5775,19 +5747,19 @@
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="J49" s="5">
         <v>38504</v>
@@ -5838,16 +5810,16 @@
         <v>2316</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB49" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC49" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD49" s="2"/>
     </row>
@@ -5865,19 +5837,19 @@
         <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J50" s="5">
         <v>38504</v>
@@ -5928,16 +5900,16 @@
         <v>2401</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA50" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB50" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC50" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD50" s="2"/>
     </row>
@@ -5955,19 +5927,19 @@
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J51" s="5">
         <v>40210</v>
@@ -6018,16 +5990,16 @@
         <v>2210</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB51" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC51" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD51" s="2"/>
     </row>
@@ -6045,19 +6017,19 @@
         <v>9</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="J52" s="5">
         <v>41867</v>
@@ -6108,16 +6080,16 @@
         <v>2227</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB52" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC52" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD52" s="2"/>
     </row>
@@ -6135,19 +6107,19 @@
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>198</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J53" s="5">
         <v>43742</v>
@@ -6198,16 +6170,16 @@
         <v>2253</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AA53" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB53" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC53" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD53" s="2"/>
     </row>
@@ -6225,19 +6197,19 @@
         <v>9</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="J54" s="5">
         <v>42522</v>
@@ -6288,16 +6260,16 @@
         <v>2231</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AA54" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB54" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC54" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD54" s="2"/>
     </row>
@@ -6315,19 +6287,19 @@
         <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="J55" s="5">
         <v>38565</v>
@@ -6372,20 +6344,20 @@
         <v>43830</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AA55" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB55" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC55" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD55" s="2"/>
     </row>
@@ -6403,19 +6375,19 @@
         <v>9</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J56" s="5">
         <v>41655</v>
@@ -6466,16 +6438,16 @@
         <v>3006</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AA56" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB56" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC56" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD56" s="2"/>
     </row>
@@ -6493,7 +6465,7 @@
         <v>9</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>226</v>
@@ -6502,10 +6474,10 @@
         <v>251</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J57" s="5">
         <v>38687</v>
@@ -6556,16 +6528,16 @@
         <v>2218</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AA57" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB57" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC57" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD57" s="2"/>
     </row>
@@ -6583,19 +6555,19 @@
         <v>9</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J58" s="5">
         <v>40917</v>
@@ -6646,16 +6618,16 @@
         <v>2217</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AA58" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB58" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC58" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD58" s="2"/>
     </row>
@@ -6673,19 +6645,19 @@
         <v>9</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>211</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
@@ -6736,16 +6708,16 @@
         <v>2213</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AA59" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB59" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC59" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD59" s="2"/>
     </row>
@@ -6763,19 +6735,19 @@
         <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
@@ -6826,16 +6798,16 @@
         <v>2233</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AA60" s="4" t="s">
         <v>170</v>
       </c>
       <c r="AB60" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AC60" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="AD60" s="2"/>
     </row>
@@ -6844,19 +6816,19 @@
     <mergeCell ref="A6:AD6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K60">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O60">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V60">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
@@ -6927,134 +6899,137 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7070,209 +7045,212 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="14" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7285,167 +7263,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="14" t="s">
         <v>169</v>
       </c>
     </row>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Vo.Bo. Uno UPP 4T 2020\4TO TRIMESTRE 2020\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1365,12 +1365,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,38 +1698,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1916,38 +1916,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2136,10 +2136,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C9" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>182</v>
@@ -2226,10 +2226,10 @@
         <v>2020</v>
       </c>
       <c r="B10" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C10" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>189</v>
@@ -2316,10 +2316,10 @@
         <v>2020</v>
       </c>
       <c r="B11" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C11" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D11" s="4">
         <v>11</v>
@@ -2406,10 +2406,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C12" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D12" s="4">
         <v>11</v>
@@ -2496,10 +2496,10 @@
         <v>2020</v>
       </c>
       <c r="B13" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C13" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D13" s="4">
         <v>11</v>
@@ -2586,10 +2586,10 @@
         <v>2020</v>
       </c>
       <c r="B14" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C14" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D14" s="4">
         <v>11</v>
@@ -2676,10 +2676,10 @@
         <v>2020</v>
       </c>
       <c r="B15" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C15" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D15" s="4">
         <v>11</v>
@@ -2766,10 +2766,10 @@
         <v>2020</v>
       </c>
       <c r="B16" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C16" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D16" s="4">
         <v>11</v>
@@ -2856,10 +2856,10 @@
         <v>2020</v>
       </c>
       <c r="B17" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C17" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D17" s="4">
         <v>11</v>
@@ -2946,10 +2946,10 @@
         <v>2020</v>
       </c>
       <c r="B18" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C18" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D18" s="4">
         <v>11</v>
@@ -3036,10 +3036,10 @@
         <v>2020</v>
       </c>
       <c r="B19" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C19" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>231</v>
@@ -3126,10 +3126,10 @@
         <v>2020</v>
       </c>
       <c r="B20" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C20" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>231</v>
@@ -3216,10 +3216,10 @@
         <v>2020</v>
       </c>
       <c r="B21" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C21" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>231</v>
@@ -3306,10 +3306,10 @@
         <v>2020</v>
       </c>
       <c r="B22" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C22" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>231</v>
@@ -3396,10 +3396,10 @@
         <v>2020</v>
       </c>
       <c r="B23" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C23" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>231</v>
@@ -3486,10 +3486,10 @@
         <v>2020</v>
       </c>
       <c r="B24" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C24" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>231</v>
@@ -3576,10 +3576,10 @@
         <v>2020</v>
       </c>
       <c r="B25" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C25" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>231</v>
@@ -3666,10 +3666,10 @@
         <v>2020</v>
       </c>
       <c r="B26" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C26" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>231</v>
@@ -3756,10 +3756,10 @@
         <v>2020</v>
       </c>
       <c r="B27" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C27" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D27" s="4">
         <v>10</v>
@@ -3846,10 +3846,10 @@
         <v>2020</v>
       </c>
       <c r="B28" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C28" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D28" s="4">
         <v>10</v>
@@ -3936,10 +3936,10 @@
         <v>2020</v>
       </c>
       <c r="B29" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C29" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D29" s="4">
         <v>10</v>
@@ -4026,10 +4026,10 @@
         <v>2020</v>
       </c>
       <c r="B30" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C30" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D30" s="4">
         <v>10</v>
@@ -4116,10 +4116,10 @@
         <v>2020</v>
       </c>
       <c r="B31" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C31" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>274</v>
@@ -4206,10 +4206,10 @@
         <v>2020</v>
       </c>
       <c r="B32" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C32" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D32" s="4">
         <v>10</v>
@@ -4296,10 +4296,10 @@
         <v>2020</v>
       </c>
       <c r="B33" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C33" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D33" s="4">
         <v>10</v>
@@ -4388,10 +4388,10 @@
         <v>2020</v>
       </c>
       <c r="B34" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C34" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D34" s="4">
         <v>10</v>
@@ -4478,10 +4478,10 @@
         <v>2020</v>
       </c>
       <c r="B35" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C35" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D35" s="4">
         <v>10</v>
@@ -4568,10 +4568,10 @@
         <v>2020</v>
       </c>
       <c r="B36" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C36" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D36" s="4">
         <v>10</v>
@@ -4658,10 +4658,10 @@
         <v>2020</v>
       </c>
       <c r="B37" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C37" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D37" s="4">
         <v>10</v>
@@ -4748,10 +4748,10 @@
         <v>2020</v>
       </c>
       <c r="B38" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C38" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D38" s="4">
         <v>9</v>
@@ -4838,10 +4838,10 @@
         <v>2020</v>
       </c>
       <c r="B39" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C39" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D39" s="4">
         <v>9</v>
@@ -4928,10 +4928,10 @@
         <v>2020</v>
       </c>
       <c r="B40" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C40" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D40" s="4">
         <v>9</v>
@@ -5018,10 +5018,10 @@
         <v>2020</v>
       </c>
       <c r="B41" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C41" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D41" s="4">
         <v>9</v>
@@ -5108,10 +5108,10 @@
         <v>2020</v>
       </c>
       <c r="B42" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C42" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -5198,10 +5198,10 @@
         <v>2020</v>
       </c>
       <c r="B43" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C43" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D43" s="4">
         <v>9</v>
@@ -5288,10 +5288,10 @@
         <v>2020</v>
       </c>
       <c r="B44" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C44" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D44" s="4">
         <v>9</v>
@@ -5378,10 +5378,10 @@
         <v>2020</v>
       </c>
       <c r="B45" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C45" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D45" s="4">
         <v>9</v>
@@ -5468,10 +5468,10 @@
         <v>2020</v>
       </c>
       <c r="B46" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C46" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D46" s="4">
         <v>9</v>
@@ -5558,10 +5558,10 @@
         <v>2020</v>
       </c>
       <c r="B47" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C47" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D47" s="4">
         <v>9</v>
@@ -5648,10 +5648,10 @@
         <v>2020</v>
       </c>
       <c r="B48" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C48" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D48" s="4">
         <v>9</v>
@@ -5738,10 +5738,10 @@
         <v>2020</v>
       </c>
       <c r="B49" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C49" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D49" s="4">
         <v>9</v>
@@ -5828,10 +5828,10 @@
         <v>2020</v>
       </c>
       <c r="B50" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C50" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D50" s="4">
         <v>9</v>
@@ -5918,10 +5918,10 @@
         <v>2020</v>
       </c>
       <c r="B51" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C51" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D51" s="4">
         <v>9</v>
@@ -6008,10 +6008,10 @@
         <v>2020</v>
       </c>
       <c r="B52" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C52" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D52" s="4">
         <v>9</v>
@@ -6098,10 +6098,10 @@
         <v>2020</v>
       </c>
       <c r="B53" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C53" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D53" s="4">
         <v>9</v>
@@ -6188,10 +6188,10 @@
         <v>2020</v>
       </c>
       <c r="B54" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C54" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D54" s="4">
         <v>9</v>
@@ -6278,10 +6278,10 @@
         <v>2020</v>
       </c>
       <c r="B55" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C55" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D55" s="4">
         <v>9</v>
@@ -6366,10 +6366,10 @@
         <v>2020</v>
       </c>
       <c r="B56" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C56" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D56" s="4">
         <v>9</v>
@@ -6456,10 +6456,10 @@
         <v>2020</v>
       </c>
       <c r="B57" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C57" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D57" s="4">
         <v>9</v>
@@ -6546,10 +6546,10 @@
         <v>2020</v>
       </c>
       <c r="B58" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C58" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D58" s="4">
         <v>9</v>
@@ -6636,10 +6636,10 @@
         <v>2020</v>
       </c>
       <c r="B59" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C59" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D59" s="4">
         <v>9</v>
@@ -6726,10 +6726,10 @@
         <v>2020</v>
       </c>
       <c r="B60" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C60" s="3">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="D60" s="4">
         <v>9</v>
@@ -6904,132 +6904,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7050,207 +7050,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7273,162 +7273,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>169</v>
       </c>
     </row>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Vo.Bo. Uno UPP 4T 2020\4TO TRIMESTRE 2020\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="453">
   <si>
     <t>44220</t>
   </si>
@@ -539,718 +539,853 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Rector</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>Rectoría</t>
+  </si>
+  <si>
+    <t>Secretario Académico</t>
+  </si>
+  <si>
+    <t>Josúe Román</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>Mireles</t>
+  </si>
+  <si>
+    <t>Secretaría Académica</t>
+  </si>
+  <si>
+    <t>Jorge Alfredo</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Secretaría Administrativa</t>
+  </si>
+  <si>
+    <t>Director de la División de Estudios Profesionales</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Márquez</t>
+  </si>
+  <si>
+    <t>Dirección de la División de Estudios Profesionales</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Cortés</t>
+  </si>
+  <si>
+    <t>Montaño</t>
+  </si>
+  <si>
+    <t>Órgano Interno de Control</t>
+  </si>
+  <si>
+    <t>Azucena</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Figueroa</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>Abogado General</t>
+  </si>
+  <si>
+    <t>Alda Nelly</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Dirección de Logística</t>
+  </si>
+  <si>
+    <t>Eduardo Rubén</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Rivas</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social</t>
+  </si>
+  <si>
+    <t>Francisco Rafael</t>
+  </si>
+  <si>
+    <t>Trejo</t>
+  </si>
+  <si>
+    <t>Macotela</t>
+  </si>
+  <si>
+    <t>Dirección de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>Mayra Fabiola</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Software</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Financiera</t>
+  </si>
+  <si>
+    <t>Aguilera</t>
+  </si>
+  <si>
+    <t>Jíménez</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
+  </si>
+  <si>
+    <t>Alejandrina</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Valadez</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>Rosa María</t>
+  </si>
+  <si>
+    <t>Chío</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
+  </si>
+  <si>
+    <t>Iztmitl</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
+  </si>
+  <si>
+    <t>Brenda Berenice</t>
+  </si>
+  <si>
+    <t>Escorza</t>
+  </si>
+  <si>
+    <t>Coordinación de la Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Coordinación del Centro de Patentamiento</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Subdirección de Comunicación Social</t>
+  </si>
+  <si>
+    <t>María Guadalupe</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Coordinación de Gestión y Calidad Educativa</t>
+  </si>
+  <si>
+    <t>Alejandra</t>
+  </si>
+  <si>
+    <t>Espinosa</t>
+  </si>
+  <si>
+    <t>Coordinación de Posgrado en Didáctica y Ciencias</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Álvarez</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>Coordinación del Posgrado en Biotecnología</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Cornejo</t>
+  </si>
+  <si>
+    <t>Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones</t>
+  </si>
+  <si>
+    <t>Juan Benito</t>
+  </si>
+  <si>
+    <t>Pascual</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Coordinación del Posgrado en Mecatrónica</t>
+  </si>
+  <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Subdirección de Recursos Financieros</t>
+  </si>
+  <si>
+    <t>Ma. del Carmen</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Madrigal</t>
+  </si>
+  <si>
+    <t>Subdirección de Calidad</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Lozano</t>
+  </si>
+  <si>
+    <t>Subdirección de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Jose Raul</t>
+  </si>
+  <si>
+    <t>Dossetti</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Unidad de Promoción y Desarrollo Estudiantil</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Briones</t>
+  </si>
+  <si>
+    <t>Departamento de Programas Especiales</t>
+  </si>
+  <si>
+    <t>Lourdes Guadalupe</t>
+  </si>
+  <si>
+    <t>Árevalo</t>
+  </si>
+  <si>
+    <t>Baena</t>
+  </si>
+  <si>
+    <t>Departamento de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Ahsure Tatiana</t>
+  </si>
+  <si>
+    <t>Departamento Jurídico</t>
+  </si>
+  <si>
+    <t>Jhonathan Gonzalo</t>
+  </si>
+  <si>
+    <t>Godínez</t>
+  </si>
+  <si>
+    <t>Departamento de Logística</t>
+  </si>
+  <si>
+    <t>Julio César</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Departamento de Análisis y Desarrollo de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Félix Alberto</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>Departamento de Idiomas y Lenguas</t>
+  </si>
+  <si>
+    <t>Mary Carmen</t>
+  </si>
+  <si>
+    <t>Departamento de Desarrollo Académico</t>
+  </si>
+  <si>
+    <t>Valdivieso</t>
+  </si>
+  <si>
+    <t>Departamento de Servicios Bibliotecarios</t>
+  </si>
+  <si>
+    <t>Nancy Judith</t>
+  </si>
+  <si>
+    <t>Cortes</t>
+  </si>
+  <si>
+    <t>Departamento de Actividades Culturales, Deportivas y Recreativas</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Esquivel</t>
+  </si>
+  <si>
+    <t>Departamento de Internacionalización</t>
+  </si>
+  <si>
+    <t>Carlos Ernesto</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <t>Vizcaya</t>
+  </si>
+  <si>
+    <t>Departamento de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Jesús Eduardo</t>
+  </si>
+  <si>
+    <t>Juarico</t>
+  </si>
+  <si>
+    <t>Guaso</t>
+  </si>
+  <si>
+    <t>Departamento de Incubación de Empresas</t>
+  </si>
+  <si>
+    <t>Rómulo</t>
+  </si>
+  <si>
+    <t>Olvera</t>
+  </si>
+  <si>
+    <t>Departamento de Contabilidad</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Tinajar</t>
+  </si>
+  <si>
+    <t>Departamento de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Lizeth Guadalupe</t>
+  </si>
+  <si>
+    <t>Departamento de Atención y Promoción de la Salud</t>
+  </si>
+  <si>
+    <t>César Hugo</t>
+  </si>
+  <si>
+    <t>Dorantes</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Departamento de Mantenimiento y Servicios Generales</t>
+  </si>
+  <si>
+    <t>José Enoch</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Alfaro</t>
+  </si>
+  <si>
+    <t>Departamento de Administración del Polideportivo Plata</t>
+  </si>
+  <si>
+    <t>Donaciano</t>
+  </si>
+  <si>
+    <t>Calva</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisición, Bienes y Servicios</t>
+  </si>
+  <si>
+    <t>Departamento de Infraestructura</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Departamento de Tecnologías de la Información y Comunicaciones</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>Departamento de Servicios Escolares</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Proa</t>
+  </si>
+  <si>
+    <t>de la Fuente</t>
+  </si>
+  <si>
+    <t>Departamento de Evaluación y Estadísticas</t>
+  </si>
+  <si>
+    <t>11 C</t>
+  </si>
+  <si>
+    <t>11 B</t>
+  </si>
+  <si>
+    <t>10 A</t>
+  </si>
+  <si>
+    <t>09 C</t>
+  </si>
+  <si>
+    <t>Pachuca-Ciudad Sahagun Kilómetro 20, Ex Hacienda Santa Barbara</t>
+  </si>
+  <si>
+    <t>Sin número</t>
+  </si>
+  <si>
+    <t>Rancho Luna</t>
+  </si>
+  <si>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>upp@upp.edu.mx</t>
+  </si>
+  <si>
     <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
   <si>
-    <t>Rector</t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>Rectoría</t>
-  </si>
-  <si>
-    <t>Carretera Pachuca Ciudad Sahagun Kilómetro 20 Ex Hacienda Santa Barbara</t>
-  </si>
-  <si>
-    <t>Sin número</t>
-  </si>
-  <si>
-    <t>Rancho luna</t>
-  </si>
-  <si>
-    <t>Zempoala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54-77-510 </t>
-  </si>
-  <si>
-    <t>upp@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>12C</t>
-  </si>
-  <si>
-    <t>Secretario Académico</t>
-  </si>
-  <si>
-    <t>Josúe Román</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>Mireles</t>
-  </si>
-  <si>
-    <t>Secretaría Académica</t>
-  </si>
-  <si>
     <t>secretariaacademica@upp.edu.mx</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>Secretario Administrativo</t>
-  </si>
-  <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Secretaría Administrativa</t>
-  </si>
-  <si>
     <t>administracion@upp.edu.mx</t>
   </si>
   <si>
-    <t>Director de Área.</t>
-  </si>
-  <si>
-    <t>Espinosa</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>Órgano Interno de Control</t>
-  </si>
-  <si>
-    <t>Azucena</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Figueroa</t>
-  </si>
-  <si>
-    <t>Dirección de Vinculación</t>
+    <t>divisiondeestudios@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>crystycortes@upp.edu.mx</t>
   </si>
   <si>
     <t>dir.vinculacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Jiménez</t>
-  </si>
-  <si>
-    <t>Barrios</t>
-  </si>
-  <si>
-    <t>Abogado General</t>
-  </si>
-  <si>
     <t>juridico@upp.edu.mx</t>
   </si>
   <si>
-    <t>Alda Nelly</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>Dirección de Logística</t>
-  </si>
-  <si>
-    <t>Eduardo Rubén</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>Rivas</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social</t>
+    <t>dirlogistica@upp.edu.mx</t>
   </si>
   <si>
     <t>comunicacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>Márquez</t>
-  </si>
-  <si>
-    <t>Dirección de la División de Estudios Profesionales</t>
-  </si>
-  <si>
-    <t>divisiondeestudios@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Francisco Rafael</t>
-  </si>
-  <si>
-    <t>Trejo</t>
-  </si>
-  <si>
-    <t>Macotela</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t>Montes</t>
-  </si>
-  <si>
-    <t>Monroy</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación</t>
+    <t>diip@upp.edu.mx</t>
   </si>
   <si>
     <t>dirplaneacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>Director de Programa Académico</t>
-  </si>
-  <si>
-    <t>Mayra Fabiola</t>
-  </si>
-  <si>
-    <t>Peralta</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Software</t>
-  </si>
-  <si>
     <t>software@upp.edu.mx</t>
   </si>
   <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Financiera</t>
-  </si>
-  <si>
     <t>financiera@upp.edu.mx</t>
   </si>
   <si>
-    <t>Aguilera</t>
-  </si>
-  <si>
-    <t>Jíménez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
-  </si>
-  <si>
     <t>mecatronica@upp.edu.mx</t>
   </si>
   <si>
-    <t>Alejandrina</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Valadez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
-  </si>
-  <si>
     <t>biotecnologia@upp.edu.mx</t>
   </si>
   <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
-  </si>
-  <si>
     <t>mecanica_automotriz@upp.edu.mx</t>
   </si>
   <si>
-    <t>Rosa María</t>
-  </si>
-  <si>
-    <t>Chío</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
-  </si>
-  <si>
     <t>terapia_fisica@upp.edu.mx</t>
   </si>
   <si>
-    <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
-  </si>
-  <si>
     <t>biomedica@upp.edu.mx</t>
   </si>
   <si>
-    <t>Coordinación de la Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
     <t>medico_cirujano@upp.edu.mx</t>
   </si>
   <si>
-    <t>Subdirector de Área.</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>Coordinación del Centro de Patentamiento</t>
-  </si>
-  <si>
     <t>marcovera@upp.edu.mx</t>
   </si>
   <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Subdirección de Comunicación Social</t>
-  </si>
-  <si>
-    <t>María Guadalupe</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Coordinación de Gestión y Calidad Educativa</t>
-  </si>
-  <si>
     <t>gestioneducativa@upp.edu.mx</t>
   </si>
   <si>
-    <t>08 C</t>
-  </si>
-  <si>
-    <t>Alejandra</t>
-  </si>
-  <si>
-    <t>Coordinación de Posgrado en Didáctica y Ciencias</t>
-  </si>
-  <si>
     <t>alejandrahdz@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
-    <t>Cervantes</t>
-  </si>
-  <si>
-    <t>Coordinación del Posgrado en Biotecnología</t>
-  </si>
-  <si>
     <t>posgradobiotecnologia@upp.edu.mx</t>
   </si>
   <si>
-    <t>Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones</t>
-  </si>
-  <si>
-    <t>Juan Benito</t>
-  </si>
-  <si>
-    <t>Pascual</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Coordinación del Posgrado en Mecatrónica</t>
-  </si>
-  <si>
     <t>posgradomescatronica@upp.edu.mx</t>
   </si>
   <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>Mejía</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Subdirección de Recursos Financieros</t>
-  </si>
-  <si>
     <t>agustin.mejia@upp.edu.mx</t>
   </si>
   <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Madrigal</t>
-  </si>
-  <si>
-    <t>Subdirección de Calidad</t>
-  </si>
-  <si>
     <t>calidad@upp.edu.mx</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Lozano</t>
-  </si>
-  <si>
-    <t>Subdirección de Planeación y Presupuesto</t>
-  </si>
-  <si>
     <t>presupuesto@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe de Departamento.</t>
-  </si>
-  <si>
-    <t>Jose Raul</t>
-  </si>
-  <si>
-    <t>Dossetti</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>Unidad de Promoción y Desarrollo Estudiantil</t>
-  </si>
-  <si>
     <t>promocionestudiantil@upp.edu.mx</t>
   </si>
   <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Briones</t>
-  </si>
-  <si>
-    <t>Departamento de Programas Especiales</t>
-  </si>
-  <si>
     <t>pespeciales@upp.edu.mx</t>
   </si>
   <si>
-    <t>Lourdes Guadalupe</t>
-  </si>
-  <si>
-    <t>Árevalo</t>
-  </si>
-  <si>
-    <t>Baena</t>
-  </si>
-  <si>
-    <t>Departamento de Vinculación y Extensión</t>
-  </si>
-  <si>
     <t>lourdesgab_84@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jesús Eduardo</t>
-  </si>
-  <si>
-    <t>Juarico</t>
-  </si>
-  <si>
-    <t>Guaso</t>
-  </si>
-  <si>
-    <t>Departamento Jurídico</t>
-  </si>
-  <si>
-    <t>Jhonathan Gonzalo</t>
-  </si>
-  <si>
-    <t>Godínez</t>
-  </si>
-  <si>
-    <t>Departamento de Logística</t>
-  </si>
-  <si>
     <t>jhonathan@upp.edu.mx</t>
   </si>
   <si>
-    <t>Julio César</t>
-  </si>
-  <si>
-    <t>Departamento de Análisis y Desarrollo de Sistemas de Información</t>
-  </si>
-  <si>
     <t>desarrollo@upp.edu.mx</t>
   </si>
   <si>
-    <t>Félix Alberto</t>
-  </si>
-  <si>
-    <t>Rodríguez</t>
-  </si>
-  <si>
-    <t>Departamento de Idiomas y Lenguas</t>
-  </si>
-  <si>
     <t>ingles@upp.edu.mx</t>
   </si>
   <si>
-    <t>Ahsure Tatiana</t>
-  </si>
-  <si>
-    <t>Departamento de Desarrollo Académico</t>
-  </si>
-  <si>
     <t>desarrolloacademico@upp.edu.mx</t>
   </si>
   <si>
-    <t>Valdivieso</t>
-  </si>
-  <si>
-    <t>Departamento de Servicios Bibliotecarios</t>
-  </si>
-  <si>
     <t>biblioteca@upp.edu.mx</t>
   </si>
   <si>
-    <t>Nancy Judith</t>
-  </si>
-  <si>
-    <t>Cortes</t>
-  </si>
-  <si>
-    <t>Departamento de Actividades Culturales, Deportivas y Recreativas</t>
-  </si>
-  <si>
     <t>deportes@upp.edu.mx</t>
   </si>
   <si>
-    <t>Gerardo</t>
-  </si>
-  <si>
-    <t>Esquivel</t>
-  </si>
-  <si>
-    <t>Departamento de Internacionalización</t>
-  </si>
-  <si>
     <t>internacionalizacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>Carlos Ernesto</t>
-  </si>
-  <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <t>Vizcaya</t>
-  </si>
-  <si>
-    <t>Departamento de Educación a Distancia</t>
-  </si>
-  <si>
     <t>adistancia@upp.edu.mx</t>
   </si>
   <si>
-    <t>Departamento de Incubación de Empresas</t>
-  </si>
-  <si>
-    <t>Rómulo</t>
-  </si>
-  <si>
-    <t>Olvera</t>
-  </si>
-  <si>
-    <t>Departamento de Contabilidad</t>
-  </si>
-  <si>
     <t>romulo@upp.edu.mx</t>
   </si>
   <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>Tinajar</t>
-  </si>
-  <si>
-    <t>Departamento de Recursos Humanos</t>
-  </si>
-  <si>
     <t>recursoshumanos@upp.edu.mx</t>
   </si>
   <si>
-    <t>Luis Miguel</t>
-  </si>
-  <si>
-    <t>Acuña</t>
-  </si>
-  <si>
-    <t>Departamento de Atención y Promoción de la Salud</t>
-  </si>
-  <si>
-    <t>servicomedico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>César Hugo</t>
-  </si>
-  <si>
-    <t>Dorantes</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>Departamento de Mantenimiento y Servicios Generales</t>
+    <t>lizeth.hernandez@upp.edu.mx</t>
   </si>
   <si>
     <t>mantenimiento1@upp.edu.mx</t>
   </si>
   <si>
-    <t>José Enoch</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Alfaro</t>
-  </si>
-  <si>
-    <t>Departamento de Administración del Polideportivo Plata</t>
-  </si>
-  <si>
-    <t>71-59-903</t>
-  </si>
-  <si>
     <t>admonplata@upp.edu.mx</t>
   </si>
   <si>
-    <t>Donaciano</t>
-  </si>
-  <si>
-    <t>Calva</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisición, Bienes y Servicios</t>
-  </si>
-  <si>
     <t>adquisiciones@upp.edu.mx</t>
   </si>
   <si>
-    <t>Departamento de Infraestructura</t>
-  </si>
-  <si>
     <t>infraestructura@upp.edu.mx</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>Departamento de Tecnologías de la Información y Comunicaciones</t>
-  </si>
-  <si>
     <t>sistemas@upp.edu.mx</t>
   </si>
   <si>
-    <t>Margarita</t>
-  </si>
-  <si>
-    <t>Díaz</t>
-  </si>
-  <si>
-    <t>Departamento de Servicios Escolares</t>
-  </si>
-  <si>
     <t>servescolares@upp.edu.mx</t>
   </si>
   <si>
-    <t>Guadalupe</t>
-  </si>
-  <si>
-    <t>Proa</t>
-  </si>
-  <si>
-    <t>de la Fuente</t>
-  </si>
-  <si>
-    <t>Departamento de Evaluación y Estadísticas</t>
-  </si>
-  <si>
     <t>evaluacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>Ma. del Carmen</t>
-  </si>
-  <si>
-    <t>Mary Carmen</t>
-  </si>
-  <si>
-    <t>dirlogistica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>diip@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Iztmitl</t>
-  </si>
-  <si>
-    <t>Pendiente por designar</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>Cortés</t>
-  </si>
-  <si>
-    <t>Montaño</t>
-  </si>
-  <si>
-    <t>crystycortes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Brenda Berenice</t>
-  </si>
-  <si>
-    <t>Escorza</t>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Secretario Administativo</t>
+  </si>
+  <si>
+    <t>Titular del Órgano Interno de Control</t>
+  </si>
+  <si>
+    <t>Directora de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Directora de Logística</t>
+  </si>
+  <si>
+    <t>Director de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Director de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>Director de Planeación</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Ingeniería en Software</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Financiera</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
+  </si>
+  <si>
+    <t>Subdirector de Comunicación Social</t>
+  </si>
+  <si>
+    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
+  </si>
+  <si>
+    <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Biotecnología</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones.</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
+  </si>
+  <si>
+    <t>Subdirector de Recursos Financieros</t>
+  </si>
+  <si>
+    <t>Subdirectora de Calidad</t>
+  </si>
+  <si>
+    <t>Subdirector de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Programas Especiales</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento Jurídico</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Logística</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Idiomas y Lenguas</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Desarrollo Académico</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Internacionalización</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Incubación de Empresas</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Contabilidad</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Administración del Polideportivo</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Servicios Escolares</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Evaluación y Estadísticas</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1350,27 +1485,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1654,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,32 +1813,32 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" customWidth="1"/>
-    <col min="16" max="16" width="37" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" customWidth="1"/>
-    <col min="18" max="18" width="34.5703125" customWidth="1"/>
-    <col min="19" max="19" width="31.42578125" customWidth="1"/>
-    <col min="20" max="20" width="44.85546875" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" customWidth="1"/>
-    <col min="22" max="22" width="51.42578125" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.42578125" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="48.42578125" customWidth="1"/>
+    <col min="26" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.28515625" customWidth="1"/>
+    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -1714,7 +1863,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -1725,11 +1874,11 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2041,4773 +2190,4771 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="J8" s="5">
         <v>38838</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>87</v>
+      <c r="K8" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O8" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="P8" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S8" s="2">
         <v>83</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="4">
+      <c r="T8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U8" s="2">
         <v>13</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="2">
         <v>43830</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>180</v>
+      <c r="X8" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y8" s="4">
         <v>2200</v>
       </c>
-      <c r="Z8" s="6" t="s">
-        <v>181</v>
+      <c r="Z8" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C9" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>182</v>
+        <v>346</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J9" s="5">
         <v>39083</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>87</v>
+      <c r="K9" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O9" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="P9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S9" s="2">
         <v>83</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="4">
+      <c r="T9" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U9" s="2">
         <v>13</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="2">
         <v>43830</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>180</v>
+      <c r="X9" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y9" s="4">
         <v>2205</v>
       </c>
-      <c r="Z9" s="6" t="s">
-        <v>188</v>
+      <c r="Z9" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB9" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC9" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C10" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>190</v>
+        <v>404</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J10" s="5">
         <v>37867</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>87</v>
+      <c r="K10" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="P10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S10" s="2">
         <v>83</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="4">
+      <c r="T10" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U10" s="2">
         <v>13</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="2">
         <v>43830</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>180</v>
+      <c r="X10" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y10" s="4">
         <v>2251</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="Z10" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="5">
+        <v>38657</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S11" s="2">
+        <v>83</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U11" s="2">
+        <v>13</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X11" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>2450</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="7">
+        <v>44059</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S12" s="2">
+        <v>83</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U12" s="2">
+        <v>13</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W12" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X12" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>2262</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D11" s="4">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="J13" s="5">
+        <v>43517</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S13" s="2">
+        <v>83</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U13" s="2">
+        <v>13</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W13" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X13" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="G14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" s="5">
+        <v>43221</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q14" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J11" s="9">
-        <v>44059</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="O11" s="8" t="s">
+      <c r="R14" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S14" s="2">
+        <v>83</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U14" s="2">
+        <v>13</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W14" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X14" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2443</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="5">
+        <v>40228</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="8">
+      <c r="P15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S15" s="2">
         <v>83</v>
       </c>
-      <c r="T11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="U11" s="8">
+      <c r="T15" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U15" s="2">
         <v>13</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W15" s="2">
         <v>43830</v>
       </c>
-      <c r="X11" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>2262</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="X15" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2215</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="5">
-        <v>43517</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="G16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="5">
+        <v>43739</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="4">
+      <c r="P16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S16" s="2">
         <v>83</v>
       </c>
-      <c r="T12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="4">
+      <c r="T16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U16" s="2">
         <v>13</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W16" s="2">
         <v>43830</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>3000</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D13" s="4">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="X16" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>2214</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>44298</v>
+      </c>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44286</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J13" s="5">
-        <v>43221</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="4">
-        <v>83</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" s="4">
-        <v>13</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="W13" s="4">
-        <v>43830</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>2443</v>
-      </c>
-      <c r="Z13" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AA13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D14" s="4">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J14" s="5">
-        <v>40228</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>1</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="4">
-        <v>83</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="4">
-        <v>13</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="W14" s="4">
-        <v>43830</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>2215</v>
-      </c>
-      <c r="Z14" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D15" s="4">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J15" s="5">
-        <v>43739</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="4">
-        <v>83</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="4">
-        <v>13</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="W15" s="4">
-        <v>43830</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>2214</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D16" s="4">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="5">
-        <v>38657</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>1</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="4">
-        <v>83</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="4">
-        <v>13</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="W16" s="4">
-        <v>43830</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>2450</v>
-      </c>
-      <c r="Z16" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D17" s="4">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="J17" s="5">
         <v>38726</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>87</v>
+      <c r="K17" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O17" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" s="4">
+      <c r="P17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S17" s="2">
         <v>83</v>
       </c>
-      <c r="T17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U17" s="4">
+      <c r="T17" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U17" s="2">
         <v>13</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="2">
         <v>43830</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>180</v>
+      <c r="X17" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y17" s="4">
         <v>2276</v>
       </c>
-      <c r="Z17" s="6" t="s">
-        <v>399</v>
+      <c r="Z17" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB17" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC17" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C18" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
+        <v>44286</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>196</v>
+        <v>410</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="J18" s="5">
         <v>42860</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>87</v>
+      <c r="K18" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O18" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S18" s="4">
+      <c r="P18" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S18" s="2">
         <v>83</v>
       </c>
-      <c r="T18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U18" s="4">
+      <c r="T18" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U18" s="2">
         <v>13</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="2">
         <v>43830</v>
       </c>
-      <c r="X18" s="4" t="s">
-        <v>180</v>
+      <c r="X18" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y18" s="4">
         <v>2228</v>
       </c>
-      <c r="Z18" s="6" t="s">
-        <v>230</v>
+      <c r="Z18" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB18" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC18" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C19" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>232</v>
+        <v>411</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J19" s="5">
         <v>39829</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>87</v>
+      <c r="K19" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S19" s="4">
+      <c r="P19" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S19" s="2">
         <v>83</v>
       </c>
-      <c r="T19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U19" s="4">
+      <c r="T19" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U19" s="2">
         <v>13</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="V19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="2">
         <v>43830</v>
       </c>
-      <c r="X19" s="4" t="s">
-        <v>180</v>
+      <c r="X19" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y19" s="4">
         <v>2221</v>
       </c>
-      <c r="Z19" s="6" t="s">
-        <v>236</v>
+      <c r="Z19" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB19" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC19" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C20" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="J20" s="5">
         <v>40665</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>87</v>
+      <c r="K20" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O20" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S20" s="4">
+      <c r="P20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S20" s="2">
         <v>83</v>
       </c>
-      <c r="T20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U20" s="4">
+      <c r="T20" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U20" s="2">
         <v>13</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="V20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="2">
         <v>43830</v>
       </c>
-      <c r="X20" s="4" t="s">
-        <v>180</v>
+      <c r="X20" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y20" s="4">
         <v>3009</v>
       </c>
-      <c r="Z20" s="6" t="s">
-        <v>240</v>
+      <c r="Z20" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB20" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC20" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C21" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="J21" s="5">
         <v>38626</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>87</v>
+      <c r="K21" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O21" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S21" s="4">
+      <c r="P21" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S21" s="2">
         <v>83</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U21" s="4">
+      <c r="T21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U21" s="2">
         <v>13</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="V21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="2">
         <v>43830</v>
       </c>
-      <c r="X21" s="4" t="s">
-        <v>180</v>
+      <c r="X21" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y21" s="4">
         <v>2223</v>
       </c>
-      <c r="Z21" s="6" t="s">
-        <v>244</v>
+      <c r="Z21" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB21" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC21" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C22" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="J22" s="5">
         <v>41730</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>87</v>
+      <c r="K22" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O22" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S22" s="4">
+      <c r="P22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S22" s="2">
         <v>83</v>
       </c>
-      <c r="T22" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U22" s="4">
+      <c r="T22" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U22" s="2">
         <v>13</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="V22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="2">
         <v>43830</v>
       </c>
-      <c r="X22" s="4" t="s">
-        <v>180</v>
+      <c r="X22" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y22" s="4">
         <v>2479</v>
       </c>
-      <c r="Z22" s="6" t="s">
-        <v>249</v>
+      <c r="Z22" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB22" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC22" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C23" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J23" s="5">
         <v>39829</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>87</v>
+      <c r="K23" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O23" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>1</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S23" s="4">
+      <c r="P23" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S23" s="2">
         <v>83</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U23" s="4">
+      <c r="T23" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U23" s="2">
         <v>13</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="2">
         <v>43830</v>
       </c>
-      <c r="X23" s="4" t="s">
-        <v>180</v>
+      <c r="X23" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y23" s="4">
         <v>2221</v>
       </c>
-      <c r="Z23" s="6" t="s">
-        <v>236</v>
+      <c r="Z23" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB23" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC23" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C24" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="J24" s="5">
         <v>41944</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>87</v>
+      <c r="K24" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O24" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S24" s="4">
+      <c r="P24" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S24" s="2">
         <v>83</v>
       </c>
-      <c r="T24" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U24" s="4">
+      <c r="T24" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U24" s="2">
         <v>13</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="2">
         <v>43830</v>
       </c>
-      <c r="X24" s="4" t="s">
-        <v>180</v>
+      <c r="X24" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y24" s="4">
         <v>2223</v>
       </c>
-      <c r="Z24" s="6" t="s">
-        <v>254</v>
+      <c r="Z24" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB24" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC24" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C25" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="J25" s="5">
         <v>41883</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>87</v>
+      <c r="K25" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O25" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S25" s="4">
+      <c r="P25" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S25" s="2">
         <v>83</v>
       </c>
-      <c r="T25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U25" s="4">
+      <c r="T25" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U25" s="2">
         <v>13</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="V25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="2">
         <v>43830</v>
       </c>
-      <c r="X25" s="4" t="s">
-        <v>180</v>
+      <c r="X25" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y25" s="4">
         <v>2252</v>
       </c>
-      <c r="Z25" s="6" t="s">
-        <v>259</v>
+      <c r="Z25" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB25" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC25" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C26" s="3">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>232</v>
+        <v>418</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>395</v>
+        <v>238</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="J26" s="5">
         <v>43719</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>87</v>
+      <c r="K26" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O26" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P26" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S26" s="4">
+      <c r="P26" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S26" s="2">
         <v>83</v>
       </c>
-      <c r="T26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U26" s="4">
+      <c r="T26" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U26" s="2">
         <v>13</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="V26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="2">
         <v>43830</v>
       </c>
-      <c r="X26" s="4" t="s">
-        <v>180</v>
+      <c r="X26" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y26" s="4">
         <v>2343</v>
       </c>
-      <c r="Z26" s="6" t="s">
-        <v>261</v>
+      <c r="Z26" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB26" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC26" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C27" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D27" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>232</v>
+        <v>419</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>406</v>
+        <v>240</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>407</v>
+        <v>241</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="J27" s="5">
         <v>44120</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>87</v>
+      <c r="K27" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O27" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S27" s="4">
+      <c r="P27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S27" s="2">
         <v>83</v>
       </c>
-      <c r="T27" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U27" s="4">
+      <c r="T27" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U27" s="2">
         <v>13</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="V27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27" s="2">
         <v>43830</v>
       </c>
-      <c r="X27" s="4" t="s">
-        <v>180</v>
+      <c r="X27" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y27" s="4">
         <v>2528</v>
       </c>
-      <c r="Z27" s="6" t="s">
-        <v>263</v>
+      <c r="Z27" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB27" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC27" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C28" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>264</v>
+        <v>420</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="J28" s="5">
         <v>40679</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>87</v>
+      <c r="K28" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O28" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S28" s="4">
+      <c r="P28" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S28" s="2">
         <v>83</v>
       </c>
-      <c r="T28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U28" s="4">
+      <c r="T28" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U28" s="2">
         <v>13</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="2">
         <v>43830</v>
       </c>
-      <c r="X28" s="4" t="s">
-        <v>180</v>
+      <c r="X28" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y28" s="4">
         <v>2381</v>
       </c>
-      <c r="Z28" s="6" t="s">
-        <v>267</v>
+      <c r="Z28" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB28" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC28" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C29" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D29" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>264</v>
+        <v>421</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="J29" s="5">
         <v>42759</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>87</v>
+      <c r="K29" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O29" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P29" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S29" s="4">
+      <c r="P29" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S29" s="2">
         <v>83</v>
       </c>
-      <c r="T29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U29" s="4">
+      <c r="T29" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U29" s="2">
         <v>13</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29" s="2">
         <v>43830</v>
       </c>
-      <c r="X29" s="4" t="s">
-        <v>180</v>
+      <c r="X29" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y29" s="4">
         <v>2214</v>
       </c>
-      <c r="Z29" s="6" t="s">
-        <v>217</v>
+      <c r="Z29" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB29" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC29" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C30" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D30" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>264</v>
+        <v>422</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="J30" s="5">
         <v>41655</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>87</v>
+      <c r="K30" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O30" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>1</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S30" s="4">
+      <c r="P30" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S30" s="2">
         <v>83</v>
       </c>
-      <c r="T30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U30" s="4">
+      <c r="T30" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U30" s="2">
         <v>13</v>
       </c>
-      <c r="V30" s="4" t="s">
+      <c r="V30" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="2">
         <v>43830</v>
       </c>
-      <c r="X30" s="4" t="s">
-        <v>180</v>
+      <c r="X30" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y30" s="4">
         <v>2279</v>
       </c>
-      <c r="Z30" s="6" t="s">
-        <v>273</v>
+      <c r="Z30" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB30" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC30" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C31" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>274</v>
+        <v>44286</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="I31" s="4" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="J31" s="5">
         <v>43320</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>87</v>
+      <c r="K31" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O31" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>1</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S31" s="4">
+      <c r="P31" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S31" s="2">
         <v>83</v>
       </c>
-      <c r="T31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U31" s="4">
+      <c r="T31" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U31" s="2">
         <v>13</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="V31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="2">
         <v>43830</v>
       </c>
-      <c r="X31" s="4" t="s">
-        <v>180</v>
+      <c r="X31" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y31" s="4">
         <v>2503</v>
       </c>
-      <c r="Z31" s="6" t="s">
-        <v>277</v>
+      <c r="Z31" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB31" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC31" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C32" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D32" s="4">
-        <v>10</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>281</v>
+        <v>44286</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>87</v>
+      <c r="K32" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O32" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S32" s="4">
+      <c r="P32" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S32" s="2">
         <v>83</v>
       </c>
-      <c r="T32" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U32" s="4">
+      <c r="T32" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U32" s="2">
         <v>13</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="V32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W32" s="4">
+      <c r="W32" s="2">
         <v>43830</v>
       </c>
-      <c r="X32" s="4" t="s">
-        <v>180</v>
+      <c r="X32" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y32" s="4">
         <v>2503</v>
       </c>
-      <c r="Z32" s="6" t="s">
-        <v>282</v>
+      <c r="Z32" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB32" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC32" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C33" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D33" s="4">
-        <v>10</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>264</v>
+        <v>44286</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>401</v>
+        <v>257</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>401</v>
+        <v>235</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>283</v>
+        <v>258</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>87</v>
+      <c r="K33" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O33" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S33" s="4">
+      <c r="P33" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S33" s="2">
         <v>83</v>
       </c>
-      <c r="T33" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U33" s="4">
+      <c r="T33" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U33" s="2">
         <v>13</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="V33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W33" s="4">
+      <c r="W33" s="2">
         <v>43830</v>
       </c>
-      <c r="X33" s="4" t="s">
-        <v>180</v>
+      <c r="X33" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y33" s="4">
         <v>2503</v>
       </c>
-      <c r="Z33" s="6" t="s">
-        <v>399</v>
+      <c r="Z33" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB33" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC33" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44298</v>
+      </c>
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C34" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D34" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>264</v>
+        <v>426</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>87</v>
+      <c r="K34" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O34" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P34" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>1</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S34" s="4">
+      <c r="P34" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S34" s="2">
         <v>83</v>
       </c>
-      <c r="T34" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U34" s="4">
+      <c r="T34" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U34" s="2">
         <v>13</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="V34" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="2">
         <v>43830</v>
       </c>
-      <c r="X34" s="4" t="s">
-        <v>180</v>
+      <c r="X34" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y34" s="4">
         <v>2503</v>
       </c>
-      <c r="Z34" s="6" t="s">
-        <v>288</v>
+      <c r="Z34" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB34" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC34" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C35" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D35" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="G35" s="4" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="J35" s="5">
         <v>42095</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>87</v>
+      <c r="K35" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O35" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P35" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>1</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S35" s="4">
+      <c r="P35" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S35" s="2">
         <v>83</v>
       </c>
-      <c r="T35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U35" s="4">
+      <c r="T35" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U35" s="2">
         <v>13</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="V35" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W35" s="2">
         <v>43830</v>
       </c>
-      <c r="X35" s="4" t="s">
-        <v>180</v>
+      <c r="X35" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y35" s="4">
         <v>2210</v>
       </c>
-      <c r="Z35" s="6" t="s">
-        <v>293</v>
+      <c r="Z35" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB35" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC35" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C36" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D36" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>264</v>
+        <v>428</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>87</v>
+      <c r="K36" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O36" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>1</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S36" s="4">
+      <c r="P36" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S36" s="2">
         <v>83</v>
       </c>
-      <c r="T36" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U36" s="4">
+      <c r="T36" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U36" s="2">
         <v>13</v>
       </c>
-      <c r="V36" s="4" t="s">
+      <c r="V36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W36" s="4">
+      <c r="W36" s="2">
         <v>43830</v>
       </c>
-      <c r="X36" s="4" t="s">
-        <v>180</v>
+      <c r="X36" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y36" s="4">
         <v>2265</v>
       </c>
-      <c r="Z36" s="6" t="s">
-        <v>297</v>
+      <c r="Z36" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB36" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC36" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD36" s="2"/>
     </row>
-    <row r="37" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C37" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D37" s="4">
-        <v>10</v>
+        <v>44286</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>264</v>
+        <v>429</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="J37" s="5">
         <v>40756</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>87</v>
+      <c r="K37" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O37" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P37" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>1</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S37" s="4">
+      <c r="P37" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S37" s="2">
         <v>83</v>
       </c>
-      <c r="T37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U37" s="4">
+      <c r="T37" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U37" s="2">
         <v>13</v>
       </c>
-      <c r="V37" s="4" t="s">
+      <c r="V37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W37" s="4">
+      <c r="W37" s="2">
         <v>43830</v>
       </c>
-      <c r="X37" s="4" t="s">
-        <v>180</v>
+      <c r="X37" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y37" s="4">
         <v>2274</v>
       </c>
-      <c r="Z37" s="6" t="s">
-        <v>301</v>
+      <c r="Z37" s="10" t="s">
+        <v>381</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB37" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC37" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD37" s="2"/>
     </row>
-    <row r="38" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C38" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D38" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="J38" s="5">
         <v>43517</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>87</v>
+      <c r="K38" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O38" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P38" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>1</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S38" s="4">
+      <c r="P38" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S38" s="2">
         <v>83</v>
       </c>
-      <c r="T38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U38" s="4">
+      <c r="T38" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U38" s="2">
         <v>13</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="V38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W38" s="4">
+      <c r="W38" s="2">
         <v>43830</v>
       </c>
-      <c r="X38" s="4" t="s">
-        <v>180</v>
+      <c r="X38" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y38" s="4">
         <v>2824</v>
       </c>
-      <c r="Z38" s="6" t="s">
-        <v>307</v>
+      <c r="Z38" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB38" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC38" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD38" s="2"/>
     </row>
-    <row r="39" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C39" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D39" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>302</v>
+        <v>431</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="J39" s="5">
         <v>38384</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>87</v>
+      <c r="K39" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O39" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P39" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S39" s="4">
+      <c r="P39" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S39" s="2">
         <v>83</v>
       </c>
-      <c r="T39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U39" s="4">
+      <c r="T39" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U39" s="2">
         <v>13</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="V39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W39" s="4">
+      <c r="W39" s="2">
         <v>43830</v>
       </c>
-      <c r="X39" s="4" t="s">
-        <v>180</v>
+      <c r="X39" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y39" s="4">
         <v>2205</v>
       </c>
-      <c r="Z39" s="6" t="s">
-        <v>311</v>
+      <c r="Z39" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB39" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC39" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD39" s="2"/>
     </row>
-    <row r="40" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C40" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D40" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>302</v>
+        <v>432</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="J40" s="5">
         <v>40452</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>87</v>
+      <c r="K40" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O40" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P40" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S40" s="4">
+      <c r="P40" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S40" s="2">
         <v>83</v>
       </c>
-      <c r="T40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U40" s="4">
+      <c r="T40" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U40" s="2">
         <v>13</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="V40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W40" s="4">
+      <c r="W40" s="2">
         <v>43830</v>
       </c>
-      <c r="X40" s="4" t="s">
-        <v>180</v>
+      <c r="X40" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y40" s="4">
         <v>2300</v>
       </c>
-      <c r="Z40" s="6" t="s">
-        <v>316</v>
+      <c r="Z40" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB40" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC40" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C41" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D41" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>271</v>
+        <v>433</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="J41" s="5">
         <v>43831</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>87</v>
+      <c r="K41" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O41" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P41" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>1</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S41" s="4">
+      <c r="P41" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S41" s="2">
         <v>83</v>
       </c>
-      <c r="T41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U41" s="4">
+      <c r="T41" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U41" s="2">
         <v>13</v>
       </c>
-      <c r="V41" s="4" t="s">
+      <c r="V41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="4">
+      <c r="W41" s="2">
         <v>43830</v>
       </c>
-      <c r="X41" s="4" t="s">
-        <v>180</v>
+      <c r="X41" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y41" s="4">
         <v>2443</v>
       </c>
-      <c r="Z41" s="6" t="s">
-        <v>209</v>
+      <c r="Z41" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB41" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC41" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C42" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D42" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>291</v>
+        <v>434</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>87</v>
+      <c r="K42" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O42" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S42" s="4">
+      <c r="P42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S42" s="2">
         <v>83</v>
       </c>
-      <c r="T42" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U42" s="4">
+      <c r="T42" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U42" s="2">
         <v>13</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="V42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W42" s="4">
+      <c r="W42" s="2">
         <v>43830</v>
       </c>
-      <c r="X42" s="4" t="s">
-        <v>180</v>
+      <c r="X42" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y42" s="4">
         <v>2215</v>
       </c>
-      <c r="Z42" s="6" t="s">
-        <v>324</v>
+      <c r="Z42" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB42" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC42" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C43" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D43" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>198</v>
+        <v>435</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="J43" s="5">
         <v>39326</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>87</v>
+      <c r="K43" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O43" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P43" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S43" s="4">
+      <c r="P43" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S43" s="2">
         <v>83</v>
       </c>
-      <c r="T43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U43" s="4">
+      <c r="T43" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U43" s="2">
         <v>13</v>
       </c>
-      <c r="V43" s="4" t="s">
+      <c r="V43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W43" s="4">
+      <c r="W43" s="2">
         <v>43830</v>
       </c>
-      <c r="X43" s="4" t="s">
-        <v>180</v>
+      <c r="X43" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y43" s="4">
         <v>2230</v>
       </c>
-      <c r="Z43" s="6" t="s">
-        <v>327</v>
+      <c r="Z43" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB43" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC43" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C44" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D44" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>329</v>
+        <v>436</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="J44" s="5">
         <v>40547</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>87</v>
+      <c r="K44" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O44" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P44" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S44" s="4">
+      <c r="P44" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S44" s="2">
         <v>83</v>
       </c>
-      <c r="T44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U44" s="4">
+      <c r="T44" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U44" s="2">
         <v>13</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="V44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W44" s="4">
+      <c r="W44" s="2">
         <v>43830</v>
       </c>
-      <c r="X44" s="4" t="s">
-        <v>180</v>
+      <c r="X44" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y44" s="4">
         <v>2493</v>
       </c>
-      <c r="Z44" s="6" t="s">
-        <v>331</v>
+      <c r="Z44" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB44" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC44" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C45" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D45" s="4">
-        <v>9</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>333</v>
+        <v>44286</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="J45" s="5">
         <v>43877</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>87</v>
+      <c r="K45" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O45" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P45" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>1</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S45" s="4">
+      <c r="P45" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S45" s="2">
         <v>83</v>
       </c>
-      <c r="T45" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U45" s="4">
+      <c r="T45" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U45" s="2">
         <v>13</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="V45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W45" s="4">
+      <c r="W45" s="2">
         <v>43830</v>
       </c>
-      <c r="X45" s="4" t="s">
-        <v>180</v>
+      <c r="X45" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y45" s="4">
         <v>2204</v>
       </c>
-      <c r="Z45" s="6" t="s">
-        <v>334</v>
+      <c r="Z45" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB45" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC45" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C46" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D46" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>329</v>
+        <v>438</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="J46" s="5">
         <v>38626</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>87</v>
+      <c r="K46" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O46" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P46" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S46" s="4">
+      <c r="P46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q46" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S46" s="2">
         <v>83</v>
       </c>
-      <c r="T46" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U46" s="4">
+      <c r="T46" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U46" s="2">
         <v>13</v>
       </c>
-      <c r="V46" s="4" t="s">
+      <c r="V46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W46" s="4">
+      <c r="W46" s="2">
         <v>43830</v>
       </c>
-      <c r="X46" s="4" t="s">
-        <v>180</v>
+      <c r="X46" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y46" s="4">
         <v>2259</v>
       </c>
-      <c r="Z46" s="6" t="s">
-        <v>337</v>
+      <c r="Z46" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB46" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC46" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD46" s="2"/>
     </row>
-    <row r="47" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C47" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D47" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>185</v>
+      <c r="H47" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="J47" s="5">
         <v>42646</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>87</v>
+      <c r="K47" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O47" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>1</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S47" s="4">
+      <c r="P47" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S47" s="2">
         <v>83</v>
       </c>
-      <c r="T47" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U47" s="4">
+      <c r="T47" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U47" s="2">
         <v>13</v>
       </c>
-      <c r="V47" s="4" t="s">
+      <c r="V47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W47" s="4">
+      <c r="W47" s="2">
         <v>43830</v>
       </c>
-      <c r="X47" s="4" t="s">
-        <v>180</v>
+      <c r="X47" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y47" s="4">
         <v>2450</v>
       </c>
-      <c r="Z47" s="6" t="s">
-        <v>341</v>
+      <c r="Z47" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB47" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC47" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD47" s="2"/>
     </row>
-    <row r="48" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C48" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D48" s="4">
-        <v>9</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>344</v>
+        <v>44286</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="J48" s="5">
         <v>43466</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>87</v>
+      <c r="K48" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O48" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P48" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>1</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S48" s="4">
+      <c r="P48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S48" s="2">
         <v>83</v>
       </c>
-      <c r="T48" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U48" s="4">
+      <c r="T48" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U48" s="2">
         <v>13</v>
       </c>
-      <c r="V48" s="4" t="s">
+      <c r="V48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W48" s="4">
+      <c r="W48" s="2">
         <v>43830</v>
       </c>
-      <c r="X48" s="4" t="s">
-        <v>180</v>
+      <c r="X48" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y48" s="4">
         <v>2311</v>
       </c>
-      <c r="Z48" s="6" t="s">
-        <v>345</v>
+      <c r="Z48" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB48" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC48" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD48" s="2"/>
     </row>
-    <row r="49" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C49" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D49" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>348</v>
+        <v>441</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="J49" s="5">
         <v>38504</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>87</v>
+      <c r="K49" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O49" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>1</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S49" s="4">
+      <c r="P49" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q49" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S49" s="2">
         <v>83</v>
       </c>
-      <c r="T49" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U49" s="4">
+      <c r="T49" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U49" s="2">
         <v>13</v>
       </c>
-      <c r="V49" s="4" t="s">
+      <c r="V49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W49" s="4">
+      <c r="W49" s="2">
         <v>43830</v>
       </c>
-      <c r="X49" s="4" t="s">
-        <v>180</v>
+      <c r="X49" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y49" s="4">
         <v>2316</v>
       </c>
-      <c r="Z49" s="6" t="s">
-        <v>350</v>
+      <c r="Z49" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB49" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC49" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C50" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D50" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>319</v>
+        <v>442</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="J50" s="5">
         <v>38504</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>87</v>
+      <c r="K50" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O50" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>1</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S50" s="4">
+      <c r="P50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q50" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S50" s="2">
         <v>83</v>
       </c>
-      <c r="T50" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U50" s="4">
+      <c r="T50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U50" s="2">
         <v>13</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="V50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W50" s="4">
+      <c r="W50" s="2">
         <v>43830</v>
       </c>
-      <c r="X50" s="4" t="s">
-        <v>180</v>
+      <c r="X50" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y50" s="4">
         <v>2401</v>
       </c>
-      <c r="Z50" s="6" t="s">
-        <v>399</v>
+      <c r="Z50" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB50" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC50" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C51" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D51" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="H51" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" s="5">
+        <v>42445</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q51" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S51" s="2">
+        <v>83</v>
+      </c>
+      <c r="T51" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J51" s="5">
-        <v>40210</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S51" s="4">
-        <v>83</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U51" s="4">
+      <c r="U51" s="2">
         <v>13</v>
       </c>
-      <c r="V51" s="4" t="s">
+      <c r="V51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W51" s="4">
+      <c r="W51" s="2">
         <v>43830</v>
       </c>
-      <c r="X51" s="4" t="s">
-        <v>180</v>
+      <c r="X51" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y51" s="4">
         <v>2210</v>
       </c>
-      <c r="Z51" s="6" t="s">
+      <c r="Z51" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA51" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AA51" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="AB51" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC51" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C52" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D52" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>302</v>
+        <v>444</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="J52" s="5">
-        <v>41867</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>87</v>
+        <v>43160</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O52" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>1</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S52" s="4">
+      <c r="P52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q52" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S52" s="2">
         <v>83</v>
       </c>
-      <c r="T52" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U52" s="4">
+      <c r="T52" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U52" s="2">
         <v>13</v>
       </c>
-      <c r="V52" s="4" t="s">
+      <c r="V52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W52" s="4">
+      <c r="W52" s="2">
         <v>43830</v>
       </c>
-      <c r="X52" s="4" t="s">
-        <v>180</v>
+      <c r="X52" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y52" s="4">
         <v>2227</v>
       </c>
-      <c r="Z52" s="6" t="s">
-        <v>360</v>
+      <c r="Z52" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB52" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC52" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C53" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D53" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="J53" s="5">
-        <v>43742</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>87</v>
+        <v>44271</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O53" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P53" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S53" s="4">
+      <c r="P53" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S53" s="2">
         <v>83</v>
       </c>
-      <c r="T53" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U53" s="4">
+      <c r="T53" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U53" s="2">
         <v>13</v>
       </c>
-      <c r="V53" s="4" t="s">
+      <c r="V53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W53" s="4">
+      <c r="W53" s="2">
         <v>43830</v>
       </c>
-      <c r="X53" s="4" t="s">
-        <v>180</v>
+      <c r="X53" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y53" s="4">
         <v>2253</v>
       </c>
-      <c r="Z53" s="6" t="s">
-        <v>364</v>
+      <c r="Z53" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB53" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC53" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C54" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D54" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="J54" s="5">
-        <v>42522</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>87</v>
+        <v>42767</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O54" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P54" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S54" s="4">
+      <c r="P54" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S54" s="2">
         <v>83</v>
       </c>
-      <c r="T54" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U54" s="4">
+      <c r="T54" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U54" s="2">
         <v>13</v>
       </c>
-      <c r="V54" s="4" t="s">
+      <c r="V54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W54" s="4">
+      <c r="W54" s="2">
         <v>43830</v>
       </c>
-      <c r="X54" s="4" t="s">
-        <v>180</v>
+      <c r="X54" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y54" s="4">
         <v>2231</v>
       </c>
-      <c r="Z54" s="6" t="s">
-        <v>369</v>
+      <c r="Z54" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB54" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC54" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C55" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D55" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>302</v>
+        <v>447</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="J55" s="5">
-        <v>38565</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>87</v>
+        <v>42979</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O55" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P55" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>1</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S55" s="4">
+      <c r="P55" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q55" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S55" s="2">
         <v>83</v>
       </c>
-      <c r="T55" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U55" s="4">
+      <c r="T55" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U55" s="2">
         <v>13</v>
       </c>
-      <c r="V55" s="4" t="s">
+      <c r="V55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W55" s="4">
+      <c r="W55" s="2">
         <v>43830</v>
       </c>
-      <c r="X55" s="4" t="s">
-        <v>374</v>
+      <c r="X55" s="4">
+        <v>7717159903</v>
       </c>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="6" t="s">
-        <v>375</v>
+      <c r="Z55" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB55" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC55" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C56" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D56" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>302</v>
+        <v>448</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="J56" s="5">
-        <v>41655</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>87</v>
+        <v>42810</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O56" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P56" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>1</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S56" s="4">
+      <c r="P56" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S56" s="2">
         <v>83</v>
       </c>
-      <c r="T56" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U56" s="4">
+      <c r="T56" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U56" s="2">
         <v>13</v>
       </c>
-      <c r="V56" s="4" t="s">
+      <c r="V56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W56" s="4">
+      <c r="W56" s="2">
         <v>43830</v>
       </c>
-      <c r="X56" s="4" t="s">
-        <v>180</v>
+      <c r="X56" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y56" s="4">
         <v>3006</v>
       </c>
-      <c r="Z56" s="6" t="s">
-        <v>379</v>
+      <c r="Z56" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB56" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC56" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C57" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D57" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>302</v>
+        <v>449</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="J57" s="5">
         <v>38687</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>87</v>
+      <c r="K57" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O57" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P57" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>1</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S57" s="4">
+      <c r="P57" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S57" s="2">
         <v>83</v>
       </c>
-      <c r="T57" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U57" s="4">
+      <c r="T57" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U57" s="2">
         <v>13</v>
       </c>
-      <c r="V57" s="4" t="s">
+      <c r="V57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W57" s="4">
+      <c r="W57" s="2">
         <v>43830</v>
       </c>
-      <c r="X57" s="4" t="s">
-        <v>180</v>
+      <c r="X57" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y57" s="4">
         <v>2218</v>
       </c>
-      <c r="Z57" s="6" t="s">
-        <v>381</v>
+      <c r="Z57" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB57" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC57" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C58" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D58" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>302</v>
+        <v>450</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="J58" s="5">
-        <v>40917</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>87</v>
+        <v>42767</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O58" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P58" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>1</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S58" s="4">
+      <c r="P58" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S58" s="2">
         <v>83</v>
       </c>
-      <c r="T58" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U58" s="4">
+      <c r="T58" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U58" s="2">
         <v>13</v>
       </c>
-      <c r="V58" s="4" t="s">
+      <c r="V58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W58" s="4">
+      <c r="W58" s="2">
         <v>43830</v>
       </c>
-      <c r="X58" s="4" t="s">
-        <v>180</v>
+      <c r="X58" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y58" s="4">
         <v>2217</v>
       </c>
-      <c r="Z58" s="6" t="s">
-        <v>385</v>
+      <c r="Z58" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB58" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC58" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C59" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D59" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>87</v>
+      <c r="K59" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O59" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P59" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>1</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S59" s="4">
+      <c r="P59" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S59" s="2">
         <v>83</v>
       </c>
-      <c r="T59" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U59" s="4">
+      <c r="T59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U59" s="2">
         <v>13</v>
       </c>
-      <c r="V59" s="4" t="s">
+      <c r="V59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W59" s="4">
+      <c r="W59" s="2">
         <v>43830</v>
       </c>
-      <c r="X59" s="4" t="s">
-        <v>180</v>
+      <c r="X59" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y59" s="4">
         <v>2213</v>
       </c>
-      <c r="Z59" s="6" t="s">
-        <v>389</v>
+      <c r="Z59" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB59" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC59" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B60" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C60" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D60" s="4">
-        <v>9</v>
+        <v>44286</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>302</v>
+        <v>452</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>87</v>
+      <c r="K60" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O60" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P60" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q60" s="4">
-        <v>1</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S60" s="4">
+      <c r="P60" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q60" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="S60" s="2">
         <v>83</v>
       </c>
-      <c r="T60" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U60" s="4">
+      <c r="T60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U60" s="2">
         <v>13</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="V60" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W60" s="4">
+      <c r="W60" s="2">
         <v>43830</v>
       </c>
-      <c r="X60" s="4" t="s">
-        <v>180</v>
+      <c r="X60" s="4">
+        <v>7715477510</v>
       </c>
       <c r="Y60" s="4">
         <v>2233</v>
       </c>
-      <c r="Z60" s="6" t="s">
-        <v>394</v>
+      <c r="Z60" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="AB60" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AC60" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="AD60" s="2"/>
     </row>
@@ -6822,13 +6969,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K61">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O61">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V61">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
@@ -6836,12 +6983,12 @@
     <hyperlink ref="Z8" r:id="rId1"/>
     <hyperlink ref="Z9" r:id="rId2"/>
     <hyperlink ref="Z10" r:id="rId3"/>
-    <hyperlink ref="Z11" r:id="rId4"/>
-    <hyperlink ref="Z12" r:id="rId5"/>
-    <hyperlink ref="Z13" r:id="rId6"/>
-    <hyperlink ref="Z14" r:id="rId7"/>
-    <hyperlink ref="Z15" r:id="rId8"/>
-    <hyperlink ref="Z16" r:id="rId9"/>
+    <hyperlink ref="Z12" r:id="rId4"/>
+    <hyperlink ref="Z13" r:id="rId5"/>
+    <hyperlink ref="Z14" r:id="rId6"/>
+    <hyperlink ref="Z15" r:id="rId7"/>
+    <hyperlink ref="Z16" r:id="rId8"/>
+    <hyperlink ref="Z11" r:id="rId9"/>
     <hyperlink ref="Z17" r:id="rId10"/>
     <hyperlink ref="Z18" r:id="rId11"/>
     <hyperlink ref="Z19" r:id="rId12"/>
@@ -6888,7 +7035,6 @@
     <hyperlink ref="Z50" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -6896,140 +7042,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7042,215 +7187,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7263,172 +7407,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" t="s">
         <v>169</v>
       </c>
     </row>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="457">
   <si>
     <t>44220</t>
   </si>
@@ -779,12 +779,6 @@
     <t>Coordinación de Gestión y Calidad Educativa</t>
   </si>
   <si>
-    <t>Alejandra</t>
-  </si>
-  <si>
-    <t>Espinosa</t>
-  </si>
-  <si>
     <t>Coordinación de Posgrado en Didáctica y Ciencias</t>
   </si>
   <si>
@@ -1157,9 +1151,6 @@
     <t>gestioneducativa@upp.edu.mx</t>
   </si>
   <si>
-    <t>alejandrahdz@upp.edu.mx</t>
-  </si>
-  <si>
     <t>posgradobiotecnologia@upp.edu.mx</t>
   </si>
   <si>
@@ -1386,6 +1377,27 @@
   </si>
   <si>
     <t>Jefa de Departamento de Evaluación y Estadísticas</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Telemática</t>
+  </si>
+  <si>
+    <t>juarico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>telematica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>arturo.austria@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Mayte</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>mayte@upp.edu.mx</t>
   </si>
 </sst>
 </file>
@@ -1503,6 +1515,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,9 +1528,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1803,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,28 +1823,28 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.42578125" customWidth="1"/>
-    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
+    <col min="12" max="12" width="53.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" customWidth="1"/>
+    <col min="16" max="16" width="37" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" customWidth="1"/>
+    <col min="20" max="20" width="44.85546875" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" customWidth="1"/>
+    <col min="22" max="22" width="51.42578125" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" customWidth="1"/>
     <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.5703125" customWidth="1"/>
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
@@ -1847,38 +1857,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:30" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2065,38 +2075,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2190,15 +2200,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -2225,31 +2235,31 @@
         <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S8" s="2">
         <v>83</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U8" s="2">
         <v>13</v>
@@ -2267,31 +2277,31 @@
         <v>2200</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>175</v>
@@ -2315,31 +2325,31 @@
         <v>74</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S9" s="2">
         <v>83</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U9" s="2">
         <v>13</v>
@@ -2357,34 +2367,34 @@
         <v>2205</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>180</v>
@@ -2405,31 +2415,31 @@
         <v>74</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S10" s="2">
         <v>83</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U10" s="2">
         <v>13</v>
@@ -2447,31 +2457,31 @@
         <v>2251</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB10" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD10" s="12"/>
+    </row>
+    <row r="11" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>184</v>
@@ -2495,31 +2505,31 @@
         <v>74</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S11" s="2">
         <v>83</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U11" s="2">
         <v>13</v>
@@ -2537,34 +2547,34 @@
         <v>2450</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB11" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C12" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>188</v>
@@ -2585,31 +2595,31 @@
         <v>74</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S12" s="2">
         <v>83</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U12" s="2">
         <v>13</v>
@@ -2627,79 +2637,79 @@
         <v>2262</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB12" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC12" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C13" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>195</v>
       </c>
       <c r="J13" s="5">
-        <v>43517</v>
+        <v>44166</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S13" s="2">
         <v>83</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U13" s="2">
         <v>13</v>
@@ -2717,31 +2727,31 @@
         <v>3000</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB13" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC13" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD13" s="12"/>
+    </row>
+    <row r="14" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C14" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>199</v>
@@ -2765,31 +2775,31 @@
         <v>74</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S14" s="2">
         <v>83</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U14" s="2">
         <v>13</v>
@@ -2807,79 +2817,79 @@
         <v>2443</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB14" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC14" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD14" s="12"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C15" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>201</v>
+        <v>404</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>202</v>
       </c>
       <c r="J15" s="5">
-        <v>40228</v>
+        <v>44166</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S15" s="2">
         <v>83</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U15" s="2">
         <v>13</v>
@@ -2897,34 +2907,34 @@
         <v>2215</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB15" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC15" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD15" s="12"/>
+    </row>
+    <row r="16" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C16" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>203</v>
@@ -2945,31 +2955,31 @@
         <v>74</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S16" s="2">
         <v>83</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U16" s="2">
         <v>13</v>
@@ -2987,34 +2997,34 @@
         <v>2214</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB16" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC16" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD16" s="12"/>
+    </row>
+    <row r="17" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C17" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>207</v>
@@ -3035,31 +3045,31 @@
         <v>74</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S17" s="2">
         <v>83</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U17" s="2">
         <v>13</v>
@@ -3077,34 +3087,34 @@
         <v>2276</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB17" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC17" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD17" s="12"/>
+    </row>
+    <row r="18" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>211</v>
@@ -3125,31 +3135,31 @@
         <v>74</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S18" s="2">
         <v>83</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U18" s="2">
         <v>13</v>
@@ -3167,34 +3177,34 @@
         <v>2228</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB18" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC18" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD18" s="12"/>
+    </row>
+    <row r="19" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>216</v>
@@ -3215,31 +3225,31 @@
         <v>74</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S19" s="2">
         <v>83</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U19" s="2">
         <v>13</v>
@@ -3257,34 +3267,34 @@
         <v>2221</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB19" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC19" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD19" s="12"/>
+    </row>
+    <row r="20" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C20" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>219</v>
@@ -3305,31 +3315,31 @@
         <v>74</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S20" s="2">
         <v>83</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U20" s="2">
         <v>13</v>
@@ -3347,34 +3357,34 @@
         <v>3009</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB20" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC20" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C21" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>219</v>
@@ -3395,31 +3405,31 @@
         <v>74</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S21" s="2">
         <v>83</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U21" s="2">
         <v>13</v>
@@ -3437,34 +3447,34 @@
         <v>2223</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB21" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC21" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD21" s="12"/>
+    </row>
+    <row r="22" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C22" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>225</v>
@@ -3485,31 +3495,31 @@
         <v>74</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S22" s="2">
         <v>83</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U22" s="2">
         <v>13</v>
@@ -3527,34 +3537,34 @@
         <v>2479</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB22" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC22" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD22" s="12"/>
+    </row>
+    <row r="23" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C23" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>216</v>
@@ -3566,7 +3576,7 @@
         <v>217</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>218</v>
+        <v>450</v>
       </c>
       <c r="J23" s="5">
         <v>39829</v>
@@ -3575,31 +3585,31 @@
         <v>74</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S23" s="2">
         <v>83</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U23" s="2">
         <v>13</v>
@@ -3617,34 +3627,34 @@
         <v>2221</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB23" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC23" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C24" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>229</v>
@@ -3665,31 +3675,31 @@
         <v>74</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S24" s="2">
         <v>83</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U24" s="2">
         <v>13</v>
@@ -3707,34 +3717,34 @@
         <v>2223</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB24" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC24" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C25" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>233</v>
@@ -3755,31 +3765,31 @@
         <v>74</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S25" s="2">
         <v>83</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U25" s="2">
         <v>13</v>
@@ -3797,34 +3807,34 @@
         <v>2252</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB25" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC25" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C26" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>237</v>
@@ -3845,31 +3855,31 @@
         <v>74</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S26" s="2">
         <v>83</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U26" s="2">
         <v>13</v>
@@ -3887,34 +3897,34 @@
         <v>2343</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB26" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC26" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C27" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>240</v>
@@ -3935,31 +3945,31 @@
         <v>74</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S27" s="2">
         <v>83</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U27" s="2">
         <v>13</v>
@@ -3977,34 +3987,34 @@
         <v>2528</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB27" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC27" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C28" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>171</v>
@@ -4025,31 +4035,31 @@
         <v>74</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S28" s="2">
         <v>83</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U28" s="2">
         <v>13</v>
@@ -4067,34 +4077,34 @@
         <v>2381</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB28" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC28" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C29" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>211</v>
@@ -4115,31 +4125,31 @@
         <v>74</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S29" s="2">
         <v>83</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U29" s="2">
         <v>13</v>
@@ -4157,34 +4167,34 @@
         <v>2214</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB29" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC29" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD29" s="2"/>
-    </row>
-    <row r="30" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C30" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>247</v>
@@ -4205,31 +4215,31 @@
         <v>74</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S30" s="2">
         <v>83</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U30" s="2">
         <v>13</v>
@@ -4247,79 +4257,79 @@
         <v>2279</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB30" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC30" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C31" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="J31" s="5">
-        <v>43320</v>
+        <v>37865</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S31" s="2">
         <v>83</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U31" s="2">
         <v>13</v>
@@ -4337,46 +4347,46 @@
         <v>2503</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB31" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC31" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C32" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
@@ -4385,31 +4395,31 @@
         <v>74</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S32" s="2">
         <v>83</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U32" s="2">
         <v>13</v>
@@ -4427,46 +4437,46 @@
         <v>2503</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB32" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC32" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD32" s="2"/>
-    </row>
-    <row r="33" spans="1:30" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD32" s="12"/>
+    </row>
+    <row r="33" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C33" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>235</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
@@ -4475,31 +4485,31 @@
         <v>74</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q33" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S33" s="2">
         <v>83</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U33" s="2">
         <v>13</v>
@@ -4517,46 +4527,46 @@
         <v>2503</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB33" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC33" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD33" s="12"/>
+    </row>
+    <row r="34" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C34" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
@@ -4565,31 +4575,31 @@
         <v>74</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S34" s="2">
         <v>83</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U34" s="2">
         <v>13</v>
@@ -4607,46 +4617,46 @@
         <v>2503</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB34" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC34" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD34" s="2"/>
-    </row>
-    <row r="35" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD34" s="12"/>
+    </row>
+    <row r="35" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C35" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="J35" s="5">
         <v>42095</v>
@@ -4655,31 +4665,31 @@
         <v>74</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S35" s="2">
         <v>83</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U35" s="2">
         <v>13</v>
@@ -4697,46 +4707,46 @@
         <v>2210</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB35" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC35" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD35" s="2"/>
-    </row>
-    <row r="36" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD35" s="12"/>
+    </row>
+    <row r="36" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C36" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
@@ -4745,31 +4755,31 @@
         <v>74</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q36" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S36" s="2">
         <v>83</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U36" s="2">
         <v>13</v>
@@ -4787,46 +4797,46 @@
         <v>2265</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB36" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC36" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD36" s="2"/>
-    </row>
-    <row r="37" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD36" s="12"/>
+    </row>
+    <row r="37" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C37" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>248</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J37" s="5">
         <v>40756</v>
@@ -4835,31 +4845,31 @@
         <v>74</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S37" s="2">
         <v>83</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U37" s="2">
         <v>13</v>
@@ -4877,46 +4887,46 @@
         <v>2274</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB37" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC37" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD37" s="2"/>
-    </row>
-    <row r="38" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD37" s="12"/>
+    </row>
+    <row r="38" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C38" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="J38" s="5">
         <v>43517</v>
@@ -4925,31 +4935,31 @@
         <v>74</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S38" s="2">
         <v>83</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U38" s="2">
         <v>13</v>
@@ -4967,46 +4977,46 @@
         <v>2824</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB38" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC38" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD38" s="2"/>
-    </row>
-    <row r="39" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD38" s="12"/>
+    </row>
+    <row r="39" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>230</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J39" s="5">
         <v>38384</v>
@@ -5015,31 +5025,31 @@
         <v>74</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S39" s="2">
         <v>83</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U39" s="2">
         <v>13</v>
@@ -5057,46 +5067,46 @@
         <v>2205</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB39" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC39" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD39" s="2"/>
-    </row>
-    <row r="40" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD39" s="12"/>
+    </row>
+    <row r="40" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C40" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="J40" s="5">
         <v>40452</v>
@@ -5105,31 +5115,31 @@
         <v>74</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S40" s="2">
         <v>83</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U40" s="2">
         <v>13</v>
@@ -5147,37 +5157,37 @@
         <v>2300</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB40" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC40" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD40" s="2"/>
-    </row>
-    <row r="41" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD40" s="12"/>
+    </row>
+    <row r="41" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>172</v>
@@ -5186,7 +5196,7 @@
         <v>248</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J41" s="5">
         <v>43831</v>
@@ -5195,31 +5205,31 @@
         <v>74</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S41" s="2">
         <v>83</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U41" s="2">
         <v>13</v>
@@ -5237,46 +5247,46 @@
         <v>2443</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB41" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC41" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD41" s="2"/>
-    </row>
-    <row r="42" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD41" s="12"/>
+    </row>
+    <row r="42" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C42" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
@@ -5285,31 +5295,31 @@
         <v>74</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S42" s="2">
         <v>83</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U42" s="2">
         <v>13</v>
@@ -5327,46 +5337,46 @@
         <v>2215</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB42" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC42" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD42" s="2"/>
-    </row>
-    <row r="43" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD42" s="12"/>
+    </row>
+    <row r="43" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>182</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J43" s="5">
         <v>39326</v>
@@ -5375,31 +5385,31 @@
         <v>74</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S43" s="2">
         <v>83</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U43" s="2">
         <v>13</v>
@@ -5417,46 +5427,46 @@
         <v>2230</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB43" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC43" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD43" s="2"/>
-    </row>
-    <row r="44" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD43" s="12"/>
+    </row>
+    <row r="44" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C44" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>230</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J44" s="5">
         <v>40547</v>
@@ -5465,31 +5475,31 @@
         <v>74</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S44" s="2">
         <v>83</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U44" s="2">
         <v>13</v>
@@ -5507,46 +5517,46 @@
         <v>2493</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB44" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC44" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD44" s="2"/>
-    </row>
-    <row r="45" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD44" s="12"/>
+    </row>
+    <row r="45" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C45" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>201</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J45" s="5">
         <v>43877</v>
@@ -5555,31 +5565,31 @@
         <v>74</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q45" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S45" s="2">
         <v>83</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U45" s="2">
         <v>13</v>
@@ -5597,46 +5607,46 @@
         <v>2204</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB45" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC45" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD45" s="2"/>
-    </row>
-    <row r="46" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD45" s="12"/>
+    </row>
+    <row r="46" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C46" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>219</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J46" s="5">
         <v>38626</v>
@@ -5645,31 +5655,31 @@
         <v>74</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S46" s="2">
         <v>83</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U46" s="2">
         <v>13</v>
@@ -5687,46 +5697,46 @@
         <v>2259</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB46" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC46" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD46" s="2"/>
-    </row>
-    <row r="47" spans="1:30" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD46" s="12"/>
+    </row>
+    <row r="47" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C47" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>177</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J47" s="5">
         <v>42646</v>
@@ -5735,31 +5745,31 @@
         <v>74</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q47" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q47" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S47" s="2">
         <v>83</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U47" s="2">
         <v>13</v>
@@ -5777,46 +5787,46 @@
         <v>2450</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB47" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC47" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD47" s="2"/>
-    </row>
-    <row r="48" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD47" s="12"/>
+    </row>
+    <row r="48" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C48" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>177</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J48" s="5">
         <v>43466</v>
@@ -5825,31 +5835,31 @@
         <v>74</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q48" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q48" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S48" s="2">
         <v>83</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U48" s="2">
         <v>13</v>
@@ -5867,46 +5877,46 @@
         <v>2311</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB48" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC48" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD48" s="2"/>
-    </row>
-    <row r="49" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD48" s="12"/>
+    </row>
+    <row r="49" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C49" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="I49" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="J49" s="5">
         <v>38504</v>
@@ -5915,31 +5925,31 @@
         <v>74</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S49" s="2">
         <v>83</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U49" s="2">
         <v>13</v>
@@ -5957,46 +5967,46 @@
         <v>2316</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB49" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC49" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD49" s="2"/>
-    </row>
-    <row r="50" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD49" s="12"/>
+    </row>
+    <row r="50" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C50" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="I50" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="J50" s="5">
         <v>38504</v>
@@ -6005,31 +6015,31 @@
         <v>74</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q50" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S50" s="2">
         <v>83</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U50" s="2">
         <v>13</v>
@@ -6047,46 +6057,46 @@
         <v>2401</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB50" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC50" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD50" s="2"/>
-    </row>
-    <row r="51" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD50" s="12"/>
+    </row>
+    <row r="51" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C51" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="J51" s="5">
         <v>42445</v>
@@ -6095,31 +6105,31 @@
         <v>74</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q51" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S51" s="2">
         <v>83</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U51" s="2">
         <v>13</v>
@@ -6137,46 +6147,46 @@
         <v>2210</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB51" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC51" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD51" s="2"/>
-    </row>
-    <row r="52" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD51" s="12"/>
+    </row>
+    <row r="52" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C52" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="J52" s="5">
         <v>43160</v>
@@ -6185,31 +6195,31 @@
         <v>74</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q52" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q52" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S52" s="2">
         <v>83</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U52" s="2">
         <v>13</v>
@@ -6227,46 +6237,46 @@
         <v>2227</v>
       </c>
       <c r="Z52" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB52" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC52" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD52" s="2"/>
-    </row>
-    <row r="53" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD52" s="12"/>
+    </row>
+    <row r="53" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C53" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>230</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J53" s="5">
         <v>44271</v>
@@ -6275,31 +6285,31 @@
         <v>74</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q53" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S53" s="2">
         <v>83</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U53" s="2">
         <v>13</v>
@@ -6317,46 +6327,46 @@
         <v>2253</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB53" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC53" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD53" s="2"/>
-    </row>
-    <row r="54" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD53" s="12"/>
+    </row>
+    <row r="54" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C54" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="J54" s="5">
         <v>42767</v>
@@ -6365,31 +6375,31 @@
         <v>74</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q54" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q54" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S54" s="2">
         <v>83</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U54" s="2">
         <v>13</v>
@@ -6407,46 +6417,46 @@
         <v>2231</v>
       </c>
       <c r="Z54" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB54" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC54" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD54" s="2"/>
-    </row>
-    <row r="55" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD54" s="12"/>
+    </row>
+    <row r="55" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C55" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="J55" s="5">
         <v>42979</v>
@@ -6455,31 +6465,31 @@
         <v>74</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q55" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q55" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S55" s="2">
         <v>83</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U55" s="2">
         <v>13</v>
@@ -6495,46 +6505,46 @@
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB55" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC55" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD55" s="2"/>
-    </row>
-    <row r="56" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD55" s="12"/>
+    </row>
+    <row r="56" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C56" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="J56" s="5">
         <v>42810</v>
@@ -6543,31 +6553,31 @@
         <v>74</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q56" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S56" s="2">
         <v>83</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U56" s="2">
         <v>13</v>
@@ -6585,34 +6595,34 @@
         <v>3006</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB56" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC56" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD56" s="2"/>
-    </row>
-    <row r="57" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD56" s="12"/>
+    </row>
+    <row r="57" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C57" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>211</v>
@@ -6621,10 +6631,10 @@
         <v>230</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J57" s="5">
         <v>38687</v>
@@ -6633,31 +6643,31 @@
         <v>74</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q57" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S57" s="2">
         <v>83</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U57" s="2">
         <v>13</v>
@@ -6675,46 +6685,46 @@
         <v>2218</v>
       </c>
       <c r="Z57" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB57" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC57" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD57" s="2"/>
-    </row>
-    <row r="58" spans="1:30" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD57" s="12"/>
+    </row>
+    <row r="58" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C58" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="J58" s="5">
         <v>42767</v>
@@ -6723,31 +6733,31 @@
         <v>74</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q58" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S58" s="2">
         <v>83</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U58" s="2">
         <v>13</v>
@@ -6765,46 +6775,46 @@
         <v>2217</v>
       </c>
       <c r="Z58" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB58" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC58" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD58" s="2"/>
-    </row>
-    <row r="59" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD58" s="12"/>
+    </row>
+    <row r="59" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C59" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>201</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
@@ -6813,31 +6823,31 @@
         <v>74</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q59" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q59" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S59" s="2">
         <v>83</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U59" s="2">
         <v>13</v>
@@ -6855,46 +6865,46 @@
         <v>2213</v>
       </c>
       <c r="Z59" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB59" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC59" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD59" s="2"/>
-    </row>
-    <row r="60" spans="1:30" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="AD59" s="12"/>
+    </row>
+    <row r="60" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2021</v>
       </c>
       <c r="B60" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C60" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
@@ -6903,31 +6913,31 @@
         <v>74</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q60" s="17" t="s">
-        <v>403</v>
+        <v>350</v>
+      </c>
+      <c r="Q60" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S60" s="2">
         <v>83</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U60" s="2">
         <v>13</v>
@@ -6945,18 +6955,18 @@
         <v>2233</v>
       </c>
       <c r="Z60" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AB60" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AC60" s="3">
-        <v>44298</v>
-      </c>
-      <c r="AD60" s="2"/>
+        <v>44386</v>
+      </c>
+      <c r="AD60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6969,13 +6979,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K61">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K87">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O61">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O87">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V61">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V87">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
@@ -7003,36 +7013,36 @@
     <hyperlink ref="Z28" r:id="rId21"/>
     <hyperlink ref="Z29" r:id="rId22"/>
     <hyperlink ref="Z30" r:id="rId23"/>
-    <hyperlink ref="Z31" r:id="rId24"/>
-    <hyperlink ref="Z32" r:id="rId25"/>
-    <hyperlink ref="Z34" r:id="rId26"/>
-    <hyperlink ref="Z35" r:id="rId27"/>
-    <hyperlink ref="Z36" r:id="rId28"/>
-    <hyperlink ref="Z37" r:id="rId29"/>
-    <hyperlink ref="Z38" r:id="rId30"/>
-    <hyperlink ref="Z39" r:id="rId31"/>
-    <hyperlink ref="Z40" r:id="rId32"/>
-    <hyperlink ref="Z41" r:id="rId33"/>
-    <hyperlink ref="Z42" r:id="rId34"/>
-    <hyperlink ref="Z43" r:id="rId35"/>
-    <hyperlink ref="Z44" r:id="rId36"/>
-    <hyperlink ref="Z45" r:id="rId37"/>
-    <hyperlink ref="Z46" r:id="rId38"/>
-    <hyperlink ref="Z47" r:id="rId39"/>
-    <hyperlink ref="Z48" r:id="rId40"/>
-    <hyperlink ref="Z49" r:id="rId41"/>
-    <hyperlink ref="Z51" r:id="rId42"/>
-    <hyperlink ref="Z52" r:id="rId43"/>
-    <hyperlink ref="Z53" r:id="rId44"/>
-    <hyperlink ref="Z54" r:id="rId45"/>
-    <hyperlink ref="Z55" r:id="rId46"/>
-    <hyperlink ref="Z56" r:id="rId47"/>
-    <hyperlink ref="Z57" r:id="rId48"/>
-    <hyperlink ref="Z58" r:id="rId49"/>
-    <hyperlink ref="Z59" r:id="rId50"/>
-    <hyperlink ref="Z60" r:id="rId51"/>
-    <hyperlink ref="Z33" r:id="rId52"/>
-    <hyperlink ref="Z50" r:id="rId53"/>
+    <hyperlink ref="Z32" r:id="rId24"/>
+    <hyperlink ref="Z34" r:id="rId25"/>
+    <hyperlink ref="Z35" r:id="rId26"/>
+    <hyperlink ref="Z36" r:id="rId27"/>
+    <hyperlink ref="Z37" r:id="rId28"/>
+    <hyperlink ref="Z38" r:id="rId29"/>
+    <hyperlink ref="Z39" r:id="rId30"/>
+    <hyperlink ref="Z40" r:id="rId31"/>
+    <hyperlink ref="Z41" r:id="rId32"/>
+    <hyperlink ref="Z42" r:id="rId33"/>
+    <hyperlink ref="Z43" r:id="rId34"/>
+    <hyperlink ref="Z44" r:id="rId35"/>
+    <hyperlink ref="Z45" r:id="rId36"/>
+    <hyperlink ref="Z46" r:id="rId37"/>
+    <hyperlink ref="Z47" r:id="rId38"/>
+    <hyperlink ref="Z48" r:id="rId39"/>
+    <hyperlink ref="Z49" r:id="rId40"/>
+    <hyperlink ref="Z51" r:id="rId41"/>
+    <hyperlink ref="Z52" r:id="rId42"/>
+    <hyperlink ref="Z53" r:id="rId43"/>
+    <hyperlink ref="Z54" r:id="rId44"/>
+    <hyperlink ref="Z55" r:id="rId45"/>
+    <hyperlink ref="Z56" r:id="rId46"/>
+    <hyperlink ref="Z57" r:id="rId47"/>
+    <hyperlink ref="Z58" r:id="rId48"/>
+    <hyperlink ref="Z59" r:id="rId49"/>
+    <hyperlink ref="Z60" r:id="rId50"/>
+    <hyperlink ref="Z33" r:id="rId51"/>
+    <hyperlink ref="Z50" r:id="rId52"/>
+    <hyperlink ref="Z31" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7042,9 +7052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD109"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7187,9 +7195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD140"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7407,9 +7413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD99"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
     <definedName name="Hidden_214">Hidden_2!$A$1:$A$41</definedName>
     <definedName name="Hidden_321">Hidden_3!$A$1:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="426">
   <si>
     <t>44220</t>
   </si>
@@ -554,6 +554,30 @@
     <t>Rectoría</t>
   </si>
   <si>
+    <t>Pachuca-Ciudad Sahagun Kilómetro 20, Ex Hacienda Santa Barbara</t>
+  </si>
+  <si>
+    <t>Sin número</t>
+  </si>
+  <si>
+    <t>Rancho Luna</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>upp@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Departamento de Recursos Humanos (UPP)</t>
+  </si>
+  <si>
+    <t>11 C</t>
+  </si>
+  <si>
     <t>Secretario Académico</t>
   </si>
   <si>
@@ -569,6 +593,12 @@
     <t>Secretaría Académica</t>
   </si>
   <si>
+    <t>secretariaacademica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Secretario Administativo</t>
+  </si>
+  <si>
     <t>Jorge Alfredo</t>
   </si>
   <si>
@@ -581,6 +611,12 @@
     <t>Secretaría Administrativa</t>
   </si>
   <si>
+    <t>administracion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>11 B</t>
+  </si>
+  <si>
     <t>Director de la División de Estudios Profesionales</t>
   </si>
   <si>
@@ -593,6 +629,12 @@
     <t>Dirección de la División de Estudios Profesionales</t>
   </si>
   <si>
+    <t>divisiondeestudios@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Titular del Órgano Interno de Control</t>
+  </si>
+  <si>
     <t>Cristina</t>
   </si>
   <si>
@@ -605,6 +647,39 @@
     <t>Órgano Interno de Control</t>
   </si>
   <si>
+    <t>crystycortes@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Alda Nelly</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>dir.vinculacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Abogado General</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>juridico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Logística</t>
+  </si>
+  <si>
     <t>Azucena</t>
   </si>
   <si>
@@ -614,30 +689,15 @@
     <t>Figueroa</t>
   </si>
   <si>
-    <t>Dirección de Vinculación</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Jiménez</t>
-  </si>
-  <si>
-    <t>Barrios</t>
-  </si>
-  <si>
-    <t>Abogado General</t>
-  </si>
-  <si>
-    <t>Alda Nelly</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
     <t>Dirección de Logística</t>
   </si>
   <si>
+    <t>dirlogistica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
     <t>Eduardo Rubén</t>
   </si>
   <si>
@@ -647,7 +707,10 @@
     <t>Rivas</t>
   </si>
   <si>
-    <t>Dirección de Comunicación Social</t>
+    <t>comunicacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Investigación, Innovación y Posgrado</t>
   </si>
   <si>
     <t>Francisco Rafael</t>
@@ -662,6 +725,12 @@
     <t>Dirección de Investigación, Innovación y Posgrado</t>
   </si>
   <si>
+    <t>diip@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Planeación</t>
+  </si>
+  <si>
     <t>Juan Manuel</t>
   </si>
   <si>
@@ -674,9 +743,15 @@
     <t>Dirección de Planeación</t>
   </si>
   <si>
+    <t>dirplaneacion@upp.edu.mx</t>
+  </si>
+  <si>
     <t>11A</t>
   </si>
   <si>
+    <t>Directora de Programa Educativo Ingeniería en Software</t>
+  </si>
+  <si>
     <t>Mayra Fabiola</t>
   </si>
   <si>
@@ -686,6 +761,12 @@
     <t>Dirección del Programa Educativo de Ing. Software</t>
   </si>
   <si>
+    <t>software@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Financiera</t>
+  </si>
+  <si>
     <t>Miguel Ángel</t>
   </si>
   <si>
@@ -695,6 +776,12 @@
     <t>Dirección del Programa Educativo de Ing. Financiera</t>
   </si>
   <si>
+    <t>financiera@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
+  </si>
+  <si>
     <t>Aguilera</t>
   </si>
   <si>
@@ -704,6 +791,12 @@
     <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
   </si>
   <si>
+    <t>mecatronica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
+  </si>
+  <si>
     <t>Alejandrina</t>
   </si>
   <si>
@@ -716,6 +809,21 @@
     <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
   </si>
   <si>
+    <t>biotecnologia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Telemática</t>
+  </si>
+  <si>
+    <t>telematica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
+  </si>
+  <si>
     <t>Alberto</t>
   </si>
   <si>
@@ -728,6 +836,12 @@
     <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
   </si>
   <si>
+    <t>mecanica_automotriz@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
+  </si>
+  <si>
     <t>Rosa María</t>
   </si>
   <si>
@@ -740,6 +854,12 @@
     <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
   </si>
   <si>
+    <t>terapia_fisica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
+  </si>
+  <si>
     <t>Iztmitl</t>
   </si>
   <si>
@@ -749,6 +869,12 @@
     <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
   </si>
   <si>
+    <t>biomedica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
     <t>Brenda Berenice</t>
   </si>
   <si>
@@ -758,16 +884,25 @@
     <t>Coordinación de la Licenciatura en Médico Cirujano</t>
   </si>
   <si>
+    <t>medico_cirujano@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
+  </si>
+  <si>
     <t>Vera</t>
   </si>
   <si>
-    <t>Coordinación del Centro de Patentamiento</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Subdirección de Comunicación Social</t>
+    <t>marcovera@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>10 A</t>
+  </si>
+  <si>
+    <t>Subdirector de Comunicación Social</t>
+  </si>
+  <si>
+    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
   </si>
   <si>
     <t>María Guadalupe</t>
@@ -776,10 +911,22 @@
     <t>Pérez</t>
   </si>
   <si>
-    <t>Coordinación de Gestión y Calidad Educativa</t>
-  </si>
-  <si>
-    <t>Coordinación de Posgrado en Didáctica y Ciencias</t>
+    <t>gestioneducativa@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
+  </si>
+  <si>
+    <t>Mayte</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>mayte@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Biotecnología</t>
   </si>
   <si>
     <t>Jorge</t>
@@ -791,7 +938,10 @@
     <t>Cervantes</t>
   </si>
   <si>
-    <t>Coordinación del Posgrado en Biotecnología</t>
+    <t>posgradobiotecnologia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones.</t>
   </si>
   <si>
     <t>Arturo</t>
@@ -800,7 +950,10 @@
     <t>Cornejo</t>
   </si>
   <si>
-    <t>Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones</t>
+    <t>arturo.austria@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
   </si>
   <si>
     <t>Juan Benito</t>
@@ -812,7 +965,10 @@
     <t>Francisco</t>
   </si>
   <si>
-    <t>Coordinación del Posgrado en Mecatrónica</t>
+    <t>posgradomescatronica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirector de Recursos Financieros</t>
   </si>
   <si>
     <t>Agustín</t>
@@ -824,7 +980,10 @@
     <t>Cruz</t>
   </si>
   <si>
-    <t>Subdirección de Recursos Financieros</t>
+    <t>agustin.mejia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirectora de Calidad</t>
   </si>
   <si>
     <t>Ma. del Carmen</t>
@@ -836,7 +995,10 @@
     <t>Madrigal</t>
   </si>
   <si>
-    <t>Subdirección de Calidad</t>
+    <t>calidad@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirector de Planeación y Presupuesto</t>
   </si>
   <si>
     <t>Juan</t>
@@ -845,7 +1007,13 @@
     <t>Lozano</t>
   </si>
   <si>
-    <t>Subdirección de Planeación y Presupuesto</t>
+    <t>presupuesto@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>09 C</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
   </si>
   <si>
     <t>Jose Raul</t>
@@ -857,7 +1025,10 @@
     <t>Vargas</t>
   </si>
   <si>
-    <t>Unidad de Promoción y Desarrollo Estudiantil</t>
+    <t>promocionestudiantil@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Programas Especiales</t>
   </si>
   <si>
     <t>Lucia</t>
@@ -866,7 +1037,10 @@
     <t>Briones</t>
   </si>
   <si>
-    <t>Departamento de Programas Especiales</t>
+    <t>pespeciales@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Vinculación y Extensión</t>
   </si>
   <si>
     <t>Lourdes Guadalupe</t>
@@ -878,13 +1052,16 @@
     <t>Baena</t>
   </si>
   <si>
-    <t>Departamento de Vinculación y Extensión</t>
+    <t>lourdesgab_84@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento Jurídico</t>
   </si>
   <si>
     <t>Ahsure Tatiana</t>
   </si>
   <si>
-    <t>Departamento Jurídico</t>
+    <t>Jefe de Departamento de Logística</t>
   </si>
   <si>
     <t>Jhonathan Gonzalo</t>
@@ -893,7 +1070,10 @@
     <t>Godínez</t>
   </si>
   <si>
-    <t>Departamento de Logística</t>
+    <t>jhonathan@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
   </si>
   <si>
     <t>Julio César</t>
@@ -902,7 +1082,10 @@
     <t>López</t>
   </si>
   <si>
-    <t>Departamento de Análisis y Desarrollo de Sistemas de Información</t>
+    <t>desarrollo@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Idiomas y Lenguas</t>
   </si>
   <si>
     <t>Félix Alberto</t>
@@ -911,19 +1094,28 @@
     <t>Rodríguez</t>
   </si>
   <si>
-    <t>Departamento de Idiomas y Lenguas</t>
+    <t>ingles@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Desarrollo Académico</t>
   </si>
   <si>
     <t>Mary Carmen</t>
   </si>
   <si>
-    <t>Departamento de Desarrollo Académico</t>
+    <t>desarrolloacademico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
   </si>
   <si>
     <t>Valdivieso</t>
   </si>
   <si>
-    <t>Departamento de Servicios Bibliotecarios</t>
+    <t>biblioteca@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
   </si>
   <si>
     <t>Nancy Judith</t>
@@ -932,7 +1124,10 @@
     <t>Cortes</t>
   </si>
   <si>
-    <t>Departamento de Actividades Culturales, Deportivas y Recreativas</t>
+    <t>deportes@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Internacionalización</t>
   </si>
   <si>
     <t>Gerardo</t>
@@ -941,7 +1136,7 @@
     <t>Esquivel</t>
   </si>
   <si>
-    <t>Departamento de Internacionalización</t>
+    <t>internacionalizacion@upp.edu.mx</t>
   </si>
   <si>
     <t>Carlos Ernesto</t>
@@ -953,7 +1148,10 @@
     <t>Vizcaya</t>
   </si>
   <si>
-    <t>Departamento de Educación a Distancia</t>
+    <t>adistancia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Incubación de Empresas</t>
   </si>
   <si>
     <t>Jesús Eduardo</t>
@@ -965,7 +1163,10 @@
     <t>Guaso</t>
   </si>
   <si>
-    <t>Departamento de Incubación de Empresas</t>
+    <t>juarico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Contabilidad</t>
   </si>
   <si>
     <t>Rómulo</t>
@@ -974,7 +1175,10 @@
     <t>Olvera</t>
   </si>
   <si>
-    <t>Departamento de Contabilidad</t>
+    <t>romulo@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Recursos Humanos</t>
   </si>
   <si>
     <t>Elizabeth</t>
@@ -986,13 +1190,19 @@
     <t>Tinajar</t>
   </si>
   <si>
-    <t>Departamento de Recursos Humanos</t>
+    <t>recursoshumanos@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
   </si>
   <si>
     <t>Lizeth Guadalupe</t>
   </si>
   <si>
-    <t>Departamento de Atención y Promoción de la Salud</t>
+    <t>lizeth.hernandez@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
   </si>
   <si>
     <t>César Hugo</t>
@@ -1004,7 +1214,10 @@
     <t>Castillo</t>
   </si>
   <si>
-    <t>Departamento de Mantenimiento y Servicios Generales</t>
+    <t>mantenimiento1@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Administración del Polideportivo</t>
   </si>
   <si>
     <t>José Enoch</t>
@@ -1016,7 +1229,10 @@
     <t>Alfaro</t>
   </si>
   <si>
-    <t>Departamento de Administración del Polideportivo Plata</t>
+    <t>admonplata@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
   </si>
   <si>
     <t>Donaciano</t>
@@ -1025,10 +1241,16 @@
     <t>Calva</t>
   </si>
   <si>
-    <t>Departamento de Adquisición, Bienes y Servicios</t>
-  </si>
-  <si>
-    <t>Departamento de Infraestructura</t>
+    <t>adquisiciones@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura</t>
+  </si>
+  <si>
+    <t>infraestructura@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
   </si>
   <si>
     <t>David</t>
@@ -1037,7 +1259,10 @@
     <t>Luna</t>
   </si>
   <si>
-    <t>Departamento de Tecnologías de la Información y Comunicaciones</t>
+    <t>sistemas@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Servicios Escolares</t>
   </si>
   <si>
     <t>Margarita</t>
@@ -1046,7 +1271,10 @@
     <t>Díaz</t>
   </si>
   <si>
-    <t>Departamento de Servicios Escolares</t>
+    <t>servescolares@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Evaluación y Estadísticas</t>
   </si>
   <si>
     <t>Guadalupe</t>
@@ -1058,346 +1286,25 @@
     <t>de la Fuente</t>
   </si>
   <si>
-    <t>Departamento de Evaluación y Estadísticas</t>
-  </si>
-  <si>
-    <t>11 C</t>
-  </si>
-  <si>
-    <t>11 B</t>
-  </si>
-  <si>
-    <t>10 A</t>
-  </si>
-  <si>
-    <t>09 C</t>
-  </si>
-  <si>
-    <t>Pachuca-Ciudad Sahagun Kilómetro 20, Ex Hacienda Santa Barbara</t>
-  </si>
-  <si>
-    <t>Sin número</t>
-  </si>
-  <si>
-    <t>Rancho Luna</t>
-  </si>
-  <si>
-    <t>Zempoala</t>
-  </si>
-  <si>
-    <t>upp@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
-  </si>
-  <si>
-    <t>secretariaacademica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>administracion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>divisiondeestudios@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>crystycortes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>dir.vinculacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>juridico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>dirlogistica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>comunicacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>diip@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>dirplaneacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>software@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>financiera@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>mecatronica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>biotecnologia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>mecanica_automotriz@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>terapia_fisica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>biomedica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>medico_cirujano@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>marcovera@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>gestioneducativa@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>posgradobiotecnologia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>posgradomescatronica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>agustin.mejia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>calidad@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>presupuesto@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>promocionestudiantil@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>pespeciales@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>lourdesgab_84@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>jhonathan@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>desarrollo@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>ingles@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>desarrolloacademico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>biblioteca@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>deportes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>internacionalizacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>adistancia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>romulo@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>recursoshumanos@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>lizeth.hernandez@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>mantenimiento1@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>admonplata@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>adquisiciones@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>infraestructura@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>sistemas@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>servescolares@upp.edu.mx</t>
-  </si>
-  <si>
     <t>evaluacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Secretario Administativo</t>
-  </si>
-  <si>
-    <t>Titular del Órgano Interno de Control</t>
-  </si>
-  <si>
-    <t>Directora de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Directora de Logística</t>
-  </si>
-  <si>
-    <t>Director de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Director de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Director de Planeación</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Ingeniería en Software</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Financiera</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
-  </si>
-  <si>
-    <t>Subdirector de Comunicación Social</t>
-  </si>
-  <si>
-    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
-  </si>
-  <si>
-    <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Biotecnología</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones.</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
-  </si>
-  <si>
-    <t>Subdirector de Recursos Financieros</t>
-  </si>
-  <si>
-    <t>Subdirectora de Calidad</t>
-  </si>
-  <si>
-    <t>Subdirector de Planeación y Presupuesto</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Programas Especiales</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento Jurídico</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Logística</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Idiomas y Lenguas</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Desarrollo Académico</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Internacionalización</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Educación a Distancia</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Incubación de Empresas</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Contabilidad</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Recursos Humanos</t>
-  </si>
-  <si>
-    <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Administración del Polideportivo</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Infraestructura</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Servicios Escolares</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Evaluación y Estadísticas</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Telemática</t>
-  </si>
-  <si>
-    <t>juarico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>telematica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>arturo.austria@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Mayte</t>
-  </si>
-  <si>
-    <t>Olivares</t>
-  </si>
-  <si>
-    <t>mayte@upp.edu.mx</t>
+    <t>ccadena@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada del Departamento de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Mayeli</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La celda que se encuentra vacía es debido a que es línea directa, por lo que no existe alguna extensión. </t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,6 +1356,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1480,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1497,10 +1410,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,13 +1428,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,9 +1447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1591,7 +1509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1626,7 +1544,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1813,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="AA49" workbookViewId="0">
+      <selection activeCell="AD55" sqref="AD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,32 +1741,32 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" customWidth="1"/>
-    <col min="12" max="12" width="53.28515625" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" customWidth="1"/>
-    <col min="16" max="16" width="37" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" customWidth="1"/>
-    <col min="18" max="18" width="34.5703125" customWidth="1"/>
-    <col min="19" max="19" width="31.42578125" customWidth="1"/>
-    <col min="20" max="20" width="44.85546875" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" customWidth="1"/>
-    <col min="22" max="22" width="51.42578125" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="43.5703125" customWidth="1"/>
+    <col min="26" max="26" width="40.140625" customWidth="1"/>
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -1857,38 +1775,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:30" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2075,38 +1993,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2205,10 +2123,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -2235,31 +2153,31 @@
         <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S8" s="2">
         <v>83</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U8" s="2">
         <v>13</v>
@@ -2276,17 +2194,17 @@
       <c r="Y8" s="4">
         <v>2200</v>
       </c>
-      <c r="Z8" s="10" t="s">
-        <v>352</v>
+      <c r="Z8" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
@@ -2295,28 +2213,28 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>344</v>
+        <v>182</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J9" s="5">
         <v>39083</v>
@@ -2325,31 +2243,31 @@
         <v>74</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S9" s="2">
         <v>83</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U9" s="2">
         <v>13</v>
@@ -2366,17 +2284,17 @@
       <c r="Y9" s="4">
         <v>2205</v>
       </c>
-      <c r="Z9" s="10" t="s">
-        <v>354</v>
+      <c r="Z9" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
@@ -2385,28 +2303,28 @@
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>344</v>
+        <v>182</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>401</v>
+        <v>189</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="J10" s="5">
         <v>37867</v>
@@ -2415,31 +2333,31 @@
         <v>74</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S10" s="2">
         <v>83</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U10" s="2">
         <v>13</v>
@@ -2456,47 +2374,47 @@
       <c r="Y10" s="4">
         <v>2251</v>
       </c>
-      <c r="Z10" s="10" t="s">
-        <v>355</v>
+      <c r="Z10" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB10" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC10" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD10" s="12"/>
-    </row>
-    <row r="11" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="J11" s="5">
         <v>38657</v>
@@ -2505,31 +2423,31 @@
         <v>74</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S11" s="2">
         <v>83</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U11" s="2">
         <v>13</v>
@@ -2546,80 +2464,80 @@
       <c r="Y11" s="4">
         <v>2450</v>
       </c>
-      <c r="Z11" s="10" t="s">
-        <v>356</v>
+      <c r="Z11" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB11" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC11" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD11" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C12" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J12" s="7">
+        <v>201</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="8">
         <v>44059</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S12" s="2">
         <v>83</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U12" s="2">
         <v>13</v>
@@ -2633,50 +2551,50 @@
       <c r="X12" s="4">
         <v>7715477510</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="7">
         <v>2262</v>
       </c>
-      <c r="Z12" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>353</v>
+      <c r="Z12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="AB12" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC12" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD12" s="12"/>
-    </row>
-    <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C13" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>195</v>
+        <v>423</v>
       </c>
       <c r="J13" s="5">
         <v>44166</v>
@@ -2685,31 +2603,31 @@
         <v>74</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S13" s="2">
         <v>83</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U13" s="2">
         <v>13</v>
@@ -2726,47 +2644,47 @@
       <c r="Y13" s="4">
         <v>3000</v>
       </c>
-      <c r="Z13" s="10" t="s">
-        <v>358</v>
+      <c r="Z13" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB13" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC13" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD13" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C14" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J14" s="5">
         <v>43221</v>
@@ -2775,31 +2693,31 @@
         <v>74</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S14" s="2">
         <v>83</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U14" s="2">
         <v>13</v>
@@ -2816,47 +2734,47 @@
       <c r="Y14" s="4">
         <v>2443</v>
       </c>
-      <c r="Z14" s="10" t="s">
-        <v>359</v>
+      <c r="Z14" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB14" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC14" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD14" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD14" s="2"/>
     </row>
     <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C15" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>194</v>
+        <v>216</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="J15" s="5">
         <v>44166</v>
@@ -2865,31 +2783,31 @@
         <v>74</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S15" s="2">
         <v>83</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U15" s="2">
         <v>13</v>
@@ -2906,47 +2824,47 @@
       <c r="Y15" s="4">
         <v>2215</v>
       </c>
-      <c r="Z15" s="10" t="s">
-        <v>360</v>
+      <c r="Z15" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB15" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC15" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD15" s="12"/>
-    </row>
-    <row r="16" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C16" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>405</v>
+        <v>222</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>206</v>
+        <v>424</v>
       </c>
       <c r="J16" s="5">
         <v>43739</v>
@@ -2955,31 +2873,31 @@
         <v>74</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S16" s="2">
         <v>83</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U16" s="2">
         <v>13</v>
@@ -2996,47 +2914,47 @@
       <c r="Y16" s="4">
         <v>2214</v>
       </c>
-      <c r="Z16" s="10" t="s">
-        <v>361</v>
+      <c r="Z16" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB16" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC16" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD16" s="12"/>
-    </row>
-    <row r="17" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C17" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>406</v>
+        <v>227</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="J17" s="5">
         <v>38726</v>
@@ -3045,31 +2963,31 @@
         <v>74</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S17" s="2">
         <v>83</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U17" s="2">
         <v>13</v>
@@ -3086,47 +3004,47 @@
       <c r="Y17" s="4">
         <v>2276</v>
       </c>
-      <c r="Z17" s="10" t="s">
-        <v>362</v>
+      <c r="Z17" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB17" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC17" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD17" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD17" s="2"/>
     </row>
     <row r="18" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C18" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>407</v>
+        <v>233</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="J18" s="5">
         <v>42860</v>
@@ -3135,31 +3053,31 @@
         <v>74</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S18" s="2">
         <v>83</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U18" s="2">
         <v>13</v>
@@ -3176,47 +3094,47 @@
       <c r="Y18" s="4">
         <v>2228</v>
       </c>
-      <c r="Z18" s="10" t="s">
-        <v>363</v>
+      <c r="Z18" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB18" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC18" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD18" s="12"/>
-    </row>
-    <row r="19" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C19" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>408</v>
+        <v>240</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="J19" s="5">
         <v>39829</v>
@@ -3225,31 +3143,31 @@
         <v>74</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S19" s="2">
         <v>83</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U19" s="2">
         <v>13</v>
@@ -3266,47 +3184,47 @@
       <c r="Y19" s="4">
         <v>2221</v>
       </c>
-      <c r="Z19" s="10" t="s">
-        <v>364</v>
+      <c r="Z19" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB19" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC19" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD19" s="12"/>
-    </row>
-    <row r="20" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C20" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>409</v>
+        <v>245</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>173</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J20" s="5">
         <v>40665</v>
@@ -3315,31 +3233,31 @@
         <v>74</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S20" s="2">
         <v>83</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U20" s="2">
         <v>13</v>
@@ -3356,47 +3274,47 @@
       <c r="Y20" s="4">
         <v>3009</v>
       </c>
-      <c r="Z20" s="10" t="s">
-        <v>365</v>
+      <c r="Z20" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB20" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC20" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD20" s="12"/>
-    </row>
-    <row r="21" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C21" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="J21" s="5">
         <v>38626</v>
@@ -3405,31 +3323,31 @@
         <v>74</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S21" s="2">
         <v>83</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U21" s="2">
         <v>13</v>
@@ -3446,47 +3364,47 @@
       <c r="Y21" s="4">
         <v>2223</v>
       </c>
-      <c r="Z21" s="10" t="s">
-        <v>366</v>
+      <c r="Z21" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB21" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC21" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD21" s="12"/>
-    </row>
-    <row r="22" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C22" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="J22" s="5">
         <v>41730</v>
@@ -3495,31 +3413,31 @@
         <v>74</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S22" s="2">
         <v>83</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U22" s="2">
         <v>13</v>
@@ -3536,47 +3454,47 @@
       <c r="Y22" s="4">
         <v>2479</v>
       </c>
-      <c r="Z22" s="10" t="s">
-        <v>367</v>
+      <c r="Z22" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB22" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC22" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD22" s="12"/>
-    </row>
-    <row r="23" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C23" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>412</v>
+        <v>261</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="J23" s="5">
         <v>39829</v>
@@ -3585,31 +3503,31 @@
         <v>74</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S23" s="2">
         <v>83</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U23" s="2">
         <v>13</v>
@@ -3626,47 +3544,47 @@
       <c r="Y23" s="4">
         <v>2221</v>
       </c>
-      <c r="Z23" s="10" t="s">
-        <v>452</v>
+      <c r="Z23" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB23" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC23" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD23" s="12"/>
-    </row>
-    <row r="24" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C24" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>413</v>
+        <v>264</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="J24" s="5">
         <v>41944</v>
@@ -3675,31 +3593,31 @@
         <v>74</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S24" s="2">
         <v>83</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U24" s="2">
         <v>13</v>
@@ -3716,47 +3634,47 @@
       <c r="Y24" s="4">
         <v>2223</v>
       </c>
-      <c r="Z24" s="10" t="s">
-        <v>368</v>
+      <c r="Z24" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB24" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC24" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD24" s="12"/>
-    </row>
-    <row r="25" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C25" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="J25" s="5">
         <v>41883</v>
@@ -3765,31 +3683,31 @@
         <v>74</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S25" s="2">
         <v>83</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U25" s="2">
         <v>13</v>
@@ -3806,47 +3724,47 @@
       <c r="Y25" s="4">
         <v>2252</v>
       </c>
-      <c r="Z25" s="10" t="s">
-        <v>369</v>
+      <c r="Z25" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB25" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC25" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD25" s="12"/>
-    </row>
-    <row r="26" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C26" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>415</v>
+        <v>276</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="J26" s="5">
         <v>43719</v>
@@ -3855,31 +3773,31 @@
         <v>74</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S26" s="2">
         <v>83</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U26" s="2">
         <v>13</v>
@@ -3896,47 +3814,47 @@
       <c r="Y26" s="4">
         <v>2343</v>
       </c>
-      <c r="Z26" s="10" t="s">
-        <v>370</v>
+      <c r="Z26" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB26" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC26" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD26" s="12"/>
-    </row>
-    <row r="27" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C27" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="J27" s="5">
         <v>44120</v>
@@ -3945,31 +3863,31 @@
         <v>74</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S27" s="2">
         <v>83</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U27" s="2">
         <v>13</v>
@@ -3986,47 +3904,47 @@
       <c r="Y27" s="4">
         <v>2528</v>
       </c>
-      <c r="Z27" s="10" t="s">
-        <v>371</v>
+      <c r="Z27" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB27" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC27" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD27" s="12"/>
-    </row>
-    <row r="28" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C28" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>417</v>
+        <v>286</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="J28" s="5">
         <v>40679</v>
@@ -4035,31 +3953,31 @@
         <v>74</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S28" s="2">
         <v>83</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U28" s="2">
         <v>13</v>
@@ -4076,80 +3994,80 @@
       <c r="Y28" s="4">
         <v>2381</v>
       </c>
-      <c r="Z28" s="10" t="s">
-        <v>372</v>
+      <c r="Z28" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB28" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC28" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD28" s="12"/>
-    </row>
-    <row r="29" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C29" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>245</v>
+        <v>290</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>246</v>
+        <v>424</v>
       </c>
       <c r="J29" s="5">
-        <v>42759</v>
+        <v>44440</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q29" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S29" s="2">
         <v>83</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U29" s="2">
         <v>13</v>
@@ -4166,47 +4084,47 @@
       <c r="Y29" s="4">
         <v>2214</v>
       </c>
-      <c r="Z29" s="10" t="s">
-        <v>361</v>
+      <c r="Z29" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB29" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC29" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD29" s="12"/>
-    </row>
-    <row r="30" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C30" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>419</v>
+        <v>291</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="J30" s="5">
         <v>41655</v>
@@ -4215,31 +4133,31 @@
         <v>74</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q30" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S30" s="2">
         <v>83</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U30" s="2">
         <v>13</v>
@@ -4256,47 +4174,47 @@
       <c r="Y30" s="4">
         <v>2279</v>
       </c>
-      <c r="Z30" s="10" t="s">
-        <v>373</v>
+      <c r="Z30" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB30" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC30" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD30" s="12"/>
-    </row>
-    <row r="31" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C31" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>241</v>
+        <v>295</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J31" s="5">
         <v>37865</v>
@@ -4305,31 +4223,31 @@
         <v>74</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q31" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S31" s="2">
         <v>83</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U31" s="2">
         <v>13</v>
@@ -4346,47 +4264,47 @@
       <c r="Y31" s="4">
         <v>2503</v>
       </c>
-      <c r="Z31" s="10" t="s">
-        <v>456</v>
+      <c r="Z31" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB31" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC31" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD31" s="12"/>
-    </row>
-    <row r="32" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C32" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>254</v>
+        <v>299</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
@@ -4395,31 +4313,31 @@
         <v>74</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q32" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S32" s="2">
         <v>83</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U32" s="2">
         <v>13</v>
@@ -4436,47 +4354,47 @@
       <c r="Y32" s="4">
         <v>2503</v>
       </c>
-      <c r="Z32" s="10" t="s">
-        <v>374</v>
+      <c r="Z32" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB32" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC32" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD32" s="12"/>
-    </row>
-    <row r="33" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C33" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>257</v>
+        <v>306</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
@@ -4485,31 +4403,31 @@
         <v>74</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q33" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S33" s="2">
         <v>83</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U33" s="2">
         <v>13</v>
@@ -4526,47 +4444,47 @@
       <c r="Y33" s="4">
         <v>2503</v>
       </c>
-      <c r="Z33" s="10" t="s">
-        <v>453</v>
+      <c r="Z33" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB33" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC33" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD33" s="12"/>
-    </row>
-    <row r="34" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C34" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
@@ -4575,31 +4493,31 @@
         <v>74</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q34" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S34" s="2">
         <v>83</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U34" s="2">
         <v>13</v>
@@ -4616,47 +4534,47 @@
       <c r="Y34" s="4">
         <v>2503</v>
       </c>
-      <c r="Z34" s="10" t="s">
-        <v>375</v>
+      <c r="Z34" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB34" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC34" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD34" s="12"/>
-    </row>
-    <row r="35" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD34" s="2"/>
+    </row>
+    <row r="35" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C35" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="J35" s="5">
         <v>42095</v>
@@ -4665,31 +4583,31 @@
         <v>74</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S35" s="2">
         <v>83</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U35" s="2">
         <v>13</v>
@@ -4706,47 +4624,47 @@
       <c r="Y35" s="4">
         <v>2210</v>
       </c>
-      <c r="Z35" s="10" t="s">
-        <v>376</v>
+      <c r="Z35" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB35" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC35" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD35" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD35" s="2"/>
     </row>
     <row r="36" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C36" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
@@ -4755,31 +4673,31 @@
         <v>74</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S36" s="2">
         <v>83</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U36" s="2">
         <v>13</v>
@@ -4796,47 +4714,47 @@
       <c r="Y36" s="4">
         <v>2265</v>
       </c>
-      <c r="Z36" s="10" t="s">
-        <v>377</v>
+      <c r="Z36" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB36" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC36" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD36" s="12"/>
-    </row>
-    <row r="37" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD36" s="2"/>
+    </row>
+    <row r="37" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C37" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>346</v>
+        <v>44469</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="J37" s="5">
         <v>40756</v>
@@ -4845,31 +4763,31 @@
         <v>74</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S37" s="2">
         <v>83</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U37" s="2">
         <v>13</v>
@@ -4886,47 +4804,47 @@
       <c r="Y37" s="4">
         <v>2274</v>
       </c>
-      <c r="Z37" s="10" t="s">
-        <v>378</v>
+      <c r="Z37" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB37" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC37" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD37" s="12"/>
-    </row>
-    <row r="38" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD37" s="2"/>
+    </row>
+    <row r="38" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C38" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="J38" s="5">
         <v>43517</v>
@@ -4935,31 +4853,31 @@
         <v>74</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S38" s="2">
         <v>83</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U38" s="2">
         <v>13</v>
@@ -4976,47 +4894,47 @@
       <c r="Y38" s="4">
         <v>2824</v>
       </c>
-      <c r="Z38" s="10" t="s">
-        <v>379</v>
+      <c r="Z38" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB38" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC38" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD38" s="12"/>
-    </row>
-    <row r="39" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD38" s="2"/>
+    </row>
+    <row r="39" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C39" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="J39" s="5">
         <v>38384</v>
@@ -5025,31 +4943,31 @@
         <v>74</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S39" s="2">
         <v>83</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U39" s="2">
         <v>13</v>
@@ -5066,47 +4984,47 @@
       <c r="Y39" s="4">
         <v>2205</v>
       </c>
-      <c r="Z39" s="10" t="s">
-        <v>380</v>
+      <c r="Z39" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB39" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC39" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD39" s="12"/>
-    </row>
-    <row r="40" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD39" s="2"/>
+    </row>
+    <row r="40" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C40" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>283</v>
+        <v>423</v>
       </c>
       <c r="J40" s="5">
         <v>40452</v>
@@ -5115,31 +5033,31 @@
         <v>74</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S40" s="2">
         <v>83</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U40" s="2">
         <v>13</v>
@@ -5156,47 +5074,47 @@
       <c r="Y40" s="4">
         <v>2300</v>
       </c>
-      <c r="Z40" s="10" t="s">
-        <v>381</v>
+      <c r="Z40" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB40" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC40" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD40" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD40" s="2"/>
     </row>
     <row r="41" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C41" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>248</v>
+      <c r="H41" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="J41" s="5">
         <v>43831</v>
@@ -5205,31 +5123,31 @@
         <v>74</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S41" s="2">
         <v>83</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U41" s="2">
         <v>13</v>
@@ -5246,47 +5164,47 @@
       <c r="Y41" s="4">
         <v>2443</v>
       </c>
-      <c r="Z41" s="10" t="s">
-        <v>359</v>
+      <c r="Z41" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB41" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC41" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD41" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD41" s="2"/>
     </row>
     <row r="42" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C42" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>264</v>
+        <v>344</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
@@ -5295,31 +5213,31 @@
         <v>74</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q42" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S42" s="2">
         <v>83</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U42" s="2">
         <v>13</v>
@@ -5336,47 +5254,47 @@
       <c r="Y42" s="4">
         <v>2215</v>
       </c>
-      <c r="Z42" s="10" t="s">
-        <v>382</v>
+      <c r="Z42" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB42" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC42" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD42" s="12"/>
-    </row>
-    <row r="43" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD42" s="2"/>
+    </row>
+    <row r="43" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C43" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>290</v>
+        <v>348</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="J43" s="5">
         <v>39326</v>
@@ -5385,31 +5303,31 @@
         <v>74</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q43" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S43" s="2">
         <v>83</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U43" s="2">
         <v>13</v>
@@ -5426,47 +5344,47 @@
       <c r="Y43" s="4">
         <v>2230</v>
       </c>
-      <c r="Z43" s="10" t="s">
-        <v>383</v>
+      <c r="Z43" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB43" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC43" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD43" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD43" s="2"/>
     </row>
     <row r="44" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>293</v>
+        <v>352</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="J44" s="5">
         <v>40547</v>
@@ -5475,31 +5393,31 @@
         <v>74</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q44" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S44" s="2">
         <v>83</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U44" s="2">
         <v>13</v>
@@ -5516,47 +5434,47 @@
       <c r="Y44" s="4">
         <v>2493</v>
       </c>
-      <c r="Z44" s="10" t="s">
-        <v>384</v>
+      <c r="Z44" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB44" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC44" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD44" s="12"/>
-    </row>
-    <row r="45" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C45" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>296</v>
+        <v>356</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="J45" s="5">
         <v>43877</v>
@@ -5565,31 +5483,31 @@
         <v>74</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S45" s="2">
         <v>83</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U45" s="2">
         <v>13</v>
@@ -5606,47 +5524,47 @@
       <c r="Y45" s="4">
         <v>2204</v>
       </c>
-      <c r="Z45" s="10" t="s">
-        <v>385</v>
+      <c r="Z45" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB45" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC45" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD45" s="12"/>
-    </row>
-    <row r="46" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD45" s="2"/>
+    </row>
+    <row r="46" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C46" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>298</v>
+        <v>359</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="J46" s="5">
         <v>38626</v>
@@ -5655,31 +5573,31 @@
         <v>74</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S46" s="2">
         <v>83</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U46" s="2">
         <v>13</v>
@@ -5696,47 +5614,47 @@
       <c r="Y46" s="4">
         <v>2259</v>
       </c>
-      <c r="Z46" s="10" t="s">
-        <v>386</v>
+      <c r="Z46" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB46" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC46" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD46" s="12"/>
-    </row>
-    <row r="47" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD46" s="2"/>
+    </row>
+    <row r="47" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C47" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>301</v>
+        <v>362</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="J47" s="5">
         <v>42646</v>
@@ -5745,31 +5663,31 @@
         <v>74</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S47" s="2">
         <v>83</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U47" s="2">
         <v>13</v>
@@ -5786,47 +5704,47 @@
       <c r="Y47" s="4">
         <v>2450</v>
       </c>
-      <c r="Z47" s="10" t="s">
-        <v>387</v>
+      <c r="Z47" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB47" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC47" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD47" s="12"/>
-    </row>
-    <row r="48" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD47" s="2"/>
+    </row>
+    <row r="48" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C48" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>304</v>
+        <v>366</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="J48" s="5">
         <v>43466</v>
@@ -5835,31 +5753,31 @@
         <v>74</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q48" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S48" s="2">
         <v>83</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U48" s="2">
         <v>13</v>
@@ -5876,80 +5794,80 @@
       <c r="Y48" s="4">
         <v>2311</v>
       </c>
-      <c r="Z48" s="10" t="s">
-        <v>388</v>
+      <c r="Z48" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB48" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC48" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD48" s="12"/>
-    </row>
-    <row r="49" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD48" s="2"/>
+    </row>
+    <row r="49" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C49" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>308</v>
+        <v>44469</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="J49" s="5">
-        <v>38504</v>
+        <v>44440</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q49" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S49" s="2">
         <v>83</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U49" s="2">
         <v>13</v>
@@ -5966,47 +5884,47 @@
       <c r="Y49" s="4">
         <v>2316</v>
       </c>
-      <c r="Z49" s="10" t="s">
-        <v>389</v>
+      <c r="Z49" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB49" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC49" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD49" s="12"/>
-    </row>
-    <row r="50" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD49" s="2"/>
+    </row>
+    <row r="50" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C50" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>312</v>
+        <v>374</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="J50" s="5">
         <v>38504</v>
@@ -6015,31 +5933,31 @@
         <v>74</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q50" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S50" s="2">
         <v>83</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U50" s="2">
         <v>13</v>
@@ -6056,47 +5974,47 @@
       <c r="Y50" s="4">
         <v>2401</v>
       </c>
-      <c r="Z50" s="10" t="s">
-        <v>451</v>
+      <c r="Z50" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB50" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC50" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD50" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD50" s="2"/>
     </row>
     <row r="51" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C51" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>315</v>
+        <v>193</v>
       </c>
       <c r="J51" s="5">
         <v>42445</v>
@@ -6105,31 +6023,31 @@
         <v>74</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q51" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S51" s="2">
         <v>83</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U51" s="2">
         <v>13</v>
@@ -6146,47 +6064,47 @@
       <c r="Y51" s="4">
         <v>2210</v>
       </c>
-      <c r="Z51" s="10" t="s">
-        <v>390</v>
+      <c r="Z51" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB51" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC51" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD51" s="12"/>
-    </row>
-    <row r="52" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD51" s="2"/>
+    </row>
+    <row r="52" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C52" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>316</v>
+        <v>384</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="J52" s="5">
         <v>43160</v>
@@ -6195,31 +6113,31 @@
         <v>74</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q52" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S52" s="2">
         <v>83</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U52" s="2">
         <v>13</v>
@@ -6236,47 +6154,47 @@
       <c r="Y52" s="4">
         <v>2227</v>
       </c>
-      <c r="Z52" s="10" t="s">
-        <v>391</v>
+      <c r="Z52" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB52" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC52" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD52" s="12"/>
-    </row>
-    <row r="53" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD52" s="2"/>
+    </row>
+    <row r="53" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C53" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="J53" s="5">
         <v>44271</v>
@@ -6285,31 +6203,31 @@
         <v>74</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S53" s="2">
         <v>83</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U53" s="2">
         <v>13</v>
@@ -6326,47 +6244,47 @@
       <c r="Y53" s="4">
         <v>2253</v>
       </c>
-      <c r="Z53" s="10" t="s">
-        <v>392</v>
+      <c r="Z53" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB53" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC53" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD53" s="12"/>
-    </row>
-    <row r="54" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD53" s="2"/>
+    </row>
+    <row r="54" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C54" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="J54" s="5">
         <v>42767</v>
@@ -6375,31 +6293,31 @@
         <v>74</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q54" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S54" s="2">
         <v>83</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U54" s="2">
         <v>13</v>
@@ -6416,47 +6334,47 @@
       <c r="Y54" s="4">
         <v>2231</v>
       </c>
-      <c r="Z54" s="10" t="s">
-        <v>393</v>
+      <c r="Z54" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB54" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC54" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD54" s="12"/>
-    </row>
-    <row r="55" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD54" s="2"/>
+    </row>
+    <row r="55" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C55" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="J55" s="5">
         <v>42979</v>
@@ -6465,31 +6383,31 @@
         <v>74</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S55" s="2">
         <v>83</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U55" s="2">
         <v>13</v>
@@ -6504,47 +6422,49 @@
         <v>7717159903</v>
       </c>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="10" t="s">
-        <v>394</v>
+      <c r="Z55" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB55" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC55" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD55" s="12"/>
-    </row>
-    <row r="56" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD55" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C56" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="J56" s="5">
         <v>42810</v>
@@ -6553,31 +6473,31 @@
         <v>74</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q56" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S56" s="2">
         <v>83</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U56" s="2">
         <v>13</v>
@@ -6594,47 +6514,47 @@
       <c r="Y56" s="4">
         <v>3006</v>
       </c>
-      <c r="Z56" s="10" t="s">
-        <v>395</v>
+      <c r="Z56" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB56" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC56" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD56" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C57" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="J57" s="5">
         <v>38687</v>
@@ -6643,31 +6563,31 @@
         <v>74</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q57" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S57" s="2">
         <v>83</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U57" s="2">
         <v>13</v>
@@ -6684,47 +6604,47 @@
       <c r="Y57" s="4">
         <v>2218</v>
       </c>
-      <c r="Z57" s="10" t="s">
-        <v>396</v>
+      <c r="Z57" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB57" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC57" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD57" s="12"/>
-    </row>
-    <row r="58" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD57" s="2"/>
+    </row>
+    <row r="58" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C58" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="J58" s="5">
         <v>42767</v>
@@ -6733,31 +6653,31 @@
         <v>74</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q58" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S58" s="2">
         <v>83</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U58" s="2">
         <v>13</v>
@@ -6774,47 +6694,47 @@
       <c r="Y58" s="4">
         <v>2217</v>
       </c>
-      <c r="Z58" s="10" t="s">
-        <v>397</v>
+      <c r="Z58" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB58" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC58" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD58" s="12"/>
-    </row>
-    <row r="59" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD58" s="2"/>
+    </row>
+    <row r="59" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C59" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
@@ -6823,31 +6743,31 @@
         <v>74</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q59" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S59" s="2">
         <v>83</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U59" s="2">
         <v>13</v>
@@ -6864,47 +6784,47 @@
       <c r="Y59" s="4">
         <v>2213</v>
       </c>
-      <c r="Z59" s="10" t="s">
-        <v>398</v>
+      <c r="Z59" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB59" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC59" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD59" s="12"/>
-    </row>
-    <row r="60" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44480</v>
+      </c>
+      <c r="AD59" s="2"/>
+    </row>
+    <row r="60" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2021</v>
       </c>
       <c r="B60" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C60" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>347</v>
+        <v>44469</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
@@ -6913,31 +6833,31 @@
         <v>74</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q60" s="18" t="s">
-        <v>400</v>
+        <v>177</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
       <c r="S60" s="2">
         <v>83</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="U60" s="2">
         <v>13</v>
@@ -6954,19 +6874,19 @@
       <c r="Y60" s="4">
         <v>2233</v>
       </c>
-      <c r="Z60" s="10" t="s">
-        <v>399</v>
+      <c r="Z60" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AB60" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="AC60" s="3">
-        <v>44386</v>
-      </c>
-      <c r="AD60" s="12"/>
+        <v>44480</v>
+      </c>
+      <c r="AD60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6979,13 +6899,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K87">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K93">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O87">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O93">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V87">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V93">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
@@ -7011,40 +6931,41 @@
     <hyperlink ref="Z26" r:id="rId19"/>
     <hyperlink ref="Z27" r:id="rId20"/>
     <hyperlink ref="Z28" r:id="rId21"/>
-    <hyperlink ref="Z29" r:id="rId22"/>
-    <hyperlink ref="Z30" r:id="rId23"/>
-    <hyperlink ref="Z32" r:id="rId24"/>
-    <hyperlink ref="Z34" r:id="rId25"/>
-    <hyperlink ref="Z35" r:id="rId26"/>
-    <hyperlink ref="Z36" r:id="rId27"/>
-    <hyperlink ref="Z37" r:id="rId28"/>
-    <hyperlink ref="Z38" r:id="rId29"/>
-    <hyperlink ref="Z39" r:id="rId30"/>
-    <hyperlink ref="Z40" r:id="rId31"/>
-    <hyperlink ref="Z41" r:id="rId32"/>
-    <hyperlink ref="Z42" r:id="rId33"/>
-    <hyperlink ref="Z43" r:id="rId34"/>
-    <hyperlink ref="Z44" r:id="rId35"/>
-    <hyperlink ref="Z45" r:id="rId36"/>
-    <hyperlink ref="Z46" r:id="rId37"/>
-    <hyperlink ref="Z47" r:id="rId38"/>
-    <hyperlink ref="Z48" r:id="rId39"/>
-    <hyperlink ref="Z49" r:id="rId40"/>
-    <hyperlink ref="Z51" r:id="rId41"/>
-    <hyperlink ref="Z52" r:id="rId42"/>
-    <hyperlink ref="Z53" r:id="rId43"/>
-    <hyperlink ref="Z54" r:id="rId44"/>
-    <hyperlink ref="Z55" r:id="rId45"/>
-    <hyperlink ref="Z56" r:id="rId46"/>
-    <hyperlink ref="Z57" r:id="rId47"/>
-    <hyperlink ref="Z58" r:id="rId48"/>
-    <hyperlink ref="Z59" r:id="rId49"/>
-    <hyperlink ref="Z60" r:id="rId50"/>
-    <hyperlink ref="Z33" r:id="rId51"/>
-    <hyperlink ref="Z50" r:id="rId52"/>
-    <hyperlink ref="Z31" r:id="rId53"/>
+    <hyperlink ref="Z30" r:id="rId22"/>
+    <hyperlink ref="Z32" r:id="rId23"/>
+    <hyperlink ref="Z34" r:id="rId24"/>
+    <hyperlink ref="Z35" r:id="rId25"/>
+    <hyperlink ref="Z36" r:id="rId26"/>
+    <hyperlink ref="Z37" r:id="rId27"/>
+    <hyperlink ref="Z38" r:id="rId28"/>
+    <hyperlink ref="Z39" r:id="rId29"/>
+    <hyperlink ref="Z40" r:id="rId30"/>
+    <hyperlink ref="Z41" r:id="rId31"/>
+    <hyperlink ref="Z42" r:id="rId32"/>
+    <hyperlink ref="Z43" r:id="rId33"/>
+    <hyperlink ref="Z44" r:id="rId34"/>
+    <hyperlink ref="Z45" r:id="rId35"/>
+    <hyperlink ref="Z46" r:id="rId36"/>
+    <hyperlink ref="Z47" r:id="rId37"/>
+    <hyperlink ref="Z48" r:id="rId38"/>
+    <hyperlink ref="Z51" r:id="rId39"/>
+    <hyperlink ref="Z52" r:id="rId40"/>
+    <hyperlink ref="Z53" r:id="rId41"/>
+    <hyperlink ref="Z54" r:id="rId42"/>
+    <hyperlink ref="Z55" r:id="rId43"/>
+    <hyperlink ref="Z56" r:id="rId44"/>
+    <hyperlink ref="Z57" r:id="rId45"/>
+    <hyperlink ref="Z58" r:id="rId46"/>
+    <hyperlink ref="Z59" r:id="rId47"/>
+    <hyperlink ref="Z60" r:id="rId48"/>
+    <hyperlink ref="Z33" r:id="rId49"/>
+    <hyperlink ref="Z50" r:id="rId50"/>
+    <hyperlink ref="Z31" r:id="rId51"/>
+    <hyperlink ref="Z29" r:id="rId52"/>
+    <hyperlink ref="Z49" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="428">
   <si>
     <t>44220</t>
   </si>
@@ -659,6 +659,9 @@
     <t>Sánchez</t>
   </si>
   <si>
+    <t>Dirección de Vinculación y Extensión</t>
+  </si>
+  <si>
     <t>dir.vinculacion@upp.edu.mx</t>
   </si>
   <si>
@@ -707,6 +710,9 @@
     <t>Rivas</t>
   </si>
   <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
     <t>comunicacion@upp.edu.mx</t>
   </si>
   <si>
@@ -902,6 +908,18 @@
     <t>Subdirector de Comunicación Social</t>
   </si>
   <si>
+    <t>Carlos Ernesto</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <t>Vizcaya</t>
+  </si>
+  <si>
+    <t>ccadena@upp.edu.mx</t>
+  </si>
+  <si>
     <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
   </si>
   <si>
@@ -1058,9 +1076,6 @@
     <t>Jefa de Departamento Jurídico</t>
   </si>
   <si>
-    <t>Ahsure Tatiana</t>
-  </si>
-  <si>
     <t>Jefe de Departamento de Logística</t>
   </si>
   <si>
@@ -1139,15 +1154,6 @@
     <t>internacionalizacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>Carlos Ernesto</t>
-  </si>
-  <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <t>Vizcaya</t>
-  </si>
-  <si>
     <t>adistancia@upp.edu.mx</t>
   </si>
   <si>
@@ -1289,22 +1295,22 @@
     <t>evaluacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>ccadena@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada del Departamento de Educación a Distancia</t>
-  </si>
-  <si>
-    <t>Mayeli</t>
-  </si>
-  <si>
-    <t>Dirección de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La celda que se encuentra vacía es debido a que es línea directa, por lo que no existe alguna extensión. </t>
+    <t>Eguiluz</t>
+  </si>
+  <si>
+    <t>Ruíz</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Jefe del Departamento de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Velázquez</t>
   </si>
 </sst>
 </file>
@@ -1324,13 +1330,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1393,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1434,9 +1438,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA49" workbookViewId="0">
-      <selection activeCell="AD55" sqref="AD55"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,14 +1755,14 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.5703125" customWidth="1"/>
+    <col min="12" max="12" width="46" customWidth="1"/>
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
@@ -1762,11 +1776,11 @@
     <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.140625" customWidth="1"/>
+    <col min="26" max="26" width="36" customWidth="1"/>
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37.42578125" customWidth="1"/>
+    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -1775,38 +1789,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:30" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:30" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1993,38 +2007,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2123,10 +2137,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -2201,10 +2215,10 @@
         <v>181</v>
       </c>
       <c r="AB8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC8" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
@@ -2213,10 +2227,10 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C9" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>182</v>
@@ -2291,10 +2305,10 @@
         <v>181</v>
       </c>
       <c r="AB9" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC9" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
@@ -2303,10 +2317,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C10" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>182</v>
@@ -2381,10 +2395,10 @@
         <v>181</v>
       </c>
       <c r="AB10" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC10" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
@@ -2393,10 +2407,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C11" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>195</v>
@@ -2471,10 +2485,10 @@
         <v>181</v>
       </c>
       <c r="AB11" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC11" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD11" s="2"/>
     </row>
@@ -2483,10 +2497,10 @@
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C12" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>195</v>
@@ -2561,10 +2575,10 @@
         <v>181</v>
       </c>
       <c r="AB12" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC12" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD12" s="2"/>
     </row>
@@ -2573,10 +2587,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C13" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>195</v>
@@ -2594,7 +2608,7 @@
         <v>209</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="J13" s="5">
         <v>44166</v>
@@ -2645,16 +2659,16 @@
         <v>3000</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB13" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC13" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD13" s="2"/>
     </row>
@@ -2663,28 +2677,28 @@
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C14" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="J14" s="5">
         <v>43221</v>
@@ -2735,16 +2749,16 @@
         <v>2443</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB14" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC14" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD14" s="2"/>
     </row>
@@ -2753,28 +2767,28 @@
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C15" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J15" s="5">
         <v>44166</v>
@@ -2825,46 +2839,46 @@
         <v>2215</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB15" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC15" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C16" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="J16" s="5">
         <v>43739</v>
@@ -2915,16 +2929,16 @@
         <v>2214</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB16" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC16" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD16" s="2"/>
     </row>
@@ -2933,28 +2947,28 @@
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C17" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J17" s="5">
         <v>38726</v>
@@ -3005,16 +3019,16 @@
         <v>2276</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB17" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC17" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD17" s="2"/>
     </row>
@@ -3023,28 +3037,28 @@
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C18" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J18" s="5">
         <v>42860</v>
@@ -3095,46 +3109,46 @@
         <v>2228</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB18" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC18" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C19" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J19" s="5">
         <v>39829</v>
@@ -3185,46 +3199,46 @@
         <v>2221</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB19" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC19" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C20" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>173</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J20" s="5">
         <v>40665</v>
@@ -3275,16 +3289,16 @@
         <v>3009</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB20" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC20" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD20" s="2"/>
     </row>
@@ -3293,28 +3307,28 @@
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C21" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J21" s="5">
         <v>38626</v>
@@ -3365,16 +3379,16 @@
         <v>2223</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB21" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC21" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
@@ -3383,28 +3397,28 @@
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C22" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J22" s="5">
         <v>41730</v>
@@ -3455,16 +3469,16 @@
         <v>2479</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB22" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC22" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
@@ -3473,28 +3487,28 @@
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C23" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J23" s="5">
         <v>39829</v>
@@ -3545,16 +3559,16 @@
         <v>2221</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB23" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC23" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
@@ -3563,28 +3577,28 @@
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C24" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J24" s="5">
         <v>41944</v>
@@ -3635,16 +3649,16 @@
         <v>2223</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AA24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB24" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC24" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD24" s="2"/>
     </row>
@@ -3653,28 +3667,28 @@
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C25" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J25" s="5">
         <v>41883</v>
@@ -3725,16 +3739,16 @@
         <v>2252</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AA25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB25" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC25" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD25" s="2"/>
     </row>
@@ -3743,28 +3757,28 @@
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C26" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J26" s="5">
         <v>43719</v>
@@ -3815,46 +3829,46 @@
         <v>2343</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB26" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC26" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C27" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>197</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J27" s="5">
         <v>44120</v>
@@ -3905,43 +3919,43 @@
         <v>2528</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB27" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC27" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C28" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>174</v>
@@ -3995,46 +4009,46 @@
         <v>2381</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB28" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC28" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C29" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="J29" s="5">
         <v>44440</v>
@@ -4085,43 +4099,43 @@
         <v>2214</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>420</v>
+        <v>296</v>
       </c>
       <c r="AA29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB29" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC29" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C30" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>187</v>
@@ -4175,46 +4189,46 @@
         <v>2279</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AA30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB30" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC30" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C31" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J31" s="5">
         <v>37865</v>
@@ -4265,46 +4279,46 @@
         <v>2503</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB31" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC31" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C32" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
@@ -4355,46 +4369,46 @@
         <v>2503</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AA32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB32" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC32" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C33" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
@@ -4445,46 +4459,46 @@
         <v>2503</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB33" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC33" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C34" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
@@ -4535,16 +4549,16 @@
         <v>2503</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB34" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC34" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD34" s="2"/>
     </row>
@@ -4553,25 +4567,25 @@
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C35" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>193</v>
@@ -4625,16 +4639,16 @@
         <v>2210</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB35" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC35" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD35" s="2"/>
     </row>
@@ -4643,28 +4657,28 @@
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C36" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
@@ -4715,16 +4729,16 @@
         <v>2265</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AA36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB36" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC36" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD36" s="2"/>
     </row>
@@ -4733,28 +4747,28 @@
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C37" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J37" s="5">
         <v>40756</v>
@@ -4805,16 +4819,16 @@
         <v>2274</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AA37" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB37" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC37" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD37" s="2"/>
     </row>
@@ -4823,25 +4837,25 @@
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C38" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>174</v>
@@ -4895,16 +4909,16 @@
         <v>2824</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB38" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC38" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD38" s="2"/>
     </row>
@@ -4913,25 +4927,25 @@
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C39" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>174</v>
@@ -4985,16 +4999,16 @@
         <v>2205</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AA39" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB39" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC39" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD39" s="2"/>
     </row>
@@ -5003,28 +5017,28 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C40" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="J40" s="5">
         <v>40452</v>
@@ -5075,136 +5089,136 @@
         <v>2300</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AA40" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB40" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC40" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>2021</v>
       </c>
-      <c r="B41" s="3">
-        <v>44378</v>
-      </c>
-      <c r="C41" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>342</v>
+      <c r="B41" s="15">
+        <v>44470</v>
+      </c>
+      <c r="C41" s="15">
+        <v>44561</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>172</v>
+        <v>422</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J41" s="5">
-        <v>43831</v>
-      </c>
-      <c r="K41" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" s="8">
+        <v>44516</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O41" s="2" t="s">
+      <c r="M41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="O41" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q41" s="13" t="s">
+      <c r="P41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q41" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S41" s="2">
+      <c r="R41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="S41" s="14">
         <v>83</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="14">
         <v>13</v>
       </c>
-      <c r="V41" s="2" t="s">
+      <c r="V41" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="14">
         <v>43830</v>
       </c>
-      <c r="X41" s="4">
+      <c r="X41" s="7">
         <v>7715477510</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="Y41" s="7">
         <v>2443</v>
       </c>
-      <c r="Z41" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA41" s="4" t="s">
+      <c r="Z41" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA41" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AB41" s="3">
-        <v>44480</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>44480</v>
-      </c>
-      <c r="AD41" s="2"/>
+      <c r="AB41" s="15">
+        <v>44571</v>
+      </c>
+      <c r="AC41" s="15">
+        <v>44571</v>
+      </c>
+      <c r="AD41" s="14"/>
     </row>
     <row r="42" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C42" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
@@ -5255,16 +5269,16 @@
         <v>2215</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AA42" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB42" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC42" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD42" s="2"/>
     </row>
@@ -5273,25 +5287,25 @@
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C43" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>199</v>
@@ -5345,16 +5359,16 @@
         <v>2230</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB43" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC43" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD43" s="2"/>
     </row>
@@ -5363,25 +5377,25 @@
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C44" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>199</v>
@@ -5435,16 +5449,16 @@
         <v>2493</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AA44" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB44" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC44" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD44" s="2"/>
     </row>
@@ -5453,22 +5467,22 @@
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C45" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>209</v>
@@ -5525,16 +5539,16 @@
         <v>2204</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AA45" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB45" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC45" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD45" s="2"/>
     </row>
@@ -5543,25 +5557,25 @@
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C46" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>187</v>
@@ -5615,16 +5629,16 @@
         <v>2259</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AA46" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB46" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC46" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD46" s="2"/>
     </row>
@@ -5633,22 +5647,22 @@
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C47" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>185</v>
@@ -5705,16 +5719,16 @@
         <v>2450</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB47" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC47" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD47" s="2"/>
     </row>
@@ -5723,22 +5737,22 @@
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C48" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>185</v>
@@ -5795,16 +5809,16 @@
         <v>2311</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB48" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC48" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD48" s="2"/>
     </row>
@@ -5813,31 +5827,31 @@
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C49" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>266</v>
+        <v>427</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>187</v>
       </c>
       <c r="J49" s="5">
-        <v>44440</v>
+        <v>44516</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>74</v>
@@ -5885,16 +5899,16 @@
         <v>2316</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB49" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC49" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD49" s="2"/>
     </row>
@@ -5903,25 +5917,25 @@
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C50" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>187</v>
@@ -5975,16 +5989,16 @@
         <v>2401</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AA50" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB50" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC50" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD50" s="2"/>
     </row>
@@ -5993,25 +6007,25 @@
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C51" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>193</v>
@@ -6065,16 +6079,16 @@
         <v>2210</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB51" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC51" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD51" s="2"/>
     </row>
@@ -6083,25 +6097,25 @@
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C52" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>193</v>
@@ -6155,43 +6169,43 @@
         <v>2227</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB52" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC52" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C53" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>193</v>
@@ -6245,16 +6259,16 @@
         <v>2253</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AA53" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB53" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC53" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD53" s="2"/>
     </row>
@@ -6263,25 +6277,25 @@
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C54" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>193</v>
@@ -6335,16 +6349,16 @@
         <v>2231</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AA54" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB54" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC54" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD54" s="2"/>
     </row>
@@ -6353,25 +6367,25 @@
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C55" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>193</v>
@@ -6423,45 +6437,43 @@
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA55" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB55" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC55" s="3">
-        <v>44480</v>
-      </c>
-      <c r="AD55" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+        <v>44571</v>
+      </c>
+      <c r="AD55" s="2"/>
+    </row>
+    <row r="56" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C56" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>193</v>
@@ -6515,16 +6527,16 @@
         <v>3006</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AA56" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB56" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC56" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD56" s="2"/>
     </row>
@@ -6533,25 +6545,25 @@
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C57" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>193</v>
@@ -6605,16 +6617,16 @@
         <v>2218</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AA57" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB57" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC57" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD57" s="2"/>
     </row>
@@ -6623,25 +6635,25 @@
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C58" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>193</v>
@@ -6695,16 +6707,16 @@
         <v>2217</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AA58" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB58" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC58" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD58" s="2"/>
     </row>
@@ -6713,28 +6725,28 @@
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C59" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>209</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
@@ -6785,16 +6797,16 @@
         <v>2213</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AA59" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB59" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC59" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD59" s="2"/>
     </row>
@@ -6803,28 +6815,28 @@
         <v>2021</v>
       </c>
       <c r="B60" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C60" s="3">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
@@ -6875,16 +6887,16 @@
         <v>2233</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AA60" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB60" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AC60" s="3">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AD60" s="2"/>
     </row>
@@ -6899,13 +6911,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K93">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K119">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O93">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O119">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V93">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V119">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
@@ -6965,7 +6977,6 @@
     <hyperlink ref="Z49" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="-60" windowWidth="15600" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="428">
   <si>
     <t>44220</t>
   </si>
@@ -632,6 +627,666 @@
     <t>divisiondeestudios@upp.edu.mx</t>
   </si>
   <si>
+    <t>Directora de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Alda Nelly</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>dir.vinculacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Abogado General</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>juridico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Logística</t>
+  </si>
+  <si>
+    <t>Por designar</t>
+  </si>
+  <si>
+    <t>Dirección de Logística</t>
+  </si>
+  <si>
+    <t>dirlogistica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Eduardo Rubén</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Rivas</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>comunicacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>Francisco Rafael</t>
+  </si>
+  <si>
+    <t>Trejo</t>
+  </si>
+  <si>
+    <t>Macotela</t>
+  </si>
+  <si>
+    <t>Dirección de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>diip@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Planeación</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>dirplaneacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Ingeniería en Software</t>
+  </si>
+  <si>
+    <t>Mayra Fabiola</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Software</t>
+  </si>
+  <si>
+    <t>software@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Financiera</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Financiera</t>
+  </si>
+  <si>
+    <t>financiera@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
+  </si>
+  <si>
+    <t>Aguilera</t>
+  </si>
+  <si>
+    <t>Jíménez</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
+  </si>
+  <si>
+    <t>mecatronica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
+  </si>
+  <si>
+    <t>Alejandrina</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Valadez</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
+  </si>
+  <si>
+    <t>biotecnologia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Telemática</t>
+  </si>
+  <si>
+    <t>telematica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>mecanica_automotriz@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
+  </si>
+  <si>
+    <t>Rosa María</t>
+  </si>
+  <si>
+    <t>Chío</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
+  </si>
+  <si>
+    <t>terapia_fisica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
+  </si>
+  <si>
+    <t>Iztmitl</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
+  </si>
+  <si>
+    <t>biomedica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Brenda Berenice</t>
+  </si>
+  <si>
+    <t>Escorza</t>
+  </si>
+  <si>
+    <t>Coordinación de la Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>medico_cirujano@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>marcovera@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>10 A</t>
+  </si>
+  <si>
+    <t>Subdirector de Comunicación Social</t>
+  </si>
+  <si>
+    <t>Carlos Ernesto</t>
+  </si>
+  <si>
+    <t>Cadena</t>
+  </si>
+  <si>
+    <t>Vizcaya</t>
+  </si>
+  <si>
+    <t>ccadena@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
+  </si>
+  <si>
+    <t>María Guadalupe</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>gestioneducativa@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
+  </si>
+  <si>
+    <t>Mayte</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>mayte@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Biotecnología</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Álvarez</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>posgradobiotecnologia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones.</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Cornejo</t>
+  </si>
+  <si>
+    <t>arturo.austria@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
+  </si>
+  <si>
+    <t>Juan Benito</t>
+  </si>
+  <si>
+    <t>Pascual</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>posgradomescatronica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirector de Recursos Financieros</t>
+  </si>
+  <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>agustin.mejia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirectora de Calidad</t>
+  </si>
+  <si>
+    <t>Ma. del Carmen</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Madrigal</t>
+  </si>
+  <si>
+    <t>calidad@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirector de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Lozano</t>
+  </si>
+  <si>
+    <t>presupuesto@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>09 C</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
+  </si>
+  <si>
+    <t>Jose Raul</t>
+  </si>
+  <si>
+    <t>Dossetti</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>promocionestudiantil@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Programas Especiales</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Briones</t>
+  </si>
+  <si>
+    <t>pespeciales@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Lourdes Guadalupe</t>
+  </si>
+  <si>
+    <t>Árevalo</t>
+  </si>
+  <si>
+    <t>Baena</t>
+  </si>
+  <si>
+    <t>lourdesgab_84@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento Jurídico</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Eguiluz</t>
+  </si>
+  <si>
+    <t>Ruíz</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Logística</t>
+  </si>
+  <si>
+    <t>Jhonathan Gonzalo</t>
+  </si>
+  <si>
+    <t>Godínez</t>
+  </si>
+  <si>
+    <t>jhonathan@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Julio César</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>desarrollo@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Idiomas y Lenguas</t>
+  </si>
+  <si>
+    <t>Félix Alberto</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>ingles@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Desarrollo Académico</t>
+  </si>
+  <si>
+    <t>Mary Carmen</t>
+  </si>
+  <si>
+    <t>desarrolloacademico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
+  </si>
+  <si>
+    <t>Valdivieso</t>
+  </si>
+  <si>
+    <t>biblioteca@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
+  </si>
+  <si>
+    <t>Nancy Judith</t>
+  </si>
+  <si>
+    <t>Cortes</t>
+  </si>
+  <si>
+    <t>deportes@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Internacionalización</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Esquivel</t>
+  </si>
+  <si>
+    <t>internacionalizacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe del Departamento de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Velázquez</t>
+  </si>
+  <si>
+    <t>adistancia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Incubación de Empresas</t>
+  </si>
+  <si>
+    <t>Jesús Eduardo</t>
+  </si>
+  <si>
+    <t>Juarico</t>
+  </si>
+  <si>
+    <t>Guaso</t>
+  </si>
+  <si>
+    <t>juarico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Contabilidad</t>
+  </si>
+  <si>
+    <t>Rómulo</t>
+  </si>
+  <si>
+    <t>Olvera</t>
+  </si>
+  <si>
+    <t>romulo@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Tinajar</t>
+  </si>
+  <si>
+    <t>recursoshumanos@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
+  </si>
+  <si>
+    <t>Monserrat</t>
+  </si>
+  <si>
+    <t>Licona</t>
+  </si>
+  <si>
+    <t>serviciomedico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>mantenimiento1@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Administración del Polideportivo</t>
+  </si>
+  <si>
+    <t>José Enoch</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Alfaro</t>
+  </si>
+  <si>
+    <t>admonplata@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
+  </si>
+  <si>
+    <t>Donaciano</t>
+  </si>
+  <si>
+    <t>Calva</t>
+  </si>
+  <si>
+    <t>adquisiciones@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura</t>
+  </si>
+  <si>
+    <t>César Hugo</t>
+  </si>
+  <si>
+    <t>Dorantes</t>
+  </si>
+  <si>
+    <t>infraestructura@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>sistemas@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Servicios Escolares</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>servescolares@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Evaluación y Estadísticas</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Proa</t>
+  </si>
+  <si>
+    <t>de la Fuente</t>
+  </si>
+  <si>
+    <t>evaluacion@upp.edu.mx</t>
+  </si>
+  <si>
     <t>Titular del Órgano Interno de Control</t>
   </si>
   <si>
@@ -650,667 +1305,7 @@
     <t>crystycortes@upp.edu.mx</t>
   </si>
   <si>
-    <t>Directora de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Alda Nelly</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>Dirección de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>dir.vinculacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Abogado General</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Jiménez</t>
-  </si>
-  <si>
-    <t>Barrios</t>
-  </si>
-  <si>
-    <t>juridico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Logística</t>
-  </si>
-  <si>
-    <t>Azucena</t>
-  </si>
-  <si>
-    <t>Ponce</t>
-  </si>
-  <si>
-    <t>Figueroa</t>
-  </si>
-  <si>
-    <t>Dirección de Logística</t>
-  </si>
-  <si>
-    <t>dirlogistica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Eduardo Rubén</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>Rivas</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>comunicacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Francisco Rafael</t>
-  </si>
-  <si>
-    <t>Trejo</t>
-  </si>
-  <si>
-    <t>Macotela</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>diip@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Planeación</t>
-  </si>
-  <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t>Montes</t>
-  </si>
-  <si>
-    <t>Monroy</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>dirplaneacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Ingeniería en Software</t>
-  </si>
-  <si>
-    <t>Mayra Fabiola</t>
-  </si>
-  <si>
-    <t>Peralta</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Software</t>
-  </si>
-  <si>
-    <t>software@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Financiera</t>
-  </si>
-  <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Financiera</t>
-  </si>
-  <si>
-    <t>financiera@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
-  </si>
-  <si>
-    <t>Aguilera</t>
-  </si>
-  <si>
-    <t>Jíménez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
-  </si>
-  <si>
-    <t>mecatronica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
-  </si>
-  <si>
-    <t>Alejandrina</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Valadez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
-  </si>
-  <si>
-    <t>biotecnologia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Telemática</t>
-  </si>
-  <si>
-    <t>telematica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>mecanica_automotriz@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
-  </si>
-  <si>
-    <t>Rosa María</t>
-  </si>
-  <si>
-    <t>Chío</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
-  </si>
-  <si>
-    <t>terapia_fisica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
-  </si>
-  <si>
-    <t>Iztmitl</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
-  </si>
-  <si>
-    <t>biomedica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>Brenda Berenice</t>
-  </si>
-  <si>
-    <t>Escorza</t>
-  </si>
-  <si>
-    <t>Coordinación de la Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>medico_cirujano@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>marcovera@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>10 A</t>
-  </si>
-  <si>
-    <t>Subdirector de Comunicación Social</t>
-  </si>
-  <si>
-    <t>Carlos Ernesto</t>
-  </si>
-  <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <t>Vizcaya</t>
-  </si>
-  <si>
-    <t>ccadena@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
-  </si>
-  <si>
-    <t>María Guadalupe</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>gestioneducativa@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
-  </si>
-  <si>
-    <t>Mayte</t>
-  </si>
-  <si>
-    <t>Olivares</t>
-  </si>
-  <si>
-    <t>mayte@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Biotecnología</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
-    <t>Cervantes</t>
-  </si>
-  <si>
-    <t>posgradobiotecnologia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones.</t>
-  </si>
-  <si>
-    <t>Arturo</t>
-  </si>
-  <si>
-    <t>Cornejo</t>
-  </si>
-  <si>
-    <t>arturo.austria@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
-  </si>
-  <si>
-    <t>Juan Benito</t>
-  </si>
-  <si>
-    <t>Pascual</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>posgradomescatronica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Subdirector de Recursos Financieros</t>
-  </si>
-  <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>Mejía</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>agustin.mejia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Subdirectora de Calidad</t>
-  </si>
-  <si>
-    <t>Ma. del Carmen</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Madrigal</t>
-  </si>
-  <si>
-    <t>calidad@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Subdirector de Planeación y Presupuesto</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Lozano</t>
-  </si>
-  <si>
-    <t>presupuesto@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>09 C</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
-  </si>
-  <si>
-    <t>Jose Raul</t>
-  </si>
-  <si>
-    <t>Dossetti</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>promocionestudiantil@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Programas Especiales</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Briones</t>
-  </si>
-  <si>
-    <t>pespeciales@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Lourdes Guadalupe</t>
-  </si>
-  <si>
-    <t>Árevalo</t>
-  </si>
-  <si>
-    <t>Baena</t>
-  </si>
-  <si>
-    <t>lourdesgab_84@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento Jurídico</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Logística</t>
-  </si>
-  <si>
-    <t>Jhonathan Gonzalo</t>
-  </si>
-  <si>
-    <t>Godínez</t>
-  </si>
-  <si>
-    <t>jhonathan@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
-  </si>
-  <si>
-    <t>Julio César</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>desarrollo@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Idiomas y Lenguas</t>
-  </si>
-  <si>
-    <t>Félix Alberto</t>
-  </si>
-  <si>
-    <t>Rodríguez</t>
-  </si>
-  <si>
-    <t>ingles@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Desarrollo Académico</t>
-  </si>
-  <si>
-    <t>Mary Carmen</t>
-  </si>
-  <si>
-    <t>desarrolloacademico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
-  </si>
-  <si>
-    <t>Valdivieso</t>
-  </si>
-  <si>
-    <t>biblioteca@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
-  </si>
-  <si>
-    <t>Nancy Judith</t>
-  </si>
-  <si>
-    <t>Cortes</t>
-  </si>
-  <si>
-    <t>deportes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Internacionalización</t>
-  </si>
-  <si>
-    <t>Gerardo</t>
-  </si>
-  <si>
-    <t>Esquivel</t>
-  </si>
-  <si>
-    <t>internacionalizacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>adistancia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Incubación de Empresas</t>
-  </si>
-  <si>
-    <t>Jesús Eduardo</t>
-  </si>
-  <si>
-    <t>Juarico</t>
-  </si>
-  <si>
-    <t>Guaso</t>
-  </si>
-  <si>
-    <t>juarico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Contabilidad</t>
-  </si>
-  <si>
-    <t>Rómulo</t>
-  </si>
-  <si>
-    <t>Olvera</t>
-  </si>
-  <si>
-    <t>romulo@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Recursos Humanos</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>Tinajar</t>
-  </si>
-  <si>
-    <t>recursoshumanos@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
-  </si>
-  <si>
-    <t>Lizeth Guadalupe</t>
-  </si>
-  <si>
-    <t>lizeth.hernandez@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
-  </si>
-  <si>
-    <t>César Hugo</t>
-  </si>
-  <si>
-    <t>Dorantes</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>mantenimiento1@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Administración del Polideportivo</t>
-  </si>
-  <si>
-    <t>José Enoch</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Alfaro</t>
-  </si>
-  <si>
-    <t>admonplata@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
-  </si>
-  <si>
-    <t>Donaciano</t>
-  </si>
-  <si>
-    <t>Calva</t>
-  </si>
-  <si>
-    <t>adquisiciones@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Infraestructura</t>
-  </si>
-  <si>
-    <t>infraestructura@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>sistemas@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Servicios Escolares</t>
-  </si>
-  <si>
-    <t>Margarita</t>
-  </si>
-  <si>
-    <t>Díaz</t>
-  </si>
-  <si>
-    <t>servescolares@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Evaluación y Estadísticas</t>
-  </si>
-  <si>
-    <t>Guadalupe</t>
-  </si>
-  <si>
-    <t>Proa</t>
-  </si>
-  <si>
-    <t>de la Fuente</t>
-  </si>
-  <si>
-    <t>evaluacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Eguiluz</t>
-  </si>
-  <si>
-    <t>Ruíz</t>
-  </si>
-  <si>
-    <t>Brenda</t>
-  </si>
-  <si>
-    <t>Jefe del Departamento de Educación a Distancia</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Velázquez</t>
+    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría.</t>
   </si>
 </sst>
 </file>
@@ -1330,11 +1325,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1369,7 +1366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1392,12 +1389,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1417,16 +1423,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1438,29 +1438,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1735,7 +1733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1745,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,14 +1753,14 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
@@ -1776,11 +1774,11 @@
     <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36" customWidth="1"/>
+    <col min="26" max="26" width="36.5703125" customWidth="1"/>
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -1789,38 +1787,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:30" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:30" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2007,38 +2005,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2132,15 +2130,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -2181,7 +2179,7 @@
       <c r="P8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -2215,22 +2213,22 @@
         <v>181</v>
       </c>
       <c r="AB8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C9" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>182</v>
@@ -2271,7 +2269,7 @@
       <c r="P9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -2305,22 +2303,22 @@
         <v>181</v>
       </c>
       <c r="AB9" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC9" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C10" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>182</v>
@@ -2361,7 +2359,7 @@
       <c r="P10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -2395,22 +2393,22 @@
         <v>181</v>
       </c>
       <c r="AB10" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC10" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C11" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>195</v>
@@ -2451,7 +2449,7 @@
       <c r="P11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -2485,42 +2483,42 @@
         <v>181</v>
       </c>
       <c r="AB11" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC11" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B12" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C12" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="8">
+        <v>421</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="J12" s="13">
         <v>44059</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -2541,7 +2539,7 @@
       <c r="P12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="14" t="s">
         <v>178</v>
       </c>
       <c r="R12" s="2" t="s">
@@ -2565,50 +2563,52 @@
       <c r="X12" s="4">
         <v>7715477510</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="8">
         <v>2262</v>
       </c>
-      <c r="Z12" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA12" s="7" t="s">
+      <c r="Z12" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA12" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AB12" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC12" s="3">
-        <v>44571</v>
-      </c>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+        <v>44659</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C13" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>209</v>
+      <c r="H13" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J13" s="5">
         <v>44166</v>
@@ -2631,7 +2631,7 @@
       <c r="P13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -2659,46 +2659,46 @@
         <v>3000</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB13" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC13" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C14" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J14" s="5">
         <v>43221</v>
@@ -2721,7 +2721,7 @@
       <c r="P14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -2749,46 +2749,46 @@
         <v>2443</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB14" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC14" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C15" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J15" s="5">
         <v>44166</v>
@@ -2811,7 +2811,7 @@
       <c r="P15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -2839,46 +2839,46 @@
         <v>2215</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB15" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC15" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD15" s="2"/>
     </row>
     <row r="16" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C16" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J16" s="5">
         <v>43739</v>
@@ -2901,7 +2901,7 @@
       <c r="P16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -2929,46 +2929,46 @@
         <v>2214</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB16" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC16" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C17" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J17" s="5">
         <v>38726</v>
@@ -2991,7 +2991,7 @@
       <c r="P17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -3019,46 +3019,46 @@
         <v>2276</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB17" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC17" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C18" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J18" s="5">
         <v>42860</v>
@@ -3081,7 +3081,7 @@
       <c r="P18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -3109,46 +3109,46 @@
         <v>2228</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB18" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC18" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C19" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J19" s="5">
         <v>39829</v>
@@ -3171,7 +3171,7 @@
       <c r="P19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -3199,46 +3199,46 @@
         <v>2221</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB19" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC19" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD19" s="2"/>
     </row>
     <row r="20" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C20" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>173</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J20" s="5">
         <v>40665</v>
@@ -3261,7 +3261,7 @@
       <c r="P20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -3289,46 +3289,46 @@
         <v>3009</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB20" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC20" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD20" s="2"/>
     </row>
     <row r="21" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C21" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J21" s="5">
         <v>38626</v>
@@ -3351,7 +3351,7 @@
       <c r="P21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -3379,46 +3379,46 @@
         <v>2223</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB21" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC21" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
     <row r="22" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C22" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J22" s="5">
         <v>41730</v>
@@ -3441,7 +3441,7 @@
       <c r="P22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -3469,46 +3469,46 @@
         <v>2479</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB22" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC22" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
     <row r="23" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C23" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J23" s="5">
         <v>39829</v>
@@ -3531,7 +3531,7 @@
       <c r="P23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3559,46 +3559,46 @@
         <v>2221</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB23" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC23" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
     <row r="24" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C24" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J24" s="5">
         <v>41944</v>
@@ -3621,7 +3621,7 @@
       <c r="P24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -3649,46 +3649,46 @@
         <v>2223</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AA24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB24" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC24" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD24" s="2"/>
     </row>
     <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C25" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J25" s="5">
         <v>41883</v>
@@ -3711,7 +3711,7 @@
       <c r="P25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -3739,46 +3739,46 @@
         <v>2252</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AA25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB25" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC25" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD25" s="2"/>
     </row>
     <row r="26" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C26" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J26" s="5">
         <v>43719</v>
@@ -3801,7 +3801,7 @@
       <c r="P26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -3829,46 +3829,46 @@
         <v>2343</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AA26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB26" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC26" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
     <row r="27" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C27" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>197</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J27" s="5">
         <v>44120</v>
@@ -3891,7 +3891,7 @@
       <c r="P27" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -3919,43 +3919,43 @@
         <v>2528</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AA27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB27" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC27" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD27" s="2"/>
     </row>
     <row r="28" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C28" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>174</v>
@@ -3981,7 +3981,7 @@
       <c r="P28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q28" s="13" t="s">
+      <c r="Q28" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -4009,46 +4009,46 @@
         <v>2381</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB28" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC28" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD28" s="2"/>
     </row>
     <row r="29" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C29" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J29" s="5">
         <v>44440</v>
@@ -4071,7 +4071,7 @@
       <c r="P29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R29" s="2" t="s">
@@ -4099,43 +4099,43 @@
         <v>2214</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AA29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB29" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC29" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD29" s="2"/>
     </row>
     <row r="30" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C30" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>187</v>
@@ -4161,7 +4161,7 @@
       <c r="P30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="Q30" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R30" s="2" t="s">
@@ -4189,46 +4189,46 @@
         <v>2279</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AA30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB30" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC30" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C31" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J31" s="5">
         <v>37865</v>
@@ -4251,7 +4251,7 @@
       <c r="P31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -4279,46 +4279,46 @@
         <v>2503</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB31" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC31" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C32" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
@@ -4341,7 +4341,7 @@
       <c r="P32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R32" s="2" t="s">
@@ -4369,46 +4369,46 @@
         <v>2503</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AA32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB32" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC32" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C33" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
@@ -4431,7 +4431,7 @@
       <c r="P33" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -4459,46 +4459,46 @@
         <v>2503</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB33" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC33" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C34" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
@@ -4521,7 +4521,7 @@
       <c r="P34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -4549,43 +4549,43 @@
         <v>2503</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB34" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC34" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C35" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>193</v>
@@ -4611,7 +4611,7 @@
       <c r="P35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -4639,46 +4639,46 @@
         <v>2210</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB35" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC35" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C36" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>291</v>
+        <v>44651</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
@@ -4701,7 +4701,7 @@
       <c r="P36" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="Q36" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R36" s="2" t="s">
@@ -4729,46 +4729,46 @@
         <v>2265</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AA36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB36" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC36" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD36" s="2"/>
     </row>
-    <row r="37" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C37" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D37" s="11" t="s">
+        <v>44651</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="I37" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J37" s="5">
         <v>40756</v>
@@ -4791,7 +4791,7 @@
       <c r="P37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q37" s="13" t="s">
+      <c r="Q37" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -4819,43 +4819,43 @@
         <v>2274</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AA37" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB37" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC37" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD37" s="2"/>
     </row>
     <row r="38" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C38" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>174</v>
@@ -4881,7 +4881,7 @@
       <c r="P38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q38" s="13" t="s">
+      <c r="Q38" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -4909,43 +4909,43 @@
         <v>2824</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB38" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC38" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD38" s="2"/>
     </row>
-    <row r="39" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C39" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D39" s="11" t="s">
+        <v>44651</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>174</v>
@@ -4971,7 +4971,7 @@
       <c r="P39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="Q39" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R39" s="2" t="s">
@@ -4999,46 +4999,46 @@
         <v>2205</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AA39" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB39" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC39" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD39" s="2"/>
     </row>
-    <row r="40" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C40" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J40" s="5">
         <v>40452</v>
@@ -5061,7 +5061,7 @@
       <c r="P40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="Q40" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R40" s="2" t="s">
@@ -5089,136 +5089,136 @@
         <v>2300</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AA40" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB40" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC40" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="1:30" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>2021</v>
-      </c>
-      <c r="B41" s="15">
-        <v>44470</v>
-      </c>
-      <c r="C41" s="15">
-        <v>44561</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J41" s="8">
+    <row r="41" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" s="5">
         <v>44516</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M41" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="O41" s="14" t="s">
+      <c r="M41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P41" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q41" s="17" t="s">
+      <c r="P41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q41" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="R41" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="S41" s="14">
+      <c r="R41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S41" s="2">
         <v>83</v>
       </c>
-      <c r="T41" s="14" t="s">
+      <c r="T41" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="U41" s="14">
+      <c r="U41" s="2">
         <v>13</v>
       </c>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="2">
         <v>43830</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="4">
         <v>7715477510</v>
       </c>
-      <c r="Y41" s="7">
+      <c r="Y41" s="4">
         <v>2443</v>
       </c>
-      <c r="Z41" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA41" s="7" t="s">
+      <c r="Z41" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA41" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AB41" s="15">
-        <v>44571</v>
-      </c>
-      <c r="AC41" s="15">
-        <v>44571</v>
-      </c>
-      <c r="AD41" s="14"/>
-    </row>
-    <row r="42" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="AB41" s="3">
+        <v>44659</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>44659</v>
+      </c>
+      <c r="AD41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C42" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>322</v>
+        <v>344</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
@@ -5241,7 +5241,7 @@
       <c r="P42" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q42" s="13" t="s">
+      <c r="Q42" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R42" s="2" t="s">
@@ -5269,43 +5269,43 @@
         <v>2215</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AA42" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB42" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC42" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD42" s="2"/>
     </row>
     <row r="43" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C43" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G43" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>355</v>
+      <c r="H43" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>199</v>
@@ -5331,7 +5331,7 @@
       <c r="P43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q43" s="13" t="s">
+      <c r="Q43" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R43" s="2" t="s">
@@ -5359,43 +5359,43 @@
         <v>2230</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB43" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC43" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C44" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>199</v>
@@ -5421,7 +5421,7 @@
       <c r="P44" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q44" s="13" t="s">
+      <c r="Q44" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -5449,45 +5449,45 @@
         <v>2493</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AA44" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB44" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC44" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C45" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I45" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J45" s="5">
@@ -5511,7 +5511,7 @@
       <c r="P45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q45" s="13" t="s">
+      <c r="Q45" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R45" s="2" t="s">
@@ -5539,45 +5539,45 @@
         <v>2204</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AA45" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB45" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC45" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C46" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H46" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="F46" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J46" s="5">
@@ -5601,7 +5601,7 @@
       <c r="P46" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q46" s="13" t="s">
+      <c r="Q46" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -5629,45 +5629,45 @@
         <v>2259</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AA46" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB46" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC46" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD46" s="2"/>
     </row>
     <row r="47" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C47" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H47" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J47" s="5">
@@ -5691,7 +5691,7 @@
       <c r="P47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q47" s="13" t="s">
+      <c r="Q47" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R47" s="2" t="s">
@@ -5719,45 +5719,45 @@
         <v>2450</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB47" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC47" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD47" s="2"/>
     </row>
-    <row r="48" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C48" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H48" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J48" s="5">
@@ -5781,7 +5781,7 @@
       <c r="P48" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q48" s="13" t="s">
+      <c r="Q48" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R48" s="2" t="s">
@@ -5809,45 +5809,45 @@
         <v>2311</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB48" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC48" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD48" s="2"/>
     </row>
-    <row r="49" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C49" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>425</v>
+        <v>44651</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J49" s="5">
@@ -5871,7 +5871,7 @@
       <c r="P49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q49" s="13" t="s">
+      <c r="Q49" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R49" s="2" t="s">
@@ -5899,45 +5899,45 @@
         <v>2316</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB49" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC49" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C50" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="H50" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J50" s="5">
@@ -5961,7 +5961,7 @@
       <c r="P50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q50" s="13" t="s">
+      <c r="Q50" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R50" s="2" t="s">
@@ -5989,43 +5989,43 @@
         <v>2401</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AA50" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB50" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC50" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C51" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>193</v>
@@ -6051,7 +6051,7 @@
       <c r="P51" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q51" s="13" t="s">
+      <c r="Q51" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -6079,43 +6079,43 @@
         <v>2210</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB51" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC51" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C52" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>193</v>
@@ -6141,7 +6141,7 @@
       <c r="P52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q52" s="13" t="s">
+      <c r="Q52" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -6169,49 +6169,49 @@
         <v>2227</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB52" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC52" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD52" s="2"/>
     </row>
     <row r="53" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C53" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>193</v>
       </c>
       <c r="J53" s="5">
-        <v>44271</v>
+        <v>44636</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>74</v>
@@ -6231,7 +6231,7 @@
       <c r="P53" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q53" s="13" t="s">
+      <c r="Q53" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R53" s="2" t="s">
@@ -6259,43 +6259,43 @@
         <v>2253</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA53" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB53" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC53" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C54" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>193</v>
@@ -6321,7 +6321,7 @@
       <c r="P54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q54" s="13" t="s">
+      <c r="Q54" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R54" s="2" t="s">
@@ -6349,43 +6349,43 @@
         <v>2231</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AA54" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB54" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC54" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C55" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>193</v>
@@ -6411,7 +6411,7 @@
       <c r="P55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q55" s="13" t="s">
+      <c r="Q55" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -6437,43 +6437,43 @@
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA55" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB55" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC55" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C56" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>193</v>
@@ -6499,7 +6499,7 @@
       <c r="P56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="Q56" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R56" s="2" t="s">
@@ -6527,43 +6527,43 @@
         <v>3006</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AA56" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB56" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC56" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C57" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>236</v>
+        <v>405</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>268</v>
+        <v>406</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>193</v>
@@ -6589,7 +6589,7 @@
       <c r="P57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q57" s="13" t="s">
+      <c r="Q57" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -6617,43 +6617,43 @@
         <v>2218</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA57" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB57" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC57" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD57" s="2"/>
     </row>
     <row r="58" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C58" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>193</v>
@@ -6679,7 +6679,7 @@
       <c r="P58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q58" s="13" t="s">
+      <c r="Q58" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R58" s="2" t="s">
@@ -6707,46 +6707,46 @@
         <v>2217</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA58" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB58" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC58" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C59" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="I59" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
@@ -6769,7 +6769,7 @@
       <c r="P59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q59" s="13" t="s">
+      <c r="Q59" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R59" s="2" t="s">
@@ -6797,46 +6797,46 @@
         <v>2213</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA59" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB59" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC59" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C60" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>333</v>
+        <v>44651</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="I60" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
@@ -6859,7 +6859,7 @@
       <c r="P60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q60" s="13" t="s">
+      <c r="Q60" s="11" t="s">
         <v>178</v>
       </c>
       <c r="R60" s="2" t="s">
@@ -6887,16 +6887,16 @@
         <v>2233</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA60" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB60" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AC60" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="AD60" s="2"/>
     </row>
@@ -6911,13 +6911,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K119">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K60">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O119">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O60">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V119">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V60">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
@@ -6925,56 +6925,56 @@
     <hyperlink ref="Z8" r:id="rId1"/>
     <hyperlink ref="Z9" r:id="rId2"/>
     <hyperlink ref="Z10" r:id="rId3"/>
-    <hyperlink ref="Z12" r:id="rId4"/>
-    <hyperlink ref="Z13" r:id="rId5"/>
-    <hyperlink ref="Z14" r:id="rId6"/>
-    <hyperlink ref="Z15" r:id="rId7"/>
-    <hyperlink ref="Z16" r:id="rId8"/>
-    <hyperlink ref="Z11" r:id="rId9"/>
-    <hyperlink ref="Z17" r:id="rId10"/>
-    <hyperlink ref="Z18" r:id="rId11"/>
-    <hyperlink ref="Z19" r:id="rId12"/>
-    <hyperlink ref="Z20" r:id="rId13"/>
-    <hyperlink ref="Z21" r:id="rId14"/>
-    <hyperlink ref="Z22" r:id="rId15"/>
-    <hyperlink ref="Z23" r:id="rId16"/>
-    <hyperlink ref="Z24" r:id="rId17"/>
-    <hyperlink ref="Z25" r:id="rId18"/>
-    <hyperlink ref="Z26" r:id="rId19"/>
-    <hyperlink ref="Z27" r:id="rId20"/>
-    <hyperlink ref="Z28" r:id="rId21"/>
-    <hyperlink ref="Z30" r:id="rId22"/>
-    <hyperlink ref="Z32" r:id="rId23"/>
-    <hyperlink ref="Z34" r:id="rId24"/>
-    <hyperlink ref="Z35" r:id="rId25"/>
-    <hyperlink ref="Z36" r:id="rId26"/>
-    <hyperlink ref="Z37" r:id="rId27"/>
-    <hyperlink ref="Z38" r:id="rId28"/>
-    <hyperlink ref="Z39" r:id="rId29"/>
-    <hyperlink ref="Z40" r:id="rId30"/>
-    <hyperlink ref="Z41" r:id="rId31"/>
-    <hyperlink ref="Z42" r:id="rId32"/>
-    <hyperlink ref="Z43" r:id="rId33"/>
-    <hyperlink ref="Z44" r:id="rId34"/>
-    <hyperlink ref="Z45" r:id="rId35"/>
-    <hyperlink ref="Z46" r:id="rId36"/>
-    <hyperlink ref="Z47" r:id="rId37"/>
-    <hyperlink ref="Z48" r:id="rId38"/>
-    <hyperlink ref="Z51" r:id="rId39"/>
-    <hyperlink ref="Z52" r:id="rId40"/>
-    <hyperlink ref="Z53" r:id="rId41"/>
-    <hyperlink ref="Z54" r:id="rId42"/>
-    <hyperlink ref="Z55" r:id="rId43"/>
-    <hyperlink ref="Z56" r:id="rId44"/>
-    <hyperlink ref="Z57" r:id="rId45"/>
-    <hyperlink ref="Z58" r:id="rId46"/>
-    <hyperlink ref="Z59" r:id="rId47"/>
-    <hyperlink ref="Z60" r:id="rId48"/>
-    <hyperlink ref="Z33" r:id="rId49"/>
-    <hyperlink ref="Z50" r:id="rId50"/>
-    <hyperlink ref="Z31" r:id="rId51"/>
-    <hyperlink ref="Z29" r:id="rId52"/>
-    <hyperlink ref="Z49" r:id="rId53"/>
+    <hyperlink ref="Z13" r:id="rId4"/>
+    <hyperlink ref="Z14" r:id="rId5"/>
+    <hyperlink ref="Z15" r:id="rId6"/>
+    <hyperlink ref="Z16" r:id="rId7"/>
+    <hyperlink ref="Z11" r:id="rId8"/>
+    <hyperlink ref="Z17" r:id="rId9"/>
+    <hyperlink ref="Z18" r:id="rId10"/>
+    <hyperlink ref="Z19" r:id="rId11"/>
+    <hyperlink ref="Z20" r:id="rId12"/>
+    <hyperlink ref="Z21" r:id="rId13"/>
+    <hyperlink ref="Z22" r:id="rId14"/>
+    <hyperlink ref="Z23" r:id="rId15"/>
+    <hyperlink ref="Z24" r:id="rId16"/>
+    <hyperlink ref="Z25" r:id="rId17"/>
+    <hyperlink ref="Z26" r:id="rId18"/>
+    <hyperlink ref="Z27" r:id="rId19"/>
+    <hyperlink ref="Z28" r:id="rId20"/>
+    <hyperlink ref="Z30" r:id="rId21"/>
+    <hyperlink ref="Z32" r:id="rId22"/>
+    <hyperlink ref="Z34" r:id="rId23"/>
+    <hyperlink ref="Z35" r:id="rId24"/>
+    <hyperlink ref="Z36" r:id="rId25"/>
+    <hyperlink ref="Z37" r:id="rId26"/>
+    <hyperlink ref="Z38" r:id="rId27"/>
+    <hyperlink ref="Z39" r:id="rId28"/>
+    <hyperlink ref="Z40" r:id="rId29"/>
+    <hyperlink ref="Z41" r:id="rId30"/>
+    <hyperlink ref="Z42" r:id="rId31"/>
+    <hyperlink ref="Z43" r:id="rId32"/>
+    <hyperlink ref="Z44" r:id="rId33"/>
+    <hyperlink ref="Z45" r:id="rId34"/>
+    <hyperlink ref="Z46" r:id="rId35"/>
+    <hyperlink ref="Z47" r:id="rId36"/>
+    <hyperlink ref="Z48" r:id="rId37"/>
+    <hyperlink ref="Z51" r:id="rId38"/>
+    <hyperlink ref="Z52" r:id="rId39"/>
+    <hyperlink ref="Z54" r:id="rId40"/>
+    <hyperlink ref="Z55" r:id="rId41"/>
+    <hyperlink ref="Z56" r:id="rId42"/>
+    <hyperlink ref="Z57" r:id="rId43"/>
+    <hyperlink ref="Z58" r:id="rId44"/>
+    <hyperlink ref="Z59" r:id="rId45"/>
+    <hyperlink ref="Z60" r:id="rId46"/>
+    <hyperlink ref="Z33" r:id="rId47"/>
+    <hyperlink ref="Z50" r:id="rId48"/>
+    <hyperlink ref="Z31" r:id="rId49"/>
+    <hyperlink ref="Z29" r:id="rId50"/>
+    <hyperlink ref="Z49" r:id="rId51"/>
+    <hyperlink ref="Z53" r:id="rId52"/>
+    <hyperlink ref="Z12" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-60" windowWidth="15600" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="469">
   <si>
     <t>44220</t>
   </si>
@@ -660,9 +660,6 @@
     <t>Directora de Logística</t>
   </si>
   <si>
-    <t>Por designar</t>
-  </si>
-  <si>
     <t>Dirección de Logística</t>
   </si>
   <si>
@@ -879,18 +876,6 @@
     <t>Subdirector de Comunicación Social</t>
   </si>
   <si>
-    <t>Carlos Ernesto</t>
-  </si>
-  <si>
-    <t>Cadena</t>
-  </si>
-  <si>
-    <t>Vizcaya</t>
-  </si>
-  <si>
-    <t>ccadena@upp.edu.mx</t>
-  </si>
-  <si>
     <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
   </si>
   <si>
@@ -900,9 +885,6 @@
     <t>Pérez</t>
   </si>
   <si>
-    <t>gestioneducativa@upp.edu.mx</t>
-  </si>
-  <si>
     <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
   </si>
   <si>
@@ -987,15 +969,6 @@
     <t>calidad@upp.edu.mx</t>
   </si>
   <si>
-    <t>Subdirector de Planeación y Presupuesto</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Lozano</t>
-  </si>
-  <si>
     <t>presupuesto@upp.edu.mx</t>
   </si>
   <si>
@@ -1134,15 +1107,6 @@
     <t>internacionalizacion@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe del Departamento de Educación a Distancia</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Velázquez</t>
-  </si>
-  <si>
     <t>adistancia@upp.edu.mx</t>
   </si>
   <si>
@@ -1290,22 +1254,181 @@
     <t>Titular del Órgano Interno de Control</t>
   </si>
   <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>Cortés</t>
-  </si>
-  <si>
-    <t>Montaño</t>
-  </si>
-  <si>
     <t>Órgano Interno de Control</t>
   </si>
   <si>
-    <t>crystycortes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría.</t>
+    <t>Sergio Armando</t>
+  </si>
+  <si>
+    <t>Cisneros</t>
+  </si>
+  <si>
+    <t>Encargado de la Subdirección de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Jefa del Departamento de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Mayeli</t>
+  </si>
+  <si>
+    <t>Baños</t>
+  </si>
+  <si>
+    <t>Jefe de Oficina B</t>
+  </si>
+  <si>
+    <t>Jefe de Oficina A</t>
+  </si>
+  <si>
+    <t>Técnico General</t>
+  </si>
+  <si>
+    <t>Jefe de Oficina C</t>
+  </si>
+  <si>
+    <t>08 B</t>
+  </si>
+  <si>
+    <t>08 A</t>
+  </si>
+  <si>
+    <t>08 C</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Samanta del Carmen</t>
+  </si>
+  <si>
+    <t>Carpio</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Marcos Nathaniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizalde </t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Teresa de Jesus</t>
+  </si>
+  <si>
+    <t>Ana Graciela</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Monzalvo</t>
+  </si>
+  <si>
+    <t>Palay</t>
+  </si>
+  <si>
+    <t>Infante</t>
+  </si>
+  <si>
+    <t>Celia Marlen</t>
+  </si>
+  <si>
+    <t>Tania Perla</t>
+  </si>
+  <si>
+    <t>Rangel</t>
+  </si>
+  <si>
+    <t>Avila</t>
+  </si>
+  <si>
+    <t>Landero</t>
+  </si>
+  <si>
+    <t>Blanca Rocío Aurora</t>
+  </si>
+  <si>
+    <t>Yajaide</t>
+  </si>
+  <si>
+    <t>Alarcón</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Galvez</t>
+  </si>
+  <si>
+    <t>Almaraz</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Karla Marina</t>
+  </si>
+  <si>
+    <t>Gilberto Eden</t>
+  </si>
+  <si>
+    <t>Guillermina</t>
+  </si>
+  <si>
+    <t>Alexandra Maydel</t>
+  </si>
+  <si>
+    <t>Aquino</t>
+  </si>
+  <si>
+    <t>Samperio</t>
+  </si>
+  <si>
+    <t>alexandra_aquino@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Analista Especializado</t>
+  </si>
+  <si>
+    <t>Del Valle</t>
+  </si>
+  <si>
+    <t>Lizbeth Mariana</t>
+  </si>
+  <si>
+    <t>Benítez</t>
+  </si>
+  <si>
+    <t>mariana.delvalle@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>gmendoza@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022.</t>
+  </si>
+  <si>
+    <t>Pendiente por designar</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1446,6 +1569,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,9 +1597,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1741,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD60"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,8 +1895,8 @@
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
@@ -1787,38 +1925,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:30" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1848,7 +1986,7 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="K4" t="s">
@@ -1940,7 +2078,7 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
@@ -2005,38 +2143,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2066,7 +2204,7 @@
       <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2135,10 +2273,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -2213,10 +2351,10 @@
         <v>181</v>
       </c>
       <c r="AB8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
@@ -2225,10 +2363,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>182</v>
@@ -2303,10 +2441,10 @@
         <v>181</v>
       </c>
       <c r="AB9" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC9" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
@@ -2315,10 +2453,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>182</v>
@@ -2393,10 +2531,10 @@
         <v>181</v>
       </c>
       <c r="AB10" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC10" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
@@ -2405,10 +2543,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>195</v>
@@ -2483,10 +2621,10 @@
         <v>181</v>
       </c>
       <c r="AB11" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC11" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD11" s="2"/>
     </row>
@@ -2495,32 +2633,24 @@
         <v>2022</v>
       </c>
       <c r="B12" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C12" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>424</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="J12" s="13">
-        <v>44059</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="2" t="s">
         <v>74</v>
       </c>
@@ -2566,20 +2696,18 @@
       <c r="Y12" s="8">
         <v>2262</v>
       </c>
-      <c r="Z12" s="15" t="s">
-        <v>426</v>
-      </c>
+      <c r="Z12" s="15"/>
       <c r="AA12" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AB12" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="AD12" s="21" t="s">
-        <v>427</v>
+        <v>44753</v>
+      </c>
+      <c r="AD12" s="20" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -2587,10 +2715,10 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>195</v>
@@ -2656,7 +2784,7 @@
         <v>7715477510</v>
       </c>
       <c r="Y13" s="4">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Z13" s="6" t="s">
         <v>205</v>
@@ -2665,10 +2793,10 @@
         <v>181</v>
       </c>
       <c r="AB13" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC13" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD13" s="2"/>
     </row>
@@ -2677,10 +2805,10 @@
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>195</v>
@@ -2755,10 +2883,10 @@
         <v>181</v>
       </c>
       <c r="AB14" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC14" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD14" s="2"/>
     </row>
@@ -2767,10 +2895,10 @@
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C15" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>195</v>
@@ -2779,19 +2907,19 @@
         <v>211</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="J15" s="5">
-        <v>44166</v>
+        <v>44682</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>74</v>
@@ -2839,16 +2967,16 @@
         <v>2215</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB15" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC15" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD15" s="2"/>
     </row>
@@ -2857,28 +2985,28 @@
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C16" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="J16" s="5">
         <v>43739</v>
@@ -2929,16 +3057,16 @@
         <v>2214</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB16" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC16" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD16" s="2"/>
     </row>
@@ -2947,28 +3075,28 @@
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C17" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="J17" s="5">
         <v>38726</v>
@@ -3019,16 +3147,16 @@
         <v>2276</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB17" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC17" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD17" s="2"/>
     </row>
@@ -3037,28 +3165,28 @@
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="J18" s="5">
         <v>42860</v>
@@ -3109,16 +3237,16 @@
         <v>2228</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB18" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC18" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD18" s="2"/>
     </row>
@@ -3127,28 +3255,28 @@
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C19" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="J19" s="5">
         <v>39829</v>
@@ -3199,16 +3327,16 @@
         <v>2221</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB19" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC19" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD19" s="2"/>
     </row>
@@ -3217,28 +3345,28 @@
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>173</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J20" s="5">
         <v>40665</v>
@@ -3289,16 +3417,16 @@
         <v>3009</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB20" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC20" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD20" s="2"/>
     </row>
@@ -3307,28 +3435,28 @@
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C21" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="J21" s="5">
         <v>38626</v>
@@ -3379,16 +3507,16 @@
         <v>2223</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB21" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC21" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
@@ -3397,28 +3525,28 @@
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C22" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="J22" s="5">
         <v>41730</v>
@@ -3469,16 +3597,16 @@
         <v>2479</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB22" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC22" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
@@ -3487,28 +3615,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C23" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>173</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J23" s="5">
         <v>39829</v>
@@ -3559,16 +3687,16 @@
         <v>2221</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB23" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC23" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
@@ -3577,28 +3705,28 @@
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C24" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="J24" s="5">
         <v>41944</v>
@@ -3649,16 +3777,16 @@
         <v>2223</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB24" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC24" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD24" s="2"/>
     </row>
@@ -3667,28 +3795,28 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C25" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="J25" s="5">
         <v>41883</v>
@@ -3739,16 +3867,16 @@
         <v>2252</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB25" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC25" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD25" s="2"/>
     </row>
@@ -3757,28 +3885,28 @@
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C26" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="J26" s="5">
         <v>43719</v>
@@ -3829,16 +3957,16 @@
         <v>2343</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB26" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC26" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
@@ -3847,28 +3975,28 @@
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C27" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>197</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="J27" s="5">
         <v>44120</v>
@@ -3919,16 +4047,16 @@
         <v>2528</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB27" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC27" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD27" s="2"/>
     </row>
@@ -3937,22 +4065,22 @@
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C28" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>208</v>
@@ -4009,16 +4137,16 @@
         <v>2381</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB28" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC28" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD28" s="2"/>
     </row>
@@ -4027,32 +4155,24 @@
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C29" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>287</v>
-      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" s="5">
-        <v>44440</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="J29" s="5"/>
       <c r="K29" s="2" t="s">
         <v>74</v>
       </c>
@@ -4098,51 +4218,43 @@
       <c r="Y29" s="4">
         <v>2214</v>
       </c>
-      <c r="Z29" s="6" t="s">
-        <v>288</v>
-      </c>
+      <c r="Z29" s="6"/>
       <c r="AA29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB29" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC29" s="3">
-        <v>44659</v>
-      </c>
-      <c r="AD29" s="2"/>
+        <v>44753</v>
+      </c>
+      <c r="AD29" s="21" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="30" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C30" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>291</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J30" s="5">
-        <v>41655</v>
-      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="2" t="s">
         <v>74</v>
       </c>
@@ -4188,47 +4300,47 @@
       <c r="Y30" s="4">
         <v>2279</v>
       </c>
-      <c r="Z30" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="Z30" s="6"/>
       <c r="AA30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB30" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC30" s="3">
-        <v>44659</v>
-      </c>
-      <c r="AD30" s="2"/>
+        <v>44753</v>
+      </c>
+      <c r="AD30" s="21" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="31" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C31" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J31" s="5">
         <v>37865</v>
@@ -4279,16 +4391,16 @@
         <v>2503</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB31" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC31" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD31" s="2"/>
     </row>
@@ -4297,28 +4409,28 @@
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C32" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
@@ -4369,16 +4481,16 @@
         <v>2503</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AA32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB32" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC32" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD32" s="2"/>
     </row>
@@ -4387,28 +4499,28 @@
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C33" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
@@ -4459,16 +4571,16 @@
         <v>2503</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB33" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC33" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD33" s="2"/>
     </row>
@@ -4477,28 +4589,28 @@
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C34" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
@@ -4549,16 +4661,16 @@
         <v>2503</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB34" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC34" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD34" s="2"/>
     </row>
@@ -4567,25 +4679,25 @@
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C35" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>193</v>
@@ -4639,16 +4751,16 @@
         <v>2210</v>
       </c>
       <c r="Z35" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB35" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC35" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD35" s="2"/>
     </row>
@@ -4657,28 +4769,28 @@
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C36" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
@@ -4729,16 +4841,16 @@
         <v>2265</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AA36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB36" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC36" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD36" s="2"/>
     </row>
@@ -4747,31 +4859,31 @@
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C37" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J37" s="5">
-        <v>40756</v>
+        <v>44728</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>74</v>
@@ -4819,16 +4931,16 @@
         <v>2274</v>
       </c>
       <c r="Z37" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AA37" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB37" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC37" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD37" s="2"/>
     </row>
@@ -4837,25 +4949,25 @@
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C38" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>174</v>
@@ -4909,16 +5021,16 @@
         <v>2824</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB38" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC38" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD38" s="2"/>
     </row>
@@ -4927,25 +5039,25 @@
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C39" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>174</v>
@@ -4999,16 +5111,16 @@
         <v>2205</v>
       </c>
       <c r="Z39" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AA39" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB39" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC39" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD39" s="2"/>
     </row>
@@ -5017,25 +5129,25 @@
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C40" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>204</v>
@@ -5089,16 +5201,16 @@
         <v>2300</v>
       </c>
       <c r="Z40" s="6" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AA40" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB40" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC40" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD40" s="2"/>
     </row>
@@ -5107,25 +5219,25 @@
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C41" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>325</v>
+        <v>44742</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>206</v>
@@ -5185,10 +5297,10 @@
         <v>181</v>
       </c>
       <c r="AB41" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC41" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD41" s="2"/>
     </row>
@@ -5197,28 +5309,28 @@
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C42" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
@@ -5269,16 +5381,16 @@
         <v>2215</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AA42" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB42" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC42" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD42" s="2"/>
     </row>
@@ -5287,25 +5399,25 @@
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C43" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>192</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>199</v>
@@ -5359,16 +5471,16 @@
         <v>2230</v>
       </c>
       <c r="Z43" s="6" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB43" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC43" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD43" s="2"/>
     </row>
@@ -5377,25 +5489,25 @@
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C44" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>199</v>
@@ -5449,16 +5561,16 @@
         <v>2493</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AA44" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB44" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC44" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD44" s="2"/>
     </row>
@@ -5467,22 +5579,22 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C45" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>203</v>
@@ -5539,16 +5651,16 @@
         <v>2204</v>
       </c>
       <c r="Z45" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AA45" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB45" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC45" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD45" s="2"/>
     </row>
@@ -5557,25 +5669,25 @@
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C46" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>187</v>
@@ -5629,16 +5741,16 @@
         <v>2259</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AA46" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB46" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC46" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD46" s="2"/>
     </row>
@@ -5647,22 +5759,22 @@
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C47" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>185</v>
@@ -5719,16 +5831,16 @@
         <v>2450</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB47" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC47" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD47" s="2"/>
     </row>
@@ -5737,22 +5849,22 @@
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C48" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>185</v>
@@ -5809,16 +5921,16 @@
         <v>2311</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB48" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC48" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD48" s="2"/>
     </row>
@@ -5827,31 +5939,31 @@
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C49" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J49" s="5">
-        <v>44516</v>
+        <v>44713</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>74</v>
@@ -5899,16 +6011,16 @@
         <v>2316</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB49" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC49" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD49" s="2"/>
     </row>
@@ -5917,25 +6029,25 @@
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C50" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>187</v>
@@ -5989,16 +6101,16 @@
         <v>2401</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AA50" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB50" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC50" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD50" s="2"/>
     </row>
@@ -6007,25 +6119,25 @@
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C51" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>193</v>
@@ -6079,16 +6191,16 @@
         <v>2210</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB51" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC51" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD51" s="2"/>
     </row>
@@ -6097,25 +6209,25 @@
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C52" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>193</v>
@@ -6169,16 +6281,16 @@
         <v>2227</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB52" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC52" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD52" s="2"/>
     </row>
@@ -6187,25 +6299,25 @@
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C53" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>193</v>
@@ -6259,16 +6371,16 @@
         <v>2253</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AA53" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB53" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC53" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD53" s="2"/>
     </row>
@@ -6277,25 +6389,25 @@
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C54" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>193</v>
@@ -6349,16 +6461,16 @@
         <v>2231</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="AA54" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB54" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC54" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD54" s="2"/>
     </row>
@@ -6367,25 +6479,25 @@
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C55" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>193</v>
@@ -6437,16 +6549,16 @@
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AA55" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB55" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC55" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD55" s="2"/>
     </row>
@@ -6455,25 +6567,25 @@
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C56" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>193</v>
@@ -6527,16 +6639,16 @@
         <v>3006</v>
       </c>
       <c r="Z56" s="6" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="AA56" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB56" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC56" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD56" s="2"/>
     </row>
@@ -6545,25 +6657,25 @@
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C57" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>193</v>
@@ -6617,16 +6729,16 @@
         <v>2218</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AA57" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB57" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC57" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD57" s="2"/>
     </row>
@@ -6635,25 +6747,25 @@
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C58" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>193</v>
@@ -6707,16 +6819,16 @@
         <v>2217</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AA58" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB58" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC58" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD58" s="2"/>
     </row>
@@ -6725,28 +6837,28 @@
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C59" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>203</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
@@ -6797,16 +6909,16 @@
         <v>2213</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AA59" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB59" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC59" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD59" s="2"/>
     </row>
@@ -6815,28 +6927,28 @@
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C60" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
@@ -6887,18 +6999,1375 @@
         <v>2233</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="AA60" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB60" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AC60" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="AD60" s="2"/>
+    </row>
+    <row r="61" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J61" s="3">
+        <v>42402</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S61" s="2">
+        <v>83</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U61" s="2">
+        <v>13</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W61" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X61" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>2200</v>
+      </c>
+      <c r="Z61" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD61" s="2"/>
+    </row>
+    <row r="62" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J62" s="3">
+        <v>39295</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S62" s="2">
+        <v>83</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U62" s="2">
+        <v>13</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W62" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X62" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>2213</v>
+      </c>
+      <c r="Z62" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD62" s="2"/>
+    </row>
+    <row r="63" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" s="3">
+        <v>39494</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S63" s="2">
+        <v>83</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U63" s="2">
+        <v>13</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W63" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X63" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>2213</v>
+      </c>
+      <c r="Z63" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD63" s="2"/>
+    </row>
+    <row r="64" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J64" s="3">
+        <v>41277</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S64" s="2">
+        <v>83</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U64" s="2">
+        <v>13</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W64" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X64" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>2213</v>
+      </c>
+      <c r="Z64" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA64" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD64" s="2"/>
+    </row>
+    <row r="65" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J65" s="3">
+        <v>42037</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S65" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U65" s="2">
+        <v>13</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W65" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X65" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>2213</v>
+      </c>
+      <c r="Z65" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA65" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD65" s="2"/>
+    </row>
+    <row r="66" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J66" s="3">
+        <v>38596</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q66" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S66" s="2">
+        <v>83</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U66" s="2">
+        <v>13</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W66" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X66" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>2213</v>
+      </c>
+      <c r="Z66" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA66" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD66" s="2"/>
+    </row>
+    <row r="67" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J67" s="3">
+        <v>43222</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q67" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S67" s="2">
+        <v>83</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U67" s="2">
+        <v>13</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W67" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X67" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>2213</v>
+      </c>
+      <c r="Z67" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA67" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB67" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD67" s="2"/>
+    </row>
+    <row r="68" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J68" s="3">
+        <v>42914</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S68" s="2">
+        <v>83</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U68" s="2">
+        <v>13</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W68" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X68" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y68" s="4">
+        <v>2213</v>
+      </c>
+      <c r="Z68" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA68" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD68" s="2"/>
+    </row>
+    <row r="69" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J69" s="3">
+        <v>38838</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S69" s="2">
+        <v>83</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U69" s="2">
+        <v>13</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W69" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X69" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y69" s="8">
+        <v>2300</v>
+      </c>
+      <c r="Z69" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="17"/>
+    </row>
+    <row r="70" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J70" s="3">
+        <v>44682</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S70" s="2">
+        <v>83</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U70" s="2">
+        <v>13</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W70" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X70" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y70" s="8">
+        <v>2300</v>
+      </c>
+      <c r="Z70" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="17"/>
+    </row>
+    <row r="71" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J71" s="3">
+        <v>44203</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S71" s="2">
+        <v>83</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U71" s="2">
+        <v>13</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W71" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X71" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y71" s="8">
+        <v>2300</v>
+      </c>
+      <c r="Z71" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA71" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="17"/>
+    </row>
+    <row r="72" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J72" s="3">
+        <v>43540</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S72" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U72" s="2">
+        <v>13</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W72" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X72" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y72" s="8">
+        <v>2300</v>
+      </c>
+      <c r="Z72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA72" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="17"/>
+    </row>
+    <row r="73" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J73" s="3">
+        <v>43633</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S73" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U73" s="2">
+        <v>13</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W73" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X73" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y73" s="8">
+        <v>2279</v>
+      </c>
+      <c r="Z73" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA73" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="17"/>
+    </row>
+    <row r="74" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J74" s="3">
+        <v>40940</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q74" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S74" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U74" s="2">
+        <v>13</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W74" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X74" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y74" s="8">
+        <v>2210</v>
+      </c>
+      <c r="Z74" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA74" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="17"/>
+    </row>
+    <row r="75" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C75" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J75" s="3">
+        <v>41277</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q75" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S75" s="2">
+        <v>83</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U75" s="2">
+        <v>13</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W75" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X75" s="4">
+        <v>7715477510</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>2259</v>
+      </c>
+      <c r="Z75" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA75" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6911,13 +8380,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K75">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O75">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V60">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V75">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
@@ -6942,39 +8411,44 @@
     <hyperlink ref="Z26" r:id="rId18"/>
     <hyperlink ref="Z27" r:id="rId19"/>
     <hyperlink ref="Z28" r:id="rId20"/>
-    <hyperlink ref="Z30" r:id="rId21"/>
-    <hyperlink ref="Z32" r:id="rId22"/>
-    <hyperlink ref="Z34" r:id="rId23"/>
-    <hyperlink ref="Z35" r:id="rId24"/>
-    <hyperlink ref="Z36" r:id="rId25"/>
-    <hyperlink ref="Z37" r:id="rId26"/>
-    <hyperlink ref="Z38" r:id="rId27"/>
-    <hyperlink ref="Z39" r:id="rId28"/>
-    <hyperlink ref="Z40" r:id="rId29"/>
-    <hyperlink ref="Z41" r:id="rId30"/>
-    <hyperlink ref="Z42" r:id="rId31"/>
-    <hyperlink ref="Z43" r:id="rId32"/>
-    <hyperlink ref="Z44" r:id="rId33"/>
-    <hyperlink ref="Z45" r:id="rId34"/>
-    <hyperlink ref="Z46" r:id="rId35"/>
-    <hyperlink ref="Z47" r:id="rId36"/>
-    <hyperlink ref="Z48" r:id="rId37"/>
-    <hyperlink ref="Z51" r:id="rId38"/>
-    <hyperlink ref="Z52" r:id="rId39"/>
-    <hyperlink ref="Z54" r:id="rId40"/>
-    <hyperlink ref="Z55" r:id="rId41"/>
-    <hyperlink ref="Z56" r:id="rId42"/>
-    <hyperlink ref="Z57" r:id="rId43"/>
-    <hyperlink ref="Z58" r:id="rId44"/>
-    <hyperlink ref="Z59" r:id="rId45"/>
-    <hyperlink ref="Z60" r:id="rId46"/>
-    <hyperlink ref="Z33" r:id="rId47"/>
-    <hyperlink ref="Z50" r:id="rId48"/>
-    <hyperlink ref="Z31" r:id="rId49"/>
-    <hyperlink ref="Z29" r:id="rId50"/>
-    <hyperlink ref="Z49" r:id="rId51"/>
-    <hyperlink ref="Z53" r:id="rId52"/>
-    <hyperlink ref="Z12" r:id="rId53"/>
+    <hyperlink ref="Z32" r:id="rId21"/>
+    <hyperlink ref="Z34" r:id="rId22"/>
+    <hyperlink ref="Z35" r:id="rId23"/>
+    <hyperlink ref="Z36" r:id="rId24"/>
+    <hyperlink ref="Z37" r:id="rId25"/>
+    <hyperlink ref="Z38" r:id="rId26"/>
+    <hyperlink ref="Z39" r:id="rId27"/>
+    <hyperlink ref="Z40" r:id="rId28"/>
+    <hyperlink ref="Z41" r:id="rId29"/>
+    <hyperlink ref="Z42" r:id="rId30"/>
+    <hyperlink ref="Z43" r:id="rId31"/>
+    <hyperlink ref="Z44" r:id="rId32"/>
+    <hyperlink ref="Z45" r:id="rId33"/>
+    <hyperlink ref="Z46" r:id="rId34"/>
+    <hyperlink ref="Z47" r:id="rId35"/>
+    <hyperlink ref="Z48" r:id="rId36"/>
+    <hyperlink ref="Z51" r:id="rId37"/>
+    <hyperlink ref="Z52" r:id="rId38"/>
+    <hyperlink ref="Z54" r:id="rId39"/>
+    <hyperlink ref="Z55" r:id="rId40"/>
+    <hyperlink ref="Z56" r:id="rId41"/>
+    <hyperlink ref="Z57" r:id="rId42"/>
+    <hyperlink ref="Z58" r:id="rId43"/>
+    <hyperlink ref="Z59" r:id="rId44"/>
+    <hyperlink ref="Z60" r:id="rId45"/>
+    <hyperlink ref="Z33" r:id="rId46"/>
+    <hyperlink ref="Z50" r:id="rId47"/>
+    <hyperlink ref="Z31" r:id="rId48"/>
+    <hyperlink ref="Z49" r:id="rId49"/>
+    <hyperlink ref="Z53" r:id="rId50"/>
+    <hyperlink ref="Z61" r:id="rId51"/>
+    <hyperlink ref="Z62" r:id="rId52"/>
+    <hyperlink ref="Z63:Z68" r:id="rId53" display="servescolares@upp.edu.mx"/>
+    <hyperlink ref="Z69" r:id="rId54"/>
+    <hyperlink ref="Z70:Z72" r:id="rId55" display="dir.vinculacion@upp.edu.mx"/>
+    <hyperlink ref="Z73" r:id="rId56"/>
+    <hyperlink ref="Z74" r:id="rId57"/>
+    <hyperlink ref="Z75" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF772EB4-B580-4686-B758-7932D16756C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <definedName name="Hidden_214">Hidden_2!$A$1:$A$41</definedName>
     <definedName name="Hidden_321">Hidden_3!$A$1:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="418">
   <si>
     <t>44220</t>
   </si>
@@ -570,871 +576,718 @@
     <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
   <si>
+    <t>Secretario Académico</t>
+  </si>
+  <si>
+    <t>Josúe Román</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>Mireles</t>
+  </si>
+  <si>
+    <t>Secretaría Académica</t>
+  </si>
+  <si>
+    <t>secretariaacademica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Secretario Administativo</t>
+  </si>
+  <si>
+    <t>Jorge Alfredo</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Secretaría Administrativa</t>
+  </si>
+  <si>
+    <t>administracion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de la División de Estudios Profesionales</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Márquez</t>
+  </si>
+  <si>
+    <t>Dirección de la División de Estudios Profesionales</t>
+  </si>
+  <si>
+    <t>divisiondeestudios@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Titular del Órgano Interno de Control</t>
+  </si>
+  <si>
+    <t>Directora de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Alda Nelly</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>dir.vinculacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Abogado General</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>juridico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Logística</t>
+  </si>
+  <si>
+    <t>María Guadalupe</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Dirección de Logística</t>
+  </si>
+  <si>
+    <t>dirlogistica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Eduardo Rubén</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Rivas</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>comunicacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>Francisco Rafael</t>
+  </si>
+  <si>
+    <t>Trejo</t>
+  </si>
+  <si>
+    <t>Macotela</t>
+  </si>
+  <si>
+    <t>Dirección de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>diip@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Planeación</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>dirplaneacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Ingeniería en Software</t>
+  </si>
+  <si>
+    <t>Mayra Fabiola</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Software</t>
+  </si>
+  <si>
+    <t>software@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Financiera</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Financiera</t>
+  </si>
+  <si>
+    <t>financiera@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
+  </si>
+  <si>
+    <t>Aguilera</t>
+  </si>
+  <si>
+    <t>Jíménez</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
+  </si>
+  <si>
+    <t>mecatronica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
+  </si>
+  <si>
+    <t>Alejandrina</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Valadez</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
+  </si>
+  <si>
+    <t>biotecnologia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing. Telemática</t>
+  </si>
+  <si>
+    <t>telematica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>mecanica_automotriz@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
+  </si>
+  <si>
+    <t>Rosa María</t>
+  </si>
+  <si>
+    <t>Chío</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
+  </si>
+  <si>
+    <t>terapia_fisica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
+  </si>
+  <si>
+    <t>Iztmitl</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
+  </si>
+  <si>
+    <t>biomedica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Brenda Berenice</t>
+  </si>
+  <si>
+    <t>Escorza</t>
+  </si>
+  <si>
+    <t>Coordinación de la Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>medico_cirujano@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>marcovera@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirector de Comunicación Social</t>
+  </si>
+  <si>
+    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
+  </si>
+  <si>
+    <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
+  </si>
+  <si>
+    <t>Mayte</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>mayte@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Biotecnología</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Álvarez</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>posgradobiotecnologia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones.</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Cornejo</t>
+  </si>
+  <si>
+    <t>arturo.austria@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
+  </si>
+  <si>
+    <t>Juan Benito</t>
+  </si>
+  <si>
+    <t>Pascual</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>posgradomescatronica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirector de Recursos Financieros</t>
+  </si>
+  <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>agustin.mejia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Subdirectora de Calidad</t>
+  </si>
+  <si>
+    <t>Ma. del Carmen</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Madrigal</t>
+  </si>
+  <si>
+    <t>calidad@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargado de la Subdirección de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Sergio Armando</t>
+  </si>
+  <si>
+    <t>Cisneros</t>
+  </si>
+  <si>
+    <t>presupuesto@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
+  </si>
+  <si>
+    <t>Jose Raul</t>
+  </si>
+  <si>
+    <t>Dossetti</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>promocionestudiantil@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Programas Especiales</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Briones</t>
+  </si>
+  <si>
+    <t>pespeciales@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Lourdes Guadalupe</t>
+  </si>
+  <si>
+    <t>Árevalo</t>
+  </si>
+  <si>
+    <t>Baena</t>
+  </si>
+  <si>
+    <t>lourdesgab_84@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento Jurídico</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Eguiluz</t>
+  </si>
+  <si>
+    <t>Ruíz</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Logística</t>
+  </si>
+  <si>
+    <t>Jhonathan Gonzalo</t>
+  </si>
+  <si>
+    <t>Godínez</t>
+  </si>
+  <si>
+    <t>jhonathan@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Julio César</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>desarrollo@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Idiomas y Lenguas</t>
+  </si>
+  <si>
+    <t>Félix Alberto</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>ingles@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Desarrollo Académico</t>
+  </si>
+  <si>
+    <t>Mary Carmen</t>
+  </si>
+  <si>
+    <t>desarrolloacademico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
+  </si>
+  <si>
+    <t>Valdivieso</t>
+  </si>
+  <si>
+    <t>biblioteca@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
+  </si>
+  <si>
+    <t>Nancy Judith</t>
+  </si>
+  <si>
+    <t>Cortes</t>
+  </si>
+  <si>
+    <t>deportes@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Internacionalización</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Esquivel</t>
+  </si>
+  <si>
+    <t>internacionalizacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa del Departamento de Educación a Distancia</t>
+  </si>
+  <si>
+    <t>Mayeli</t>
+  </si>
+  <si>
+    <t>adistancia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Incubación de Empresas</t>
+  </si>
+  <si>
+    <t>Jesús Eduardo</t>
+  </si>
+  <si>
+    <t>Juarico</t>
+  </si>
+  <si>
+    <t>Guaso</t>
+  </si>
+  <si>
+    <t>juarico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Contabilidad</t>
+  </si>
+  <si>
+    <t>Rómulo</t>
+  </si>
+  <si>
+    <t>Olvera</t>
+  </si>
+  <si>
+    <t>romulo@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Tinajar</t>
+  </si>
+  <si>
+    <t>recursoshumanos@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
+  </si>
+  <si>
+    <t>Monserrat</t>
+  </si>
+  <si>
+    <t>Licona</t>
+  </si>
+  <si>
+    <t>serviciomedico@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>mantenimiento1@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Administración del Polideportivo</t>
+  </si>
+  <si>
+    <t>José Enoch</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Alfaro</t>
+  </si>
+  <si>
+    <t>admonplata@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
+  </si>
+  <si>
+    <t>Donaciano</t>
+  </si>
+  <si>
+    <t>Calva</t>
+  </si>
+  <si>
+    <t>adquisiciones@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura</t>
+  </si>
+  <si>
+    <t>César Hugo</t>
+  </si>
+  <si>
+    <t>Dorantes</t>
+  </si>
+  <si>
+    <t>infraestructura@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>sistemas@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Servicios Escolares</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>servescolares@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Evaluación y Estadísticas</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Proa</t>
+  </si>
+  <si>
+    <t>de la Fuente</t>
+  </si>
+  <si>
+    <t>evaluacion@upp.edu.mx</t>
+  </si>
+  <si>
     <t>11 C</t>
   </si>
   <si>
-    <t>Secretario Académico</t>
-  </si>
-  <si>
-    <t>Josúe Román</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>Mireles</t>
-  </si>
-  <si>
-    <t>Secretaría Académica</t>
-  </si>
-  <si>
-    <t>secretariaacademica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Secretario Administativo</t>
-  </si>
-  <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Secretaría Administrativa</t>
-  </si>
-  <si>
-    <t>administracion@upp.edu.mx</t>
-  </si>
-  <si>
     <t>11 B</t>
   </si>
   <si>
-    <t>Director de la División de Estudios Profesionales</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>Márquez</t>
-  </si>
-  <si>
-    <t>Dirección de la División de Estudios Profesionales</t>
-  </si>
-  <si>
-    <t>divisiondeestudios@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Alda Nelly</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>Dirección de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>dir.vinculacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Abogado General</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Jiménez</t>
-  </si>
-  <si>
-    <t>Barrios</t>
-  </si>
-  <si>
-    <t>juridico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Logística</t>
-  </si>
-  <si>
-    <t>Dirección de Logística</t>
-  </si>
-  <si>
-    <t>dirlogistica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Eduardo Rubén</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>Rivas</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>comunicacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Francisco Rafael</t>
-  </si>
-  <si>
-    <t>Trejo</t>
-  </si>
-  <si>
-    <t>Macotela</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>diip@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Planeación</t>
-  </si>
-  <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t>Montes</t>
-  </si>
-  <si>
-    <t>Monroy</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>dirplaneacion@upp.edu.mx</t>
-  </si>
-  <si>
     <t>11A</t>
   </si>
   <si>
-    <t>Directora de Programa Educativo Ingeniería en Software</t>
-  </si>
-  <si>
-    <t>Mayra Fabiola</t>
-  </si>
-  <si>
-    <t>Peralta</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Software</t>
-  </si>
-  <si>
-    <t>software@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Financiera</t>
-  </si>
-  <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Financiera</t>
-  </si>
-  <si>
-    <t>financiera@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
-  </si>
-  <si>
-    <t>Aguilera</t>
-  </si>
-  <si>
-    <t>Jíménez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
-  </si>
-  <si>
-    <t>mecatronica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
-  </si>
-  <si>
-    <t>Alejandrina</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Valadez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
-  </si>
-  <si>
-    <t>biotecnologia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Telemática</t>
-  </si>
-  <si>
-    <t>telematica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>mecanica_automotriz@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
-  </si>
-  <si>
-    <t>Rosa María</t>
-  </si>
-  <si>
-    <t>Chío</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
-  </si>
-  <si>
-    <t>terapia_fisica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
-  </si>
-  <si>
-    <t>Iztmitl</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
-  </si>
-  <si>
-    <t>biomedica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>Brenda Berenice</t>
-  </si>
-  <si>
-    <t>Escorza</t>
-  </si>
-  <si>
-    <t>Coordinación de la Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>medico_cirujano@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>marcovera@upp.edu.mx</t>
-  </si>
-  <si>
     <t>10 A</t>
   </si>
   <si>
-    <t>Subdirector de Comunicación Social</t>
-  </si>
-  <si>
-    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
-  </si>
-  <si>
-    <t>María Guadalupe</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
-  </si>
-  <si>
-    <t>Mayte</t>
-  </si>
-  <si>
-    <t>Olivares</t>
-  </si>
-  <si>
-    <t>mayte@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Biotecnología</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
-    <t>Cervantes</t>
-  </si>
-  <si>
-    <t>posgradobiotecnologia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones.</t>
-  </si>
-  <si>
-    <t>Arturo</t>
-  </si>
-  <si>
-    <t>Cornejo</t>
-  </si>
-  <si>
-    <t>arturo.austria@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
-  </si>
-  <si>
-    <t>Juan Benito</t>
-  </si>
-  <si>
-    <t>Pascual</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>posgradomescatronica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Subdirector de Recursos Financieros</t>
-  </si>
-  <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>Mejía</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>agustin.mejia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Subdirectora de Calidad</t>
-  </si>
-  <si>
-    <t>Ma. del Carmen</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Madrigal</t>
-  </si>
-  <si>
-    <t>calidad@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>presupuesto@upp.edu.mx</t>
-  </si>
-  <si>
     <t>09 C</t>
   </si>
   <si>
-    <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
-  </si>
-  <si>
-    <t>Jose Raul</t>
-  </si>
-  <si>
-    <t>Dossetti</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>promocionestudiantil@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Programas Especiales</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Briones</t>
-  </si>
-  <si>
-    <t>pespeciales@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Lourdes Guadalupe</t>
-  </si>
-  <si>
-    <t>Árevalo</t>
-  </si>
-  <si>
-    <t>Baena</t>
-  </si>
-  <si>
-    <t>lourdesgab_84@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento Jurídico</t>
-  </si>
-  <si>
-    <t>Brenda</t>
-  </si>
-  <si>
-    <t>Eguiluz</t>
-  </si>
-  <si>
-    <t>Ruíz</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Logística</t>
-  </si>
-  <si>
-    <t>Jhonathan Gonzalo</t>
-  </si>
-  <si>
-    <t>Godínez</t>
-  </si>
-  <si>
-    <t>jhonathan@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
-  </si>
-  <si>
-    <t>Julio César</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>desarrollo@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Idiomas y Lenguas</t>
-  </si>
-  <si>
-    <t>Félix Alberto</t>
-  </si>
-  <si>
-    <t>Rodríguez</t>
-  </si>
-  <si>
-    <t>ingles@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Desarrollo Académico</t>
-  </si>
-  <si>
-    <t>Mary Carmen</t>
-  </si>
-  <si>
-    <t>desarrolloacademico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
-  </si>
-  <si>
-    <t>Valdivieso</t>
-  </si>
-  <si>
-    <t>biblioteca@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
-  </si>
-  <si>
-    <t>Nancy Judith</t>
-  </si>
-  <si>
-    <t>Cortes</t>
-  </si>
-  <si>
-    <t>deportes@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Internacionalización</t>
-  </si>
-  <si>
-    <t>Gerardo</t>
-  </si>
-  <si>
-    <t>Esquivel</t>
-  </si>
-  <si>
-    <t>internacionalizacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>adistancia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Incubación de Empresas</t>
-  </si>
-  <si>
-    <t>Jesús Eduardo</t>
-  </si>
-  <si>
-    <t>Juarico</t>
-  </si>
-  <si>
-    <t>Guaso</t>
-  </si>
-  <si>
-    <t>juarico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Contabilidad</t>
-  </si>
-  <si>
-    <t>Rómulo</t>
-  </si>
-  <si>
-    <t>Olvera</t>
-  </si>
-  <si>
-    <t>romulo@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Recursos Humanos</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>Tinajar</t>
-  </si>
-  <si>
-    <t>recursoshumanos@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
-  </si>
-  <si>
-    <t>Monserrat</t>
-  </si>
-  <si>
-    <t>Licona</t>
-  </si>
-  <si>
-    <t>serviciomedico@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>mantenimiento1@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Administración del Polideportivo</t>
-  </si>
-  <si>
-    <t>José Enoch</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Alfaro</t>
-  </si>
-  <si>
-    <t>admonplata@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
-  </si>
-  <si>
-    <t>Donaciano</t>
-  </si>
-  <si>
-    <t>Calva</t>
-  </si>
-  <si>
-    <t>adquisiciones@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Infraestructura</t>
-  </si>
-  <si>
-    <t>César Hugo</t>
-  </si>
-  <si>
-    <t>Dorantes</t>
-  </si>
-  <si>
-    <t>infraestructura@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>sistemas@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Servicios Escolares</t>
-  </si>
-  <si>
-    <t>Margarita</t>
-  </si>
-  <si>
-    <t>Díaz</t>
-  </si>
-  <si>
-    <t>servescolares@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Evaluación y Estadísticas</t>
-  </si>
-  <si>
-    <t>Guadalupe</t>
-  </si>
-  <si>
-    <t>Proa</t>
-  </si>
-  <si>
-    <t>de la Fuente</t>
-  </si>
-  <si>
-    <t>evaluacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Titular del Órgano Interno de Control</t>
-  </si>
-  <si>
-    <t>Órgano Interno de Control</t>
-  </si>
-  <si>
-    <t>Sergio Armando</t>
-  </si>
-  <si>
-    <t>Cisneros</t>
-  </si>
-  <si>
-    <t>Encargado de la Subdirección de Planeación y Presupuesto</t>
-  </si>
-  <si>
-    <t>Jefa del Departamento de Educación a Distancia</t>
-  </si>
-  <si>
-    <t>Mayeli</t>
-  </si>
-  <si>
-    <t>Baños</t>
-  </si>
-  <si>
-    <t>Jefe de Oficina B</t>
-  </si>
-  <si>
-    <t>Jefe de Oficina A</t>
-  </si>
-  <si>
-    <t>Técnico General</t>
-  </si>
-  <si>
-    <t>Jefe de Oficina C</t>
-  </si>
-  <si>
-    <t>08 B</t>
-  </si>
-  <si>
-    <t>08 A</t>
-  </si>
-  <si>
-    <t>08 C</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>Samanta del Carmen</t>
-  </si>
-  <si>
-    <t>Carpio</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Marcos Nathaniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizalde </t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Teresa de Jesus</t>
-  </si>
-  <si>
-    <t>Ana Graciela</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Monzalvo</t>
-  </si>
-  <si>
-    <t>Palay</t>
-  </si>
-  <si>
-    <t>Infante</t>
-  </si>
-  <si>
-    <t>Celia Marlen</t>
-  </si>
-  <si>
-    <t>Tania Perla</t>
-  </si>
-  <si>
-    <t>Rangel</t>
-  </si>
-  <si>
-    <t>Avila</t>
-  </si>
-  <si>
-    <t>Landero</t>
-  </si>
-  <si>
-    <t>Blanca Rocío Aurora</t>
-  </si>
-  <si>
-    <t>Yajaide</t>
-  </si>
-  <si>
-    <t>Alarcón</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Galvez</t>
-  </si>
-  <si>
-    <t>Almaraz</t>
-  </si>
-  <si>
-    <t>Estrada</t>
-  </si>
-  <si>
-    <t>Vazquez</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Karla Marina</t>
-  </si>
-  <si>
-    <t>Gilberto Eden</t>
-  </si>
-  <si>
-    <t>Guillermina</t>
-  </si>
-  <si>
-    <t>Alexandra Maydel</t>
-  </si>
-  <si>
-    <t>Aquino</t>
-  </si>
-  <si>
-    <t>Samperio</t>
-  </si>
-  <si>
-    <t>alexandra_aquino@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Analista Especializado</t>
-  </si>
-  <si>
-    <t>Del Valle</t>
-  </si>
-  <si>
-    <t>Lizbeth Mariana</t>
-  </si>
-  <si>
-    <t>Benítez</t>
-  </si>
-  <si>
-    <t>mariana.delvalle@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>Guillermo</t>
-  </si>
-  <si>
-    <t>gmendoza@upp.edu.mx</t>
+    <t>Karem</t>
+  </si>
+  <si>
+    <t>gpeflores@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Valencia</t>
   </si>
   <si>
     <t>La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022.</t>
   </si>
   <si>
-    <t>Pendiente por designar</t>
+    <t>Pendiente por designar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1489,7 +1342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1512,21 +1365,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1543,56 +1387,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1871,18 +1690,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,12 +1710,12 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
@@ -1911,12 +1730,12 @@
     <col min="22" max="22" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="77" customWidth="1"/>
+    <col min="30" max="30" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -1925,38 +1744,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:30" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1986,7 +1805,7 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
       <c r="K4" t="s">
@@ -2078,7 +1897,7 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
@@ -2143,38 +1962,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2204,7 +2023,7 @@
       <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2273,10 +2092,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="4">
         <v>12</v>
@@ -2317,7 +2136,7 @@
       <c r="P8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -2344,17 +2163,17 @@
       <c r="Y8" s="4">
         <v>2200</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Z8" s="7" t="s">
         <v>180</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
@@ -2363,28 +2182,28 @@
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C9" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="J9" s="5">
         <v>39083</v>
@@ -2407,7 +2226,7 @@
       <c r="P9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -2434,17 +2253,17 @@
       <c r="Y9" s="4">
         <v>2205</v>
       </c>
-      <c r="Z9" s="6" t="s">
-        <v>188</v>
+      <c r="Z9" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB9" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC9" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
@@ -2453,28 +2272,28 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C10" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="J10" s="5">
         <v>37867</v>
@@ -2497,7 +2316,7 @@
       <c r="P10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -2524,47 +2343,47 @@
       <c r="Y10" s="4">
         <v>2251</v>
       </c>
-      <c r="Z10" s="6" t="s">
-        <v>194</v>
+      <c r="Z10" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB10" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC10" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C11" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="J11" s="5">
         <v>38657</v>
@@ -2587,7 +2406,7 @@
       <c r="P11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -2614,100 +2433,68 @@
       <c r="Y11" s="4">
         <v>2450</v>
       </c>
-      <c r="Z11" s="6" t="s">
-        <v>200</v>
+      <c r="Z11" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB11" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC11" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2022</v>
       </c>
       <c r="B12" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C12" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S12" s="2">
-        <v>83</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="2">
-        <v>13</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W12" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X12" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>2262</v>
-      </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB12" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC12" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD12" s="20" t="s">
-        <v>467</v>
+        <v>44844</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -2715,28 +2502,28 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C13" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="J13" s="5">
         <v>44166</v>
@@ -2759,7 +2546,7 @@
       <c r="P13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -2784,19 +2571,19 @@
         <v>7715477510</v>
       </c>
       <c r="Y13" s="4">
-        <v>2300</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>205</v>
+        <v>3000</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB13" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC13" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD13" s="2"/>
     </row>
@@ -2805,28 +2592,28 @@
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C14" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J14" s="5">
         <v>43221</v>
@@ -2849,7 +2636,7 @@
       <c r="P14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -2876,17 +2663,17 @@
       <c r="Y14" s="4">
         <v>2443</v>
       </c>
-      <c r="Z14" s="6" t="s">
-        <v>210</v>
+      <c r="Z14" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB14" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC14" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD14" s="2"/>
     </row>
@@ -2895,32 +2682,24 @@
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C15" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>286</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="5">
-        <v>44682</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2939,7 +2718,7 @@
       <c r="P15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -2966,47 +2745,49 @@
       <c r="Y15" s="4">
         <v>2215</v>
       </c>
-      <c r="Z15" s="6" t="s">
-        <v>213</v>
+      <c r="Z15" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB15" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC15" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C16" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J16" s="5">
         <v>43739</v>
@@ -3029,7 +2810,7 @@
       <c r="P16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -3056,47 +2837,47 @@
       <c r="Y16" s="4">
         <v>2214</v>
       </c>
-      <c r="Z16" s="6" t="s">
-        <v>219</v>
+      <c r="Z16" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB16" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC16" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C17" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J17" s="5">
         <v>38726</v>
@@ -3119,7 +2900,7 @@
       <c r="P17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -3146,17 +2927,17 @@
       <c r="Y17" s="4">
         <v>2276</v>
       </c>
-      <c r="Z17" s="6" t="s">
-        <v>225</v>
+      <c r="Z17" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB17" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC17" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD17" s="2"/>
     </row>
@@ -3165,28 +2946,28 @@
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C18" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J18" s="5">
         <v>42860</v>
@@ -3209,7 +2990,7 @@
       <c r="P18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -3236,32 +3017,32 @@
       <c r="Y18" s="4">
         <v>2228</v>
       </c>
-      <c r="Z18" s="6" t="s">
-        <v>231</v>
+      <c r="Z18" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB18" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC18" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C19" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>233</v>
@@ -3299,7 +3080,7 @@
       <c r="P19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -3326,32 +3107,32 @@
       <c r="Y19" s="4">
         <v>2221</v>
       </c>
-      <c r="Z19" s="6" t="s">
+      <c r="Z19" s="7" t="s">
         <v>237</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB19" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC19" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C20" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>238</v>
@@ -3389,7 +3170,7 @@
       <c r="P20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -3416,32 +3197,32 @@
       <c r="Y20" s="4">
         <v>3009</v>
       </c>
-      <c r="Z20" s="6" t="s">
+      <c r="Z20" s="7" t="s">
         <v>242</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB20" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC20" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C21" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>243</v>
@@ -3479,7 +3260,7 @@
       <c r="P21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -3506,32 +3287,32 @@
       <c r="Y21" s="4">
         <v>2223</v>
       </c>
-      <c r="Z21" s="6" t="s">
+      <c r="Z21" s="7" t="s">
         <v>247</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB21" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC21" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C22" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>248</v>
@@ -3569,7 +3350,7 @@
       <c r="P22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -3596,32 +3377,32 @@
       <c r="Y22" s="4">
         <v>2479</v>
       </c>
-      <c r="Z22" s="6" t="s">
+      <c r="Z22" s="7" t="s">
         <v>253</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB22" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC22" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C23" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>254</v>
@@ -3659,7 +3440,7 @@
       <c r="P23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3686,50 +3467,50 @@
       <c r="Y23" s="4">
         <v>2221</v>
       </c>
-      <c r="Z23" s="6" t="s">
+      <c r="Z23" s="7" t="s">
         <v>256</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB23" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC23" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C24" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="J24" s="5">
-        <v>41944</v>
+        <v>44761</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>74</v>
@@ -3749,7 +3530,7 @@
       <c r="P24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -3776,47 +3557,47 @@
       <c r="Y24" s="4">
         <v>2223</v>
       </c>
-      <c r="Z24" s="6" t="s">
-        <v>262</v>
+      <c r="Z24" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="AA24" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB24" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC24" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C25" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="J25" s="5">
         <v>41883</v>
@@ -3839,7 +3620,7 @@
       <c r="P25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -3866,47 +3647,47 @@
       <c r="Y25" s="4">
         <v>2252</v>
       </c>
-      <c r="Z25" s="6" t="s">
-        <v>268</v>
+      <c r="Z25" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="AA25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB25" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC25" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C26" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="J26" s="5">
         <v>43719</v>
@@ -3929,7 +3710,7 @@
       <c r="P26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -3956,17 +3737,17 @@
       <c r="Y26" s="4">
         <v>2343</v>
       </c>
-      <c r="Z26" s="6" t="s">
-        <v>273</v>
+      <c r="Z26" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="AA26" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB26" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC26" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
@@ -3975,28 +3756,28 @@
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C27" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="J27" s="5">
         <v>44120</v>
@@ -4019,7 +3800,7 @@
       <c r="P27" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -4046,44 +3827,44 @@
       <c r="Y27" s="4">
         <v>2528</v>
       </c>
-      <c r="Z27" s="6" t="s">
-        <v>278</v>
+      <c r="Z27" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="AA27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB27" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC27" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C28" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>174</v>
@@ -4109,7 +3890,7 @@
       <c r="P28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -4136,43 +3917,51 @@
       <c r="Y28" s="4">
         <v>2381</v>
       </c>
-      <c r="Z28" s="6" t="s">
-        <v>281</v>
+      <c r="Z28" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="AA28" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB28" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC28" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C29" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+        <v>280</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="I29" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="J29" s="5">
+        <v>44774</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>74</v>
       </c>
@@ -4191,7 +3980,7 @@
       <c r="P29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R29" s="2" t="s">
@@ -4218,43 +4007,51 @@
       <c r="Y29" s="4">
         <v>2214</v>
       </c>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="AA29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB29" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC29" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD29" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C30" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="I30" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="J30" s="5">
+        <v>44774</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>74</v>
       </c>
@@ -4273,7 +4070,7 @@
       <c r="P30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R30" s="2" t="s">
@@ -4298,49 +4095,49 @@
         <v>7715477510</v>
       </c>
       <c r="Y30" s="4">
-        <v>2279</v>
-      </c>
-      <c r="Z30" s="6"/>
+        <v>2250</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="AA30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB30" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC30" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD30" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C31" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D31" s="9" t="s">
+        <v>44834</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>276</v>
+      <c r="F31" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J31" s="5">
         <v>37865</v>
@@ -4363,7 +4160,7 @@
       <c r="P31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -4390,47 +4187,47 @@
       <c r="Y31" s="4">
         <v>2503</v>
       </c>
-      <c r="Z31" s="6" t="s">
-        <v>290</v>
+      <c r="Z31" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB31" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC31" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C32" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J32" s="5">
         <v>39295</v>
@@ -4453,7 +4250,7 @@
       <c r="P32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R32" s="2" t="s">
@@ -4480,47 +4277,47 @@
       <c r="Y32" s="4">
         <v>2503</v>
       </c>
-      <c r="Z32" s="6" t="s">
-        <v>295</v>
+      <c r="Z32" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="AA32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB32" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC32" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C33" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J33" s="5">
         <v>43831</v>
@@ -4543,7 +4340,7 @@
       <c r="P33" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -4570,47 +4367,47 @@
       <c r="Y33" s="4">
         <v>2503</v>
       </c>
-      <c r="Z33" s="6" t="s">
-        <v>299</v>
+      <c r="Z33" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB33" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC33" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C34" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J34" s="5">
         <v>43537</v>
@@ -4633,7 +4430,7 @@
       <c r="P34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -4660,17 +4457,17 @@
       <c r="Y34" s="4">
         <v>2503</v>
       </c>
-      <c r="Z34" s="6" t="s">
-        <v>304</v>
+      <c r="Z34" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB34" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC34" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD34" s="2"/>
     </row>
@@ -4679,28 +4476,28 @@
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C35" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J35" s="5">
         <v>42095</v>
@@ -4723,7 +4520,7 @@
       <c r="P35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -4750,17 +4547,17 @@
       <c r="Y35" s="4">
         <v>2210</v>
       </c>
-      <c r="Z35" s="6" t="s">
-        <v>309</v>
+      <c r="Z35" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="AA35" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB35" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC35" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD35" s="2"/>
     </row>
@@ -4769,28 +4566,28 @@
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C36" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J36" s="5">
         <v>37956</v>
@@ -4813,7 +4610,7 @@
       <c r="P36" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R36" s="2" t="s">
@@ -4840,47 +4637,47 @@
       <c r="Y36" s="4">
         <v>2265</v>
       </c>
-      <c r="Z36" s="6" t="s">
-        <v>314</v>
+      <c r="Z36" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="AA36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB36" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC36" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD36" s="2"/>
     </row>
-    <row r="37" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C37" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>282</v>
+        <v>44834</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J37" s="5">
         <v>44728</v>
@@ -4903,7 +4700,7 @@
       <c r="P37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -4930,44 +4727,44 @@
       <c r="Y37" s="4">
         <v>2274</v>
       </c>
-      <c r="Z37" s="6" t="s">
-        <v>315</v>
+      <c r="Z37" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="AA37" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB37" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC37" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD37" s="2"/>
     </row>
-    <row r="38" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C38" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D38" s="9" t="s">
+        <v>44834</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>174</v>
@@ -4993,7 +4790,7 @@
       <c r="P38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -5020,17 +4817,17 @@
       <c r="Y38" s="4">
         <v>2824</v>
       </c>
-      <c r="Z38" s="6" t="s">
-        <v>321</v>
+      <c r="Z38" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="AA38" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB38" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC38" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD38" s="2"/>
     </row>
@@ -5039,25 +4836,25 @@
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C39" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>174</v>
@@ -5083,7 +4880,7 @@
       <c r="P39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R39" s="2" t="s">
@@ -5110,17 +4907,17 @@
       <c r="Y39" s="4">
         <v>2205</v>
       </c>
-      <c r="Z39" s="6" t="s">
-        <v>325</v>
+      <c r="Z39" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="AA39" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB39" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC39" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD39" s="2"/>
     </row>
@@ -5129,28 +4926,28 @@
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C40" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="I40" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J40" s="5">
         <v>40452</v>
@@ -5173,7 +4970,7 @@
       <c r="P40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R40" s="2" t="s">
@@ -5200,17 +4997,17 @@
       <c r="Y40" s="4">
         <v>2300</v>
       </c>
-      <c r="Z40" s="6" t="s">
-        <v>330</v>
+      <c r="Z40" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="AA40" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB40" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC40" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD40" s="2"/>
     </row>
@@ -5219,28 +5016,28 @@
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C41" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="I41" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J41" s="5">
         <v>44516</v>
@@ -5263,7 +5060,7 @@
       <c r="P41" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R41" s="2" t="s">
@@ -5290,17 +5087,17 @@
       <c r="Y41" s="4">
         <v>2443</v>
       </c>
-      <c r="Z41" s="6" t="s">
-        <v>210</v>
+      <c r="Z41" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="AA41" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB41" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC41" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD41" s="2"/>
     </row>
@@ -5309,28 +5106,28 @@
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C42" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>308</v>
+        <v>332</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J42" s="5">
         <v>41277</v>
@@ -5353,7 +5150,7 @@
       <c r="P42" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R42" s="2" t="s">
@@ -5380,47 +5177,47 @@
       <c r="Y42" s="4">
         <v>2215</v>
       </c>
-      <c r="Z42" s="6" t="s">
-        <v>338</v>
+      <c r="Z42" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="AA42" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB42" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC42" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C43" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J43" s="5">
         <v>39326</v>
@@ -5443,7 +5240,7 @@
       <c r="P43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q43" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R43" s="2" t="s">
@@ -5470,47 +5267,47 @@
       <c r="Y43" s="4">
         <v>2230</v>
       </c>
-      <c r="Z43" s="6" t="s">
-        <v>342</v>
+      <c r="Z43" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB43" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC43" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C44" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J44" s="5">
         <v>40547</v>
@@ -5533,7 +5330,7 @@
       <c r="P44" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="Q44" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -5560,17 +5357,17 @@
       <c r="Y44" s="4">
         <v>2493</v>
       </c>
-      <c r="Z44" s="6" t="s">
-        <v>346</v>
+      <c r="Z44" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="AA44" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB44" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC44" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD44" s="2"/>
     </row>
@@ -5579,28 +5376,28 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C45" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>187</v>
+        <v>344</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J45" s="5">
         <v>43877</v>
@@ -5623,7 +5420,7 @@
       <c r="P45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R45" s="2" t="s">
@@ -5650,17 +5447,17 @@
       <c r="Y45" s="4">
         <v>2204</v>
       </c>
-      <c r="Z45" s="6" t="s">
-        <v>349</v>
+      <c r="Z45" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="AA45" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB45" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC45" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD45" s="2"/>
     </row>
@@ -5669,28 +5466,28 @@
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C46" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F46" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>187</v>
+      <c r="G46" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J46" s="5">
         <v>38626</v>
@@ -5713,7 +5510,7 @@
       <c r="P46" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="Q46" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -5740,47 +5537,47 @@
       <c r="Y46" s="4">
         <v>2259</v>
       </c>
-      <c r="Z46" s="6" t="s">
-        <v>352</v>
+      <c r="Z46" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="AA46" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB46" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC46" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD46" s="2"/>
     </row>
-    <row r="47" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C47" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>187</v>
+        <v>350</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J47" s="5">
         <v>42646</v>
@@ -5803,7 +5600,7 @@
       <c r="P47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R47" s="2" t="s">
@@ -5830,17 +5627,17 @@
       <c r="Y47" s="4">
         <v>2450</v>
       </c>
-      <c r="Z47" s="6" t="s">
-        <v>356</v>
+      <c r="Z47" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="AA47" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB47" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC47" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD47" s="2"/>
     </row>
@@ -5849,28 +5646,28 @@
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C48" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>187</v>
+        <v>354</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J48" s="5">
         <v>43466</v>
@@ -5893,7 +5690,7 @@
       <c r="P48" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="Q48" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R48" s="2" t="s">
@@ -5920,17 +5717,17 @@
       <c r="Y48" s="4">
         <v>2311</v>
       </c>
-      <c r="Z48" s="6" t="s">
-        <v>360</v>
+      <c r="Z48" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="AA48" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB48" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC48" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD48" s="2"/>
     </row>
@@ -5939,28 +5736,28 @@
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C49" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>187</v>
+        <v>303</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J49" s="5">
         <v>44713</v>
@@ -5983,7 +5780,7 @@
       <c r="P49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R49" s="2" t="s">
@@ -6010,17 +5807,17 @@
       <c r="Y49" s="4">
         <v>2316</v>
       </c>
-      <c r="Z49" s="6" t="s">
-        <v>361</v>
+      <c r="Z49" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB49" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC49" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD49" s="2"/>
     </row>
@@ -6029,28 +5826,28 @@
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C50" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="G50" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="H50" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>187</v>
+      <c r="I50" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J50" s="5">
         <v>38504</v>
@@ -6073,7 +5870,7 @@
       <c r="P50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R50" s="2" t="s">
@@ -6100,17 +5897,17 @@
       <c r="Y50" s="4">
         <v>2401</v>
       </c>
-      <c r="Z50" s="6" t="s">
-        <v>366</v>
+      <c r="Z50" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="AA50" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB50" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC50" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD50" s="2"/>
     </row>
@@ -6119,28 +5916,28 @@
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C51" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="I51" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J51" s="5">
         <v>42445</v>
@@ -6163,7 +5960,7 @@
       <c r="P51" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -6190,17 +5987,17 @@
       <c r="Y51" s="4">
         <v>2210</v>
       </c>
-      <c r="Z51" s="6" t="s">
-        <v>370</v>
+      <c r="Z51" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="AA51" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB51" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC51" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD51" s="2"/>
     </row>
@@ -6209,28 +6006,28 @@
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C52" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="I52" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J52" s="5">
         <v>43160</v>
@@ -6253,7 +6050,7 @@
       <c r="P52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -6280,47 +6077,47 @@
       <c r="Y52" s="4">
         <v>2227</v>
       </c>
-      <c r="Z52" s="6" t="s">
-        <v>375</v>
+      <c r="Z52" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="AA52" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB52" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC52" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C53" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="I53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J53" s="5">
         <v>44636</v>
@@ -6343,7 +6140,7 @@
       <c r="P53" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R53" s="2" t="s">
@@ -6370,17 +6167,17 @@
       <c r="Y53" s="4">
         <v>2253</v>
       </c>
-      <c r="Z53" s="6" t="s">
-        <v>379</v>
+      <c r="Z53" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="AA53" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB53" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC53" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD53" s="2"/>
     </row>
@@ -6389,28 +6186,28 @@
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C54" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="I54" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J54" s="5">
         <v>42767</v>
@@ -6433,7 +6230,7 @@
       <c r="P54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R54" s="2" t="s">
@@ -6460,17 +6257,17 @@
       <c r="Y54" s="4">
         <v>2231</v>
       </c>
-      <c r="Z54" s="6" t="s">
-        <v>382</v>
+      <c r="Z54" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="AA54" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB54" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC54" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD54" s="2"/>
     </row>
@@ -6479,28 +6276,28 @@
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C55" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="I55" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J55" s="5">
         <v>42979</v>
@@ -6523,7 +6320,7 @@
       <c r="P55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -6548,17 +6345,17 @@
         <v>7717159903</v>
       </c>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="6" t="s">
-        <v>387</v>
+      <c r="Z55" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="AA55" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB55" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC55" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD55" s="2"/>
     </row>
@@ -6567,28 +6364,28 @@
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C56" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="I56" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J56" s="5">
         <v>42810</v>
@@ -6611,7 +6408,7 @@
       <c r="P56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R56" s="2" t="s">
@@ -6638,17 +6435,17 @@
       <c r="Y56" s="4">
         <v>3006</v>
       </c>
-      <c r="Z56" s="6" t="s">
-        <v>391</v>
+      <c r="Z56" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="AA56" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB56" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC56" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD56" s="2"/>
     </row>
@@ -6657,28 +6454,28 @@
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C57" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J57" s="5">
         <v>38687</v>
@@ -6701,7 +6498,7 @@
       <c r="P57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -6728,47 +6525,47 @@
       <c r="Y57" s="4">
         <v>2218</v>
       </c>
-      <c r="Z57" s="6" t="s">
-        <v>395</v>
+      <c r="Z57" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="AA57" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB57" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC57" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C58" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>398</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J58" s="5">
         <v>42767</v>
@@ -6791,7 +6588,7 @@
       <c r="P58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R58" s="2" t="s">
@@ -6818,17 +6615,17 @@
       <c r="Y58" s="4">
         <v>2217</v>
       </c>
-      <c r="Z58" s="6" t="s">
-        <v>399</v>
+      <c r="Z58" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="AA58" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB58" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC58" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD58" s="2"/>
     </row>
@@ -6837,28 +6634,28 @@
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C59" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="I59" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J59" s="5">
         <v>39569</v>
@@ -6881,7 +6678,7 @@
       <c r="P59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R59" s="2" t="s">
@@ -6908,17 +6705,17 @@
       <c r="Y59" s="4">
         <v>2213</v>
       </c>
-      <c r="Z59" s="6" t="s">
-        <v>403</v>
+      <c r="Z59" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="AA59" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB59" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC59" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD59" s="2"/>
     </row>
@@ -6927,28 +6724,28 @@
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C60" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>316</v>
+        <v>44834</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="I60" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J60" s="5">
         <v>41141</v>
@@ -6971,7 +6768,7 @@
       <c r="P60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R60" s="2" t="s">
@@ -6998,1376 +6795,19 @@
       <c r="Y60" s="4">
         <v>2233</v>
       </c>
-      <c r="Z60" s="6" t="s">
-        <v>408</v>
+      <c r="Z60" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="AA60" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AB60" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AC60" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AD60" s="2"/>
-    </row>
-    <row r="61" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B61" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C61" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J61" s="3">
-        <v>42402</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q61" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S61" s="2">
-        <v>83</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U61" s="2">
-        <v>13</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W61" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X61" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y61" s="4">
-        <v>2200</v>
-      </c>
-      <c r="Z61" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA61" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC61" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD61" s="2"/>
-    </row>
-    <row r="62" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B62" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C62" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J62" s="3">
-        <v>39295</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q62" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S62" s="2">
-        <v>83</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U62" s="2">
-        <v>13</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W62" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X62" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y62" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z62" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA62" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD62" s="2"/>
-    </row>
-    <row r="63" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B63" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C63" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J63" s="3">
-        <v>39494</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S63" s="2">
-        <v>83</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U63" s="2">
-        <v>13</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W63" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X63" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y63" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z63" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA63" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB63" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC63" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD63" s="2"/>
-    </row>
-    <row r="64" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B64" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C64" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J64" s="3">
-        <v>41277</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q64" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S64" s="2">
-        <v>83</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U64" s="2">
-        <v>13</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W64" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X64" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y64" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z64" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA64" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB64" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD64" s="2"/>
-    </row>
-    <row r="65" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B65" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C65" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J65" s="3">
-        <v>42037</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S65" s="2">
-        <v>83</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U65" s="2">
-        <v>13</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W65" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X65" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y65" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z65" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA65" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB65" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC65" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD65" s="2"/>
-    </row>
-    <row r="66" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B66" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C66" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" s="3">
-        <v>38596</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q66" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S66" s="2">
-        <v>83</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U66" s="2">
-        <v>13</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W66" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X66" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y66" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z66" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA66" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD66" s="2"/>
-    </row>
-    <row r="67" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B67" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C67" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J67" s="3">
-        <v>43222</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S67" s="2">
-        <v>83</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U67" s="2">
-        <v>13</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W67" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X67" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y67" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z67" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA67" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB67" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC67" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD67" s="2"/>
-    </row>
-    <row r="68" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B68" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C68" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J68" s="3">
-        <v>42914</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q68" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S68" s="2">
-        <v>83</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U68" s="2">
-        <v>13</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W68" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X68" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y68" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z68" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA68" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB68" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC68" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD68" s="2"/>
-    </row>
-    <row r="69" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B69" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C69" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J69" s="3">
-        <v>38838</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q69" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S69" s="2">
-        <v>83</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U69" s="2">
-        <v>13</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W69" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X69" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y69" s="8">
-        <v>2300</v>
-      </c>
-      <c r="Z69" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA69" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB69" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC69" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="17"/>
-    </row>
-    <row r="70" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B70" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C70" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J70" s="3">
-        <v>44682</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q70" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S70" s="2">
-        <v>83</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U70" s="2">
-        <v>13</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W70" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X70" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y70" s="8">
-        <v>2300</v>
-      </c>
-      <c r="Z70" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB70" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC70" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="17"/>
-    </row>
-    <row r="71" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B71" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C71" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J71" s="3">
-        <v>44203</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q71" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S71" s="2">
-        <v>83</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U71" s="2">
-        <v>13</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W71" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X71" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y71" s="8">
-        <v>2300</v>
-      </c>
-      <c r="Z71" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA71" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB71" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC71" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="17"/>
-    </row>
-    <row r="72" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B72" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C72" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J72" s="3">
-        <v>43540</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q72" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S72" s="2">
-        <v>83</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U72" s="2">
-        <v>13</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W72" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X72" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y72" s="8">
-        <v>2300</v>
-      </c>
-      <c r="Z72" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA72" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="17"/>
-    </row>
-    <row r="73" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B73" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C73" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J73" s="3">
-        <v>43633</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q73" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S73" s="2">
-        <v>83</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U73" s="2">
-        <v>13</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W73" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X73" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y73" s="8">
-        <v>2279</v>
-      </c>
-      <c r="Z73" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA73" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB73" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC73" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="17"/>
-    </row>
-    <row r="74" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B74" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C74" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J74" s="3">
-        <v>40940</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q74" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S74" s="2">
-        <v>83</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U74" s="2">
-        <v>13</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W74" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X74" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y74" s="8">
-        <v>2210</v>
-      </c>
-      <c r="Z74" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA74" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB74" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC74" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="17"/>
-    </row>
-    <row r="75" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B75" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C75" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J75" s="3">
-        <v>41277</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q75" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S75" s="2">
-        <v>83</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="U75" s="2">
-        <v>13</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="W75" s="2">
-        <v>43830</v>
-      </c>
-      <c r="X75" s="4">
-        <v>7715477510</v>
-      </c>
-      <c r="Y75" s="4">
-        <v>2259</v>
-      </c>
-      <c r="Z75" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA75" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB75" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AC75" s="3">
-        <v>44753</v>
-      </c>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8380,82 +6820,77 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K200" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O200" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V200" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Z8" r:id="rId1"/>
-    <hyperlink ref="Z9" r:id="rId2"/>
-    <hyperlink ref="Z10" r:id="rId3"/>
-    <hyperlink ref="Z13" r:id="rId4"/>
-    <hyperlink ref="Z14" r:id="rId5"/>
-    <hyperlink ref="Z15" r:id="rId6"/>
-    <hyperlink ref="Z16" r:id="rId7"/>
-    <hyperlink ref="Z11" r:id="rId8"/>
-    <hyperlink ref="Z17" r:id="rId9"/>
-    <hyperlink ref="Z18" r:id="rId10"/>
-    <hyperlink ref="Z19" r:id="rId11"/>
-    <hyperlink ref="Z20" r:id="rId12"/>
-    <hyperlink ref="Z21" r:id="rId13"/>
-    <hyperlink ref="Z22" r:id="rId14"/>
-    <hyperlink ref="Z23" r:id="rId15"/>
-    <hyperlink ref="Z24" r:id="rId16"/>
-    <hyperlink ref="Z25" r:id="rId17"/>
-    <hyperlink ref="Z26" r:id="rId18"/>
-    <hyperlink ref="Z27" r:id="rId19"/>
-    <hyperlink ref="Z28" r:id="rId20"/>
-    <hyperlink ref="Z32" r:id="rId21"/>
-    <hyperlink ref="Z34" r:id="rId22"/>
-    <hyperlink ref="Z35" r:id="rId23"/>
-    <hyperlink ref="Z36" r:id="rId24"/>
-    <hyperlink ref="Z37" r:id="rId25"/>
-    <hyperlink ref="Z38" r:id="rId26"/>
-    <hyperlink ref="Z39" r:id="rId27"/>
-    <hyperlink ref="Z40" r:id="rId28"/>
-    <hyperlink ref="Z41" r:id="rId29"/>
-    <hyperlink ref="Z42" r:id="rId30"/>
-    <hyperlink ref="Z43" r:id="rId31"/>
-    <hyperlink ref="Z44" r:id="rId32"/>
-    <hyperlink ref="Z45" r:id="rId33"/>
-    <hyperlink ref="Z46" r:id="rId34"/>
-    <hyperlink ref="Z47" r:id="rId35"/>
-    <hyperlink ref="Z48" r:id="rId36"/>
-    <hyperlink ref="Z51" r:id="rId37"/>
-    <hyperlink ref="Z52" r:id="rId38"/>
-    <hyperlink ref="Z54" r:id="rId39"/>
-    <hyperlink ref="Z55" r:id="rId40"/>
-    <hyperlink ref="Z56" r:id="rId41"/>
-    <hyperlink ref="Z57" r:id="rId42"/>
-    <hyperlink ref="Z58" r:id="rId43"/>
-    <hyperlink ref="Z59" r:id="rId44"/>
-    <hyperlink ref="Z60" r:id="rId45"/>
-    <hyperlink ref="Z33" r:id="rId46"/>
-    <hyperlink ref="Z50" r:id="rId47"/>
-    <hyperlink ref="Z31" r:id="rId48"/>
-    <hyperlink ref="Z49" r:id="rId49"/>
-    <hyperlink ref="Z53" r:id="rId50"/>
-    <hyperlink ref="Z61" r:id="rId51"/>
-    <hyperlink ref="Z62" r:id="rId52"/>
-    <hyperlink ref="Z63:Z68" r:id="rId53" display="servescolares@upp.edu.mx"/>
-    <hyperlink ref="Z69" r:id="rId54"/>
-    <hyperlink ref="Z70:Z72" r:id="rId55" display="dir.vinculacion@upp.edu.mx"/>
-    <hyperlink ref="Z73" r:id="rId56"/>
-    <hyperlink ref="Z74" r:id="rId57"/>
-    <hyperlink ref="Z75" r:id="rId58"/>
+    <hyperlink ref="Z8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Z9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Z10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Z13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Z14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Z15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Z16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Z17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Z18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Z19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Z20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Z21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Z22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Z23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Z24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Z25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Z26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Z27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Z28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Z32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Z34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Z35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Z36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="Z37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Z38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Z39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Z40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="Z41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Z42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Z43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Z44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Z45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Z46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="Z47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Z48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="Z51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Z52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Z54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Z55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="Z56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Z57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="Z58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Z59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Z60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Z33" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Z50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Z31" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Z49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Z53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Z30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Z29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8598,7 +7033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8816,7 +7251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF772EB4-B580-4686-B758-7932D16756C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,12 +17,12 @@
     <definedName name="Hidden_214">Hidden_2!$A$1:$A$41</definedName>
     <definedName name="Hidden_321">Hidden_3!$A$1:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="420">
   <si>
     <t>44220</t>
   </si>
@@ -171,9 +165,6 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
-    <t>Clave o nivel del puesto</t>
-  </si>
-  <si>
     <t>Denominación del cargo</t>
   </si>
   <si>
@@ -540,6 +531,9 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Departamento de Recursos Humanos (UPP)</t>
+  </si>
+  <si>
     <t>Rector</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
     <t>upp@upp.edu.mx</t>
   </si>
   <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
-  </si>
-  <si>
     <t>Secretario Académico</t>
   </si>
   <si>
@@ -594,9 +585,6 @@
     <t>secretariaacademica@upp.edu.mx</t>
   </si>
   <si>
-    <t>Secretario Administativo</t>
-  </si>
-  <si>
     <t>Jorge Alfredo</t>
   </si>
   <si>
@@ -612,7 +600,7 @@
     <t>administracion@upp.edu.mx</t>
   </si>
   <si>
-    <t>Director de la División de Estudios Profesionales</t>
+    <t>11 B</t>
   </si>
   <si>
     <t>García</t>
@@ -621,15 +609,9 @@
     <t>Márquez</t>
   </si>
   <si>
-    <t>Dirección de la División de Estudios Profesionales</t>
-  </si>
-  <si>
     <t>divisiondeestudios@upp.edu.mx</t>
   </si>
   <si>
-    <t>Titular del Órgano Interno de Control</t>
-  </si>
-  <si>
     <t>Directora de Vinculación y Extensión</t>
   </si>
   <si>
@@ -660,7 +642,145 @@
     <t>juridico@upp.edu.mx</t>
   </si>
   <si>
-    <t>Directora de Logística</t>
+    <t>Director de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Eduardo Rubén</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Rivas</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>comunicacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>Francisco Rafael</t>
+  </si>
+  <si>
+    <t>Trejo</t>
+  </si>
+  <si>
+    <t>Macotela</t>
+  </si>
+  <si>
+    <t>Dirección de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>diip@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Director de Planeación</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>dirplaneacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>Mayra Fabiola</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>financiera@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Aguilera</t>
+  </si>
+  <si>
+    <t>Jíménez</t>
+  </si>
+  <si>
+    <t>mecatronica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Alejandrina</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Valadez</t>
+  </si>
+  <si>
+    <t>biotecnologia@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>telematica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Karem</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>mecanica_automotriz@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Rosa María</t>
+  </si>
+  <si>
+    <t>Chío</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>terapia_fisica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Iztmitl</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>biomedica@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Brenda Berenice</t>
+  </si>
+  <si>
+    <t>Escorza</t>
+  </si>
+  <si>
+    <t>medico_cirujano@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>10 A</t>
+  </si>
+  <si>
+    <t>Valencia</t>
   </si>
   <si>
     <t>María Guadalupe</t>
@@ -669,211 +789,7 @@
     <t>Pérez</t>
   </si>
   <si>
-    <t>Dirección de Logística</t>
-  </si>
-  <si>
-    <t>dirlogistica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Eduardo Rubén</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>Rivas</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>comunicacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Francisco Rafael</t>
-  </si>
-  <si>
-    <t>Trejo</t>
-  </si>
-  <si>
-    <t>Macotela</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>diip@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Planeación</t>
-  </si>
-  <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t>Montes</t>
-  </si>
-  <si>
-    <t>Monroy</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>dirplaneacion@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Ingeniería en Software</t>
-  </si>
-  <si>
-    <t>Mayra Fabiola</t>
-  </si>
-  <si>
-    <t>Peralta</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Software</t>
-  </si>
-  <si>
-    <t>software@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Financiera</t>
-  </si>
-  <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Financiera</t>
-  </si>
-  <si>
-    <t>financiera@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecatrónica</t>
-  </si>
-  <si>
-    <t>Aguilera</t>
-  </si>
-  <si>
-    <t>Jíménez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. en Mecatrónica</t>
-  </si>
-  <si>
-    <t>mecatronica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Ingeniería en Biotecnología</t>
-  </si>
-  <si>
-    <t>Alejandrina</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Valadez</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing en Biotecnología</t>
-  </si>
-  <si>
-    <t>biotecnologia@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Ingeniería en Telemática</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing. Telemática</t>
-  </si>
-  <si>
-    <t>telematica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ing Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>mecanica_automotriz@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Directora de Programa Educativo Licenciatura en Terapia Física</t>
-  </si>
-  <si>
-    <t>Rosa María</t>
-  </si>
-  <si>
-    <t>Chío</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Lic en Terapia Física</t>
-  </si>
-  <si>
-    <t>terapia_fisica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Director de Programa Educativo Ingeniería en Biomédica</t>
-  </si>
-  <si>
-    <t>Iztmitl</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>Dirección del Programa Educativo de Ingeniería Biomédica</t>
-  </si>
-  <si>
-    <t>biomedica@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa Educativo Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>Brenda Berenice</t>
-  </si>
-  <si>
-    <t>Escorza</t>
-  </si>
-  <si>
-    <t>Coordinación de la Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>medico_cirujano@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>marcovera@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Subdirector de Comunicación Social</t>
-  </si>
-  <si>
-    <t>Subdirectora de la Coordinación de Gestión y Calidad Educativa</t>
+    <t>gpeflores@upp.edu.mx</t>
   </si>
   <si>
     <t>Encargada de la Coordinación del Posgrado en Didáctica y Ciencias</t>
@@ -945,24 +861,6 @@
     <t>agustin.mejia@upp.edu.mx</t>
   </si>
   <si>
-    <t>Subdirectora de Calidad</t>
-  </si>
-  <si>
-    <t>Ma. del Carmen</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Madrigal</t>
-  </si>
-  <si>
-    <t>calidad@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Encargado de la Subdirección de Planeación y Presupuesto</t>
-  </si>
-  <si>
     <t>Sergio Armando</t>
   </si>
   <si>
@@ -972,6 +870,9 @@
     <t>presupuesto@upp.edu.mx</t>
   </si>
   <si>
+    <t>09 C</t>
+  </si>
+  <si>
     <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
   </si>
   <si>
@@ -987,9 +888,6 @@
     <t>promocionestudiantil@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefa de Departamento de Programas Especiales</t>
-  </si>
-  <si>
     <t>Lucia</t>
   </si>
   <si>
@@ -999,9 +897,6 @@
     <t>pespeciales@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefa de Departamento de Vinculación y Extensión</t>
-  </si>
-  <si>
     <t>Lourdes Guadalupe</t>
   </si>
   <si>
@@ -1014,9 +909,6 @@
     <t>lourdesgab_84@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefa de Departamento Jurídico</t>
-  </si>
-  <si>
     <t>Brenda</t>
   </si>
   <si>
@@ -1026,18 +918,12 @@
     <t>Ruíz</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Logística</t>
-  </si>
-  <si>
     <t>Jhonathan Gonzalo</t>
   </si>
   <si>
     <t>Godínez</t>
   </si>
   <si>
-    <t>jhonathan@upp.edu.mx</t>
-  </si>
-  <si>
     <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
   </si>
   <si>
@@ -1050,18 +936,9 @@
     <t>desarrollo@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Idiomas y Lenguas</t>
-  </si>
-  <si>
-    <t>Félix Alberto</t>
-  </si>
-  <si>
     <t>Rodríguez</t>
   </si>
   <si>
-    <t>ingles@upp.edu.mx</t>
-  </si>
-  <si>
     <t>Jefa de Departamento de Desarrollo Académico</t>
   </si>
   <si>
@@ -1080,9 +957,6 @@
     <t>biblioteca@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefa de Departamento de Actividades Deportivas y Recreativas</t>
-  </si>
-  <si>
     <t>Nancy Judith</t>
   </si>
   <si>
@@ -1092,18 +966,12 @@
     <t>deportes@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Internacionalización</t>
-  </si>
-  <si>
     <t>Gerardo</t>
   </si>
   <si>
     <t>Esquivel</t>
   </si>
   <si>
-    <t>internacionalizacion@upp.edu.mx</t>
-  </si>
-  <si>
     <t>Jefa del Departamento de Educación a Distancia</t>
   </si>
   <si>
@@ -1113,9 +981,6 @@
     <t>adistancia@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Incubación de Empresas</t>
-  </si>
-  <si>
     <t>Jesús Eduardo</t>
   </si>
   <si>
@@ -1167,18 +1032,12 @@
     <t>serviciomedico@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Mantenimiento y Servicios Generales</t>
-  </si>
-  <si>
     <t>Castillo</t>
   </si>
   <si>
     <t>mantenimiento1@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Administración del Polideportivo</t>
-  </si>
-  <si>
     <t>José Enoch</t>
   </si>
   <si>
@@ -1203,9 +1062,6 @@
     <t>adquisiciones@upp.edu.mx</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Infraestructura</t>
-  </si>
-  <si>
     <t>César Hugo</t>
   </si>
   <si>
@@ -1254,40 +1110,184 @@
     <t>evaluacion@upp.edu.mx</t>
   </si>
   <si>
+    <t>11 D</t>
+  </si>
+  <si>
+    <t>Director de la División de Estudios de Ingeniería</t>
+  </si>
+  <si>
+    <t>Director de la División de Estudios de Ciencias de la Salud</t>
+  </si>
+  <si>
+    <t>Directora de Programa de Ingeniería en Software e Ingeniería en Redes y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Director de Programa de Ingeniería Financiera</t>
+  </si>
+  <si>
+    <t>Directora de Programa de Ingeniería en Biotecnología</t>
+  </si>
+  <si>
+    <t>Director de los Programas de Ingeniería Mecatrónica e Ingeniería en Sistemas y Tecnologías Industriales</t>
+  </si>
+  <si>
+    <t>Directora de Programa de Ingeniería Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>Director de Programa de Ingeniería Biomédica</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa de Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Directora de Programa de Licenciatura en Terapia Física</t>
+  </si>
+  <si>
+    <t>Subdirector de Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Subdirectora de la Unidad para la Inclusión y Calidad Educativa</t>
+  </si>
+  <si>
+    <t>Subdirector de Infraestructura</t>
+  </si>
+  <si>
+    <t>Subdirectora de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Yara Dimna</t>
+  </si>
+  <si>
+    <t>Chávez</t>
+  </si>
+  <si>
+    <t>Azuara</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Asuntos Jurídicos</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Soporte Técnico del CFIIM</t>
+  </si>
+  <si>
+    <t>Federico Jesús</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Proyectos Especiales</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Aceleración de Negocios</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Vinculación</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Formación en el Campo Profesional</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Actividades Culturales, Deportivas y Recreativas</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Inventarios</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Velázquez</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Parque Vehicular</t>
+  </si>
+  <si>
+    <t>Gayosso</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura Deportiva</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura Educativa</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Presupuesto</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Calidad</t>
+  </si>
+  <si>
+    <t>Dirección de la División de Estudios de Ingeniería</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación</t>
+  </si>
+  <si>
+    <t>div.cienciasdelasalud@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>aceleradora.negocios@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>brendaeguiluz@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>luisvelazquez@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>marcogayosso@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>Itzel</t>
+  </si>
+  <si>
+    <t>Borges</t>
+  </si>
+  <si>
     <t>11 C</t>
   </si>
   <si>
-    <t>11 B</t>
-  </si>
-  <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>10 A</t>
-  </si>
-  <si>
-    <t>09 C</t>
-  </si>
-  <si>
-    <t>Karem</t>
-  </si>
-  <si>
-    <t>gpeflores@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022.</t>
-  </si>
-  <si>
-    <t>Pendiente por designar.</t>
+    <t>Direccón de Programa de Ingeniería en Software e Ingeniería en Redes y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Dirección de Programa de Ingeniería Financiera</t>
+  </si>
+  <si>
+    <t>Dirección de Programa de Ingeniería en Biotecnología</t>
+  </si>
+  <si>
+    <t>Dirección de los Programas de Ingeniería Mecatrónica e Ingeniería en Sistemas y Tecnologías Industriales</t>
+  </si>
+  <si>
+    <t>Dirección de Programa de Ingeniería Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>Dirección de Programa de Ingeniería Biomédica</t>
+  </si>
+  <si>
+    <t>Dirección de Programa de Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Dirección de Programa de Licenciatura en Terapia Física</t>
+  </si>
+  <si>
+    <t>Secretario Administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendiente por designar </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1318,7 +1318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,12 +1333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1370,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1381,6 +1375,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1393,30 +1388,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1690,18 +1666,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="AB28" workbookViewId="0">
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,29 +1689,29 @@
     <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" customWidth="1"/>
+    <col min="16" max="16" width="37" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" customWidth="1"/>
+    <col min="20" max="20" width="44.85546875" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" customWidth="1"/>
+    <col min="22" max="22" width="51.42578125" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" customWidth="1"/>
     <col min="25" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="38.140625" customWidth="1"/>
+    <col min="30" max="30" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -1744,38 +1720,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:30" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1962,38 +1938,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2005,86 +1981,84 @@
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
@@ -2092,51 +2066,51 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="5">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J8" s="5">
-        <v>38838</v>
+      <c r="J8" s="6">
+        <v>42619</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -2152,81 +2126,81 @@
         <v>13</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W8" s="2">
         <v>43830</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="5">
         <v>2200</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>181</v>
+      <c r="AA8" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC8" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C9" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>39083</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="M9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -2242,81 +2216,81 @@
         <v>13</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W9" s="2">
         <v>43830</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="5">
         <v>2205</v>
       </c>
-      <c r="Z9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>181</v>
+      <c r="Z9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB9" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC9" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C10" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>37867</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -2332,81 +2306,81 @@
         <v>13</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W10" s="2">
         <v>43830</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="5">
         <v>2251</v>
       </c>
-      <c r="Z10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>181</v>
+      <c r="Z10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB10" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC10" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C11" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="J11" s="6">
         <v>38657</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -2422,131 +2396,171 @@
         <v>13</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W11" s="2">
         <v>43830</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="5">
         <v>2450</v>
       </c>
-      <c r="Z11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>181</v>
+      <c r="Z11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB11" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC11" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2022</v>
       </c>
       <c r="B12" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C12" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="4" t="s">
-        <v>181</v>
+      <c r="E12" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="6">
+        <v>44761</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S12" s="2">
+        <v>83</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="2">
+        <v>13</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="W12" s="2">
+        <v>43830</v>
+      </c>
+      <c r="X12" s="5">
+        <v>7715477510</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>2205</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB12" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC12" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+        <v>44936</v>
+      </c>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C13" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="5">
-        <v>44166</v>
+      <c r="H13" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="6">
+        <v>43221</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -2562,81 +2576,81 @@
         <v>13</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W13" s="2">
         <v>43830</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y13" s="4">
-        <v>3000</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>181</v>
+      <c r="Y13" s="5">
+        <v>2443</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB13" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC13" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C14" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J14" s="5">
-        <v>43221</v>
+      <c r="H14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="6">
+        <v>43739</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R14" s="2" t="s">
@@ -2652,73 +2666,81 @@
         <v>13</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W14" s="2">
         <v>43830</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y14" s="4">
-        <v>2443</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>181</v>
+      <c r="Y14" s="5">
+        <v>2214</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB14" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC14" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C15" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J15" s="6">
+        <v>38726</v>
+      </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R15" s="2" t="s">
@@ -2734,83 +2756,81 @@
         <v>13</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W15" s="2">
         <v>43830</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y15" s="4">
-        <v>2215</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>181</v>
+      <c r="Y15" s="5">
+        <v>2276</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB15" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC15" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44936</v>
+      </c>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C16" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J16" s="5">
-        <v>43739</v>
+        <v>44926</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" s="6">
+        <v>44166</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R16" s="2" t="s">
@@ -2826,81 +2846,81 @@
         <v>13</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W16" s="2">
         <v>43830</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y16" s="4">
-        <v>2214</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>181</v>
+      <c r="Y16" s="5">
+        <v>2300</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB16" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC16" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C17" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J17" s="5">
-        <v>38726</v>
+      <c r="J17" s="6">
+        <v>42860</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -2916,81 +2936,81 @@
         <v>13</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W17" s="2">
         <v>43830</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y17" s="4">
-        <v>2276</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>181</v>
+      <c r="Y17" s="5">
+        <v>2228</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB17" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC17" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C18" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J18" s="5">
-        <v>42860</v>
+        <v>44926</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" s="6">
+        <v>39829</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -3006,81 +3026,81 @@
         <v>13</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W18" s="2">
         <v>43830</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y18" s="4">
-        <v>2228</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>181</v>
+      <c r="Y18" s="5">
+        <v>2221</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB18" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC18" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C19" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J19" s="5">
-        <v>39829</v>
+      <c r="I19" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J19" s="6">
+        <v>40665</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="M19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -3096,81 +3116,81 @@
         <v>13</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W19" s="2">
         <v>43830</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y19" s="4">
-        <v>2221</v>
-      </c>
-      <c r="Z19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>181</v>
+      <c r="Y19" s="5">
+        <v>3009</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB19" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC19" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C20" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J20" s="5">
-        <v>40665</v>
+        <v>44926</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="J20" s="6">
+        <v>41730</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="M20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R20" s="2" t="s">
@@ -3186,81 +3206,81 @@
         <v>13</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W20" s="2">
         <v>43830</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y20" s="4">
-        <v>3009</v>
-      </c>
-      <c r="Z20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>181</v>
+      <c r="Y20" s="5">
+        <v>2479</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB20" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC20" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C21" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="5">
+        <v>44926</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J21" s="6">
         <v>38626</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N21" s="4" t="s">
+      <c r="M21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -3276,81 +3296,81 @@
         <v>13</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W21" s="2">
         <v>43830</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="5">
         <v>2223</v>
       </c>
-      <c r="Z21" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>181</v>
+      <c r="Z21" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB21" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC21" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C22" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J22" s="5">
-        <v>41730</v>
+        <v>44926</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J22" s="6">
+        <v>44761</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -3366,81 +3386,81 @@
         <v>13</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W22" s="2">
         <v>43830</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y22" s="4">
-        <v>2479</v>
-      </c>
-      <c r="Z22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>181</v>
+      <c r="Y22" s="5">
+        <v>2223</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB22" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC22" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C23" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J23" s="5">
-        <v>39829</v>
+        <v>44926</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J23" s="6">
+        <v>43719</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3456,81 +3476,81 @@
         <v>13</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W23" s="2">
         <v>43830</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y23" s="4">
-        <v>2221</v>
-      </c>
-      <c r="Z23" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>181</v>
+      <c r="Y23" s="5">
+        <v>2343</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB23" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC23" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C24" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J24" s="5">
-        <v>44761</v>
+        <v>44926</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J24" s="6">
+        <v>44120</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N24" s="4" t="s">
+      <c r="M24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -3546,81 +3566,81 @@
         <v>13</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W24" s="2">
         <v>43830</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y24" s="4">
-        <v>2223</v>
-      </c>
-      <c r="Z24" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>181</v>
+      <c r="Y24" s="5">
+        <v>2528</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB24" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC24" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C25" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J25" s="5">
-        <v>41883</v>
+        <v>44926</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="J25" s="6">
+        <v>44761</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N25" s="4" t="s">
+      <c r="M25" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -3636,81 +3656,81 @@
         <v>13</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W25" s="2">
         <v>43830</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y25" s="5">
         <v>2252</v>
       </c>
-      <c r="Z25" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA25" s="4" t="s">
-        <v>181</v>
+      <c r="Z25" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB25" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC25" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C26" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J26" s="5">
-        <v>43719</v>
+        <v>44926</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" s="6">
+        <v>44774</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N26" s="4" t="s">
+      <c r="M26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -3726,81 +3746,81 @@
         <v>13</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W26" s="2">
         <v>43830</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y26" s="4">
-        <v>2343</v>
-      </c>
-      <c r="Z26" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA26" s="4" t="s">
-        <v>181</v>
+      <c r="Y26" s="5">
+        <v>2214</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB26" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC26" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C27" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J27" s="5">
-        <v>44120</v>
+        <v>44926</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="6">
+        <v>37865</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N27" s="4" t="s">
+      <c r="M27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -3816,81 +3836,81 @@
         <v>13</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W27" s="2">
         <v>43830</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X27" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y27" s="4">
-        <v>2528</v>
-      </c>
-      <c r="Z27" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>181</v>
+      <c r="Y27" s="5">
+        <v>2503</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB27" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC27" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C28" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="5">
-        <v>40679</v>
+        <v>44926</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" s="6">
+        <v>39295</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N28" s="4" t="s">
+      <c r="M28" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -3906,81 +3926,81 @@
         <v>13</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W28" s="2">
         <v>43830</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y28" s="4">
-        <v>2381</v>
-      </c>
-      <c r="Z28" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA28" s="4" t="s">
-        <v>181</v>
+      <c r="Y28" s="5">
+        <v>2503</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB28" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC28" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C29" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" s="5">
-        <v>44774</v>
+        <v>44926</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="6">
+        <v>43831</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N29" s="4" t="s">
+      <c r="M29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R29" s="2" t="s">
@@ -3996,81 +4016,81 @@
         <v>13</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W29" s="2">
         <v>43830</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X29" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y29" s="4">
-        <v>2214</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>181</v>
+      <c r="Y29" s="5">
+        <v>2503</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB29" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC29" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C30" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" s="5">
-        <v>44774</v>
+        <v>44926</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" s="6">
+        <v>43537</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N30" s="4" t="s">
+      <c r="M30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R30" s="2" t="s">
@@ -4086,81 +4106,81 @@
         <v>13</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W30" s="2">
         <v>43830</v>
       </c>
-      <c r="X30" s="4">
+      <c r="X30" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y30" s="4">
-        <v>2250</v>
-      </c>
-      <c r="Z30" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA30" s="4" t="s">
-        <v>181</v>
+      <c r="Y30" s="5">
+        <v>2503</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB30" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC30" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C31" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J31" s="5">
-        <v>37865</v>
+        <v>44926</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" s="6">
+        <v>44774</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N31" s="4" t="s">
+      <c r="M31" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R31" s="2" t="s">
@@ -4176,81 +4196,81 @@
         <v>13</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W31" s="2">
         <v>43830</v>
       </c>
-      <c r="X31" s="4">
+      <c r="X31" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y31" s="4">
-        <v>2503</v>
-      </c>
-      <c r="Z31" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA31" s="4" t="s">
-        <v>181</v>
+      <c r="Y31" s="5">
+        <v>2250</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB31" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC31" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C32" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J32" s="5">
-        <v>39295</v>
+        <v>44926</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="6">
+        <v>42095</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N32" s="4" t="s">
+      <c r="M32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R32" s="2" t="s">
@@ -4266,81 +4286,73 @@
         <v>13</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W32" s="2">
         <v>43830</v>
       </c>
-      <c r="X32" s="4">
+      <c r="X32" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y32" s="4">
-        <v>2503</v>
-      </c>
-      <c r="Z32" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA32" s="4" t="s">
-        <v>181</v>
+      <c r="Y32" s="5">
+        <v>2210</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB32" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC32" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C33" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J33" s="5">
-        <v>43831</v>
-      </c>
+        <v>44926</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N33" s="4" t="s">
+      <c r="M33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -4356,81 +4368,81 @@
         <v>13</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W33" s="2">
         <v>43830</v>
       </c>
-      <c r="X33" s="4">
+      <c r="X33" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y33" s="4">
-        <v>2503</v>
-      </c>
-      <c r="Z33" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA33" s="4" t="s">
-        <v>181</v>
+      <c r="Y33" s="5">
+        <v>2464</v>
+      </c>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB33" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC33" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+        <v>44936</v>
+      </c>
+      <c r="AD33" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C34" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J34" s="5">
-        <v>43537</v>
+        <v>44926</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" s="6">
+        <v>44774</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N34" s="4" t="s">
+      <c r="M34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -4446,81 +4458,81 @@
         <v>13</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W34" s="2">
         <v>43830</v>
       </c>
-      <c r="X34" s="4">
+      <c r="X34" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y34" s="4">
-        <v>2503</v>
-      </c>
-      <c r="Z34" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA34" s="4" t="s">
-        <v>181</v>
+      <c r="Y34" s="5">
+        <v>2228</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB34" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC34" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD34" s="2"/>
     </row>
-    <row r="35" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C35" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" s="5">
-        <v>42095</v>
+        <v>44926</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="6">
+        <v>41277</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N35" s="4" t="s">
+      <c r="M35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -4536,81 +4548,81 @@
         <v>13</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W35" s="2">
         <v>43830</v>
       </c>
-      <c r="X35" s="4">
+      <c r="X35" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y35" s="4">
-        <v>2210</v>
-      </c>
-      <c r="Z35" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA35" s="4" t="s">
-        <v>181</v>
+      <c r="Y35" s="5">
+        <v>2215</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB35" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC35" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C36" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J36" s="5">
-        <v>37956</v>
+        <v>44926</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" s="6">
+        <v>39326</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N36" s="4" t="s">
+      <c r="M36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R36" s="2" t="s">
@@ -4626,81 +4638,81 @@
         <v>13</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W36" s="2">
         <v>43830</v>
       </c>
-      <c r="X36" s="4">
+      <c r="X36" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y36" s="4">
-        <v>2265</v>
-      </c>
-      <c r="Z36" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA36" s="4" t="s">
-        <v>181</v>
+      <c r="Y36" s="5">
+        <v>2230</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB36" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC36" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD36" s="2"/>
     </row>
-    <row r="37" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C37" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J37" s="5">
-        <v>44728</v>
+        <v>44926</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="6">
+        <v>44774</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N37" s="4" t="s">
+      <c r="M37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -4716,81 +4728,81 @@
         <v>13</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W37" s="2">
         <v>43830</v>
       </c>
-      <c r="X37" s="4">
+      <c r="X37" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y37" s="4">
-        <v>2274</v>
-      </c>
-      <c r="Z37" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA37" s="4" t="s">
-        <v>181</v>
+      <c r="Y37" s="5">
+        <v>2205</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB37" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC37" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD37" s="2"/>
     </row>
-    <row r="38" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C38" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J38" s="5">
-        <v>43517</v>
+        <v>44926</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38" s="6">
+        <v>38384</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N38" s="4" t="s">
+      <c r="M38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -4806,81 +4818,81 @@
         <v>13</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W38" s="2">
         <v>43830</v>
       </c>
-      <c r="X38" s="4">
+      <c r="X38" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y38" s="4">
-        <v>2824</v>
-      </c>
-      <c r="Z38" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA38" s="4" t="s">
-        <v>181</v>
+      <c r="Y38" s="5">
+        <v>2205</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB38" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC38" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD38" s="2"/>
     </row>
-    <row r="39" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C39" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="5">
-        <v>38384</v>
+        <v>44926</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J39" s="6">
+        <v>43877</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N39" s="4" t="s">
+      <c r="M39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R39" s="2" t="s">
@@ -4896,81 +4908,81 @@
         <v>13</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W39" s="2">
         <v>43830</v>
       </c>
-      <c r="X39" s="4">
+      <c r="X39" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y39" s="4">
-        <v>2205</v>
-      </c>
-      <c r="Z39" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>181</v>
+      <c r="Y39" s="5">
+        <v>2204</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB39" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC39" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD39" s="2"/>
     </row>
-    <row r="40" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C40" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J40" s="5">
-        <v>40452</v>
+        <v>44926</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J40" s="6">
+        <v>38626</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N40" s="4" t="s">
+      <c r="M40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R40" s="2" t="s">
@@ -4986,81 +4998,81 @@
         <v>13</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W40" s="2">
         <v>43830</v>
       </c>
-      <c r="X40" s="4">
+      <c r="X40" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y40" s="4">
-        <v>2300</v>
-      </c>
-      <c r="Z40" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA40" s="4" t="s">
-        <v>181</v>
+      <c r="Y40" s="5">
+        <v>2259</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB40" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC40" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C41" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" s="5">
-        <v>44516</v>
+        <v>44926</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J41" s="6">
+        <v>43466</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N41" s="4" t="s">
+      <c r="M41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R41" s="2" t="s">
@@ -5076,81 +5088,81 @@
         <v>13</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W41" s="2">
         <v>43830</v>
       </c>
-      <c r="X41" s="4">
+      <c r="X41" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y41" s="4">
-        <v>2443</v>
-      </c>
-      <c r="Z41" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA41" s="4" t="s">
-        <v>181</v>
+      <c r="Y41" s="5">
+        <v>2311</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB41" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC41" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C42" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J42" s="5">
-        <v>41277</v>
+        <v>44926</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J42" s="6">
+        <v>43517</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N42" s="4" t="s">
+      <c r="M42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N42" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q42" s="6" t="s">
+      <c r="Q42" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R42" s="2" t="s">
@@ -5166,81 +5178,81 @@
         <v>13</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W42" s="2">
         <v>43830</v>
       </c>
-      <c r="X42" s="4">
+      <c r="X42" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y42" s="4">
-        <v>2215</v>
-      </c>
-      <c r="Z42" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA42" s="4" t="s">
-        <v>181</v>
+      <c r="Y42" s="5">
+        <v>2824</v>
+      </c>
+      <c r="Z42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB42" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC42" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C43" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" s="5">
-        <v>39326</v>
+        <v>44926</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J43" s="6">
+        <v>40452</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N43" s="4" t="s">
+      <c r="M43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q43" s="6" t="s">
+      <c r="Q43" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R43" s="2" t="s">
@@ -5256,81 +5268,81 @@
         <v>13</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W43" s="2">
         <v>43830</v>
       </c>
-      <c r="X43" s="4">
+      <c r="X43" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y43" s="4">
-        <v>2230</v>
-      </c>
-      <c r="Z43" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA43" s="4" t="s">
-        <v>181</v>
+      <c r="Y43" s="5">
+        <v>2300</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB43" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC43" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD43" s="2"/>
     </row>
-    <row r="44" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C44" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J44" s="5">
-        <v>40547</v>
+        <v>44926</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" s="6">
+        <v>44516</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N44" s="4" t="s">
+      <c r="M44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N44" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q44" s="6" t="s">
+      <c r="Q44" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R44" s="2" t="s">
@@ -5346,81 +5358,81 @@
         <v>13</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W44" s="2">
         <v>43830</v>
       </c>
-      <c r="X44" s="4">
+      <c r="X44" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y44" s="4">
-        <v>2493</v>
-      </c>
-      <c r="Z44" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA44" s="4" t="s">
-        <v>181</v>
+      <c r="Y44" s="5">
+        <v>2300</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB44" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC44" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C45" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J45" s="5">
-        <v>43877</v>
+        <v>44926</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" s="6">
+        <v>42646</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N45" s="4" t="s">
+      <c r="M45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N45" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R45" s="2" t="s">
@@ -5436,81 +5448,81 @@
         <v>13</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W45" s="2">
         <v>43830</v>
       </c>
-      <c r="X45" s="4">
+      <c r="X45" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y45" s="4">
-        <v>2204</v>
-      </c>
-      <c r="Z45" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA45" s="4" t="s">
-        <v>181</v>
+      <c r="Y45" s="5">
+        <v>2450</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB45" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC45" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C46" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F46" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J46" s="5">
-        <v>38626</v>
+      <c r="H46" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" s="6">
+        <v>44713</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N46" s="4" t="s">
+      <c r="M46" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N46" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R46" s="2" t="s">
@@ -5526,81 +5538,81 @@
         <v>13</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W46" s="2">
         <v>43830</v>
       </c>
-      <c r="X46" s="4">
+      <c r="X46" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y46" s="4">
-        <v>2259</v>
-      </c>
-      <c r="Z46" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA46" s="4" t="s">
-        <v>181</v>
+      <c r="Y46" s="5">
+        <v>2316</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB46" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC46" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD46" s="2"/>
     </row>
-    <row r="47" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C47" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J47" s="5">
-        <v>42646</v>
+        <v>44926</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="6">
+        <v>42445</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L47" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N47" s="4" t="s">
+      <c r="M47" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R47" s="2" t="s">
@@ -5616,81 +5628,81 @@
         <v>13</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W47" s="2">
         <v>43830</v>
       </c>
-      <c r="X47" s="4">
+      <c r="X47" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y47" s="4">
-        <v>2450</v>
-      </c>
-      <c r="Z47" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA47" s="4" t="s">
-        <v>181</v>
+      <c r="Y47" s="5">
+        <v>2820</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB47" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC47" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD47" s="2"/>
     </row>
-    <row r="48" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C48" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J48" s="5">
-        <v>43466</v>
+        <v>44926</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48" s="6">
+        <v>43160</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L48" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N48" s="4" t="s">
+      <c r="M48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R48" s="2" t="s">
@@ -5706,81 +5718,81 @@
         <v>13</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W48" s="2">
         <v>43830</v>
       </c>
-      <c r="X48" s="4">
+      <c r="X48" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y48" s="4">
-        <v>2311</v>
-      </c>
-      <c r="Z48" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA48" s="4" t="s">
-        <v>181</v>
+      <c r="Y48" s="5">
+        <v>2227</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB48" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC48" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD48" s="2"/>
     </row>
-    <row r="49" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C49" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J49" s="5">
-        <v>44713</v>
+        <v>44926</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" s="6">
+        <v>44636</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N49" s="4" t="s">
+      <c r="M49" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N49" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q49" s="6" t="s">
+      <c r="Q49" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R49" s="2" t="s">
@@ -5796,81 +5808,81 @@
         <v>13</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W49" s="2">
         <v>43830</v>
       </c>
-      <c r="X49" s="4">
+      <c r="X49" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y49" s="4">
-        <v>2316</v>
-      </c>
-      <c r="Z49" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA49" s="4" t="s">
-        <v>181</v>
+      <c r="Y49" s="5">
+        <v>2253</v>
+      </c>
+      <c r="Z49" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB49" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC49" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C50" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J50" s="5">
-        <v>38504</v>
+        <v>44926</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="6">
+        <v>42767</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N50" s="4" t="s">
+      <c r="M50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N50" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q50" s="6" t="s">
+      <c r="Q50" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R50" s="2" t="s">
@@ -5886,81 +5898,81 @@
         <v>13</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W50" s="2">
         <v>43830</v>
       </c>
-      <c r="X50" s="4">
+      <c r="X50" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y50" s="4">
-        <v>2401</v>
-      </c>
-      <c r="Z50" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA50" s="4" t="s">
-        <v>181</v>
+      <c r="Y50" s="5">
+        <v>2217</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB50" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC50" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C51" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G51" s="4" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J51" s="5">
-        <v>42445</v>
+      <c r="F51" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" s="6">
+        <v>42810</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L51" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N51" s="4" t="s">
+      <c r="M51" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N51" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q51" s="6" t="s">
+      <c r="Q51" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R51" s="2" t="s">
@@ -5976,81 +5988,81 @@
         <v>13</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W51" s="2">
         <v>43830</v>
       </c>
-      <c r="X51" s="4">
+      <c r="X51" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y51" s="4">
-        <v>2210</v>
-      </c>
-      <c r="Z51" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA51" s="4" t="s">
-        <v>181</v>
+      <c r="Y51" s="5">
+        <v>3006</v>
+      </c>
+      <c r="Z51" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA51" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB51" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC51" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C52" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J52" s="5">
-        <v>43160</v>
+        <v>44926</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" s="6">
+        <v>44774</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N52" s="4" t="s">
+      <c r="M52" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q52" s="6" t="s">
+      <c r="Q52" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R52" s="2" t="s">
@@ -6066,81 +6078,81 @@
         <v>13</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W52" s="2">
         <v>43830</v>
       </c>
-      <c r="X52" s="4">
+      <c r="X52" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y52" s="4">
-        <v>2227</v>
-      </c>
-      <c r="Z52" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA52" s="4" t="s">
-        <v>181</v>
+      <c r="Y52" s="5">
+        <v>2464</v>
+      </c>
+      <c r="Z52" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB52" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC52" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C53" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J53" s="5">
-        <v>44636</v>
+        <v>44926</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" s="6">
+        <v>44774</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L53" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N53" s="4" t="s">
+      <c r="M53" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N53" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q53" s="6" t="s">
+      <c r="Q53" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R53" s="2" t="s">
@@ -6156,81 +6168,81 @@
         <v>13</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W53" s="2">
         <v>43830</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X53" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y53" s="4">
-        <v>2253</v>
-      </c>
-      <c r="Z53" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA53" s="4" t="s">
-        <v>181</v>
+      <c r="Y53" s="5">
+        <v>2464</v>
+      </c>
+      <c r="Z53" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA53" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB53" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC53" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C54" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J54" s="5">
-        <v>42767</v>
+        <v>44926</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="6">
+        <v>42979</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L54" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N54" s="4" t="s">
+      <c r="M54" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N54" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q54" s="6" t="s">
+      <c r="Q54" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R54" s="2" t="s">
@@ -6246,81 +6258,81 @@
         <v>13</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W54" s="2">
         <v>43830</v>
       </c>
-      <c r="X54" s="4">
+      <c r="X54" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y54" s="4">
-        <v>2231</v>
-      </c>
-      <c r="Z54" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA54" s="4" t="s">
-        <v>181</v>
+      <c r="Y54" s="5">
+        <v>2464</v>
+      </c>
+      <c r="Z54" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB54" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC54" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C55" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J55" s="5">
-        <v>42979</v>
+        <v>44926</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" s="6">
+        <v>42767</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N55" s="4" t="s">
+      <c r="M55" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q55" s="6" t="s">
+      <c r="Q55" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R55" s="2" t="s">
@@ -6336,79 +6348,81 @@
         <v>13</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W55" s="2">
         <v>43830</v>
       </c>
-      <c r="X55" s="4">
+      <c r="X55" s="5">
         <v>7717159903</v>
       </c>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA55" s="4" t="s">
-        <v>181</v>
+      <c r="Y55" s="5">
+        <v>2218</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB55" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC55" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C56" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J56" s="5">
-        <v>42810</v>
+        <v>44926</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J56" s="6">
+        <v>38687</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N56" s="4" t="s">
+      <c r="M56" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q56" s="6" t="s">
+      <c r="Q56" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R56" s="2" t="s">
@@ -6424,81 +6438,81 @@
         <v>13</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W56" s="2">
         <v>43830</v>
       </c>
-      <c r="X56" s="4">
+      <c r="X56" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y56" s="4">
-        <v>3006</v>
-      </c>
-      <c r="Z56" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA56" s="4" t="s">
-        <v>181</v>
+      <c r="Y56" s="5">
+        <v>2231</v>
+      </c>
+      <c r="Z56" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA56" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB56" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC56" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C57" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J57" s="5">
-        <v>38687</v>
+        <v>44926</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J57" s="6">
+        <v>39569</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N57" s="4" t="s">
+      <c r="M57" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N57" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q57" s="6" t="s">
+      <c r="Q57" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R57" s="2" t="s">
@@ -6514,81 +6528,81 @@
         <v>13</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W57" s="2">
         <v>43830</v>
       </c>
-      <c r="X57" s="4">
+      <c r="X57" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y57" s="4">
-        <v>2218</v>
-      </c>
-      <c r="Z57" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="AA57" s="4" t="s">
-        <v>181</v>
+      <c r="Y57" s="5">
+        <v>2213</v>
+      </c>
+      <c r="Z57" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA57" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB57" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC57" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C58" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J58" s="5">
-        <v>42767</v>
+        <v>44926</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J58" s="6">
+        <v>41141</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L58" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N58" s="4" t="s">
+      <c r="M58" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N58" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q58" s="6" t="s">
+      <c r="Q58" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R58" s="2" t="s">
@@ -6604,81 +6618,81 @@
         <v>13</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W58" s="2">
         <v>43830</v>
       </c>
-      <c r="X58" s="4">
+      <c r="X58" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y58" s="4">
-        <v>2217</v>
-      </c>
-      <c r="Z58" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA58" s="4" t="s">
-        <v>181</v>
+      <c r="Y58" s="5">
+        <v>2233</v>
+      </c>
+      <c r="Z58" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA58" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB58" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC58" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C59" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J59" s="5">
-        <v>39569</v>
+        <v>44926</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J59" s="6">
+        <v>44774</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L59" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N59" s="4" t="s">
+      <c r="M59" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N59" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q59" s="6" t="s">
+      <c r="Q59" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R59" s="2" t="s">
@@ -6694,81 +6708,81 @@
         <v>13</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W59" s="2">
         <v>43830</v>
       </c>
-      <c r="X59" s="4">
+      <c r="X59" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y59" s="4">
-        <v>2213</v>
-      </c>
-      <c r="Z59" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA59" s="4" t="s">
-        <v>181</v>
+      <c r="Y59" s="5">
+        <v>2474</v>
+      </c>
+      <c r="Z59" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA59" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB59" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC59" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C60" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" s="5">
-        <v>41141</v>
+        <v>44926</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J60" s="6">
+        <v>44774</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L60" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M60" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N60" s="4" t="s">
+      <c r="M60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N60" s="5" t="s">
         <v>176</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q60" s="6" t="s">
+      <c r="Q60" s="7" t="s">
         <v>178</v>
       </c>
       <c r="R60" s="2" t="s">
@@ -6784,28 +6798,28 @@
         <v>13</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W60" s="2">
         <v>43830</v>
       </c>
-      <c r="X60" s="4">
+      <c r="X60" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y60" s="4">
-        <v>2233</v>
-      </c>
-      <c r="Z60" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA60" s="4" t="s">
-        <v>181</v>
+      <c r="Y60" s="5">
+        <v>2228</v>
+      </c>
+      <c r="Z60" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA60" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="AB60" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AC60" s="3">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="AD60" s="2"/>
     </row>
@@ -6820,77 +6834,76 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K200" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O200" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V200" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V201">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Z8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Z9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Z10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Z13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Z14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="Z15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Z16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Z11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Z17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Z18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Z19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="Z20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Z21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="Z22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Z23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="Z24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="Z25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Z26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="Z27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Z28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="Z32" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="Z34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="Z35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="Z36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="Z37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="Z38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="Z39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Z40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="Z41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Z42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="Z43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="Z44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="Z45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Z46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="Z47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Z48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="Z51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Z52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="Z54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Z55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="Z56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Z57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="Z58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Z59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="Z60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Z33" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="Z50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Z31" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="Z49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Z53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="Z30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Z29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Z8" r:id="rId1"/>
+    <hyperlink ref="Z9" r:id="rId2"/>
+    <hyperlink ref="Z10" r:id="rId3"/>
+    <hyperlink ref="Z16" r:id="rId4"/>
+    <hyperlink ref="Z13" r:id="rId5"/>
+    <hyperlink ref="Z14" r:id="rId6"/>
+    <hyperlink ref="Z11" r:id="rId7"/>
+    <hyperlink ref="Z15" r:id="rId8"/>
+    <hyperlink ref="Z17" r:id="rId9"/>
+    <hyperlink ref="Z19" r:id="rId10"/>
+    <hyperlink ref="Z20" r:id="rId11"/>
+    <hyperlink ref="Z22" r:id="rId12"/>
+    <hyperlink ref="Z25" r:id="rId13"/>
+    <hyperlink ref="Z23" r:id="rId14"/>
+    <hyperlink ref="Z24" r:id="rId15"/>
+    <hyperlink ref="Z28" r:id="rId16"/>
+    <hyperlink ref="Z30" r:id="rId17"/>
+    <hyperlink ref="Z32" r:id="rId18"/>
+    <hyperlink ref="Z34" r:id="rId19"/>
+    <hyperlink ref="Z42" r:id="rId20"/>
+    <hyperlink ref="Z38" r:id="rId21"/>
+    <hyperlink ref="Z43" r:id="rId22"/>
+    <hyperlink ref="Z35" r:id="rId23"/>
+    <hyperlink ref="Z36" r:id="rId24"/>
+    <hyperlink ref="Z39" r:id="rId25"/>
+    <hyperlink ref="Z40" r:id="rId26"/>
+    <hyperlink ref="Z45" r:id="rId27"/>
+    <hyperlink ref="Z47" r:id="rId28"/>
+    <hyperlink ref="Z48" r:id="rId29"/>
+    <hyperlink ref="Z56" r:id="rId30"/>
+    <hyperlink ref="Z54" r:id="rId31"/>
+    <hyperlink ref="Z51" r:id="rId32"/>
+    <hyperlink ref="Z55" r:id="rId33"/>
+    <hyperlink ref="Z50" r:id="rId34"/>
+    <hyperlink ref="Z57" r:id="rId35"/>
+    <hyperlink ref="Z58" r:id="rId36"/>
+    <hyperlink ref="Z29" r:id="rId37"/>
+    <hyperlink ref="Z60" r:id="rId38"/>
+    <hyperlink ref="Z27" r:id="rId39"/>
+    <hyperlink ref="Z46" r:id="rId40"/>
+    <hyperlink ref="Z49" r:id="rId41"/>
+    <hyperlink ref="Z31" r:id="rId42"/>
+    <hyperlink ref="Z26" r:id="rId43"/>
+    <hyperlink ref="Z12" r:id="rId44"/>
+    <hyperlink ref="Z37" r:id="rId45"/>
+    <hyperlink ref="Z18" r:id="rId46"/>
+    <hyperlink ref="Z21" r:id="rId47"/>
+    <hyperlink ref="Z41" r:id="rId48"/>
+    <hyperlink ref="Z44" r:id="rId49"/>
+    <hyperlink ref="Z52" r:id="rId50"/>
+    <hyperlink ref="Z53" r:id="rId51"/>
+    <hyperlink ref="Z59" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6899,132 +6912,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7033,7 +7046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7042,207 +7055,207 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7251,7 +7264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7260,162 +7273,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f07UPPachuca.xlsx
+++ b/xlsx/a69_f07UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1384,7 +1379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1396,7 +1391,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1693,7 +1687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1701,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AE51" sqref="AE51"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,38 +1741,38 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:30" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1965,38 +1959,38 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
     </row>
     <row r="7" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2100,37 +2094,37 @@
       <c r="C8" s="4">
         <v>45016</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>44973</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -2139,7 +2133,7 @@
       <c r="P8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -2160,16 +2154,16 @@
       <c r="W8" s="3">
         <v>43830</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <v>2200</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Z8" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AA8" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB8" s="4">
@@ -2190,37 +2184,37 @@
       <c r="C9" s="4">
         <v>45016</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>39083</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -2229,7 +2223,7 @@
       <c r="P9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -2250,16 +2244,16 @@
       <c r="W9" s="3">
         <v>43830</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <v>2205</v>
       </c>
-      <c r="Z9" s="9" t="s">
+      <c r="Z9" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AA9" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB9" s="4">
@@ -2280,37 +2274,37 @@
       <c r="C10" s="4">
         <v>45016</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>45001</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -2319,7 +2313,7 @@
       <c r="P10" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -2340,16 +2334,16 @@
       <c r="W10" s="3">
         <v>43830</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>2251</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="Z10" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" s="6" t="s">
+      <c r="AA10" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB10" s="4">
@@ -2370,37 +2364,37 @@
       <c r="C11" s="4">
         <v>45016</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>38657</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="M11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -2409,7 +2403,7 @@
       <c r="P11" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R11" s="3" t="s">
@@ -2430,16 +2424,16 @@
       <c r="W11" s="3">
         <v>43830</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <v>2450</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="Z11" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="AA11" s="6" t="s">
+      <c r="AA11" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB11" s="4">
@@ -2460,37 +2454,37 @@
       <c r="C12" s="4">
         <v>45016</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>44761</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="M12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -2499,7 +2493,7 @@
       <c r="P12" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -2520,16 +2514,16 @@
       <c r="W12" s="3">
         <v>43830</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="5">
         <v>2205</v>
       </c>
-      <c r="Z12" s="9" t="s">
+      <c r="Z12" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AA12" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB12" s="4">
@@ -2550,37 +2544,37 @@
       <c r="C13" s="4">
         <v>45016</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>43221</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="M13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -2589,7 +2583,7 @@
       <c r="P13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R13" s="3" t="s">
@@ -2610,16 +2604,16 @@
       <c r="W13" s="3">
         <v>43830</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <v>2443</v>
       </c>
-      <c r="Z13" s="9" t="s">
+      <c r="Z13" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AA13" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB13" s="4">
@@ -2640,37 +2634,37 @@
       <c r="C14" s="4">
         <v>45016</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>43739</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N14" s="6" t="s">
+      <c r="M14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -2679,7 +2673,7 @@
       <c r="P14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R14" s="3" t="s">
@@ -2700,16 +2694,16 @@
       <c r="W14" s="3">
         <v>43830</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <v>2214</v>
       </c>
-      <c r="Z14" s="9" t="s">
+      <c r="Z14" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AA14" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB14" s="4">
@@ -2730,37 +2724,37 @@
       <c r="C15" s="4">
         <v>45016</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>38726</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="M15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -2769,7 +2763,7 @@
       <c r="P15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R15" s="3" t="s">
@@ -2790,16 +2784,16 @@
       <c r="W15" s="3">
         <v>43830</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <v>2276</v>
       </c>
-      <c r="Z15" s="9" t="s">
+      <c r="Z15" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="AA15" s="6" t="s">
+      <c r="AA15" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB15" s="4">
@@ -2820,37 +2814,37 @@
       <c r="C16" s="4">
         <v>45016</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>44166</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="M16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -2859,7 +2853,7 @@
       <c r="P16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R16" s="3" t="s">
@@ -2880,16 +2874,16 @@
       <c r="W16" s="3">
         <v>43830</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="5">
         <v>2300</v>
       </c>
-      <c r="Z16" s="9" t="s">
+      <c r="Z16" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AA16" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB16" s="4">
@@ -2910,37 +2904,37 @@
       <c r="C17" s="4">
         <v>45016</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>42860</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="M17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -2949,7 +2943,7 @@
       <c r="P17" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R17" s="3" t="s">
@@ -2970,16 +2964,16 @@
       <c r="W17" s="3">
         <v>43830</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <v>2228</v>
       </c>
-      <c r="Z17" s="9" t="s">
+      <c r="Z17" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AA17" s="6" t="s">
+      <c r="AA17" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB17" s="4">
@@ -3000,37 +2994,37 @@
       <c r="C18" s="4">
         <v>45016</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>39829</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="M18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -3039,7 +3033,7 @@
       <c r="P18" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -3060,16 +3054,16 @@
       <c r="W18" s="3">
         <v>43830</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <v>2221</v>
       </c>
-      <c r="Z18" s="9" t="s">
+      <c r="Z18" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AA18" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB18" s="4">
@@ -3090,37 +3084,37 @@
       <c r="C19" s="4">
         <v>45016</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>40665</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="M19" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -3129,7 +3123,7 @@
       <c r="P19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -3150,16 +3144,16 @@
       <c r="W19" s="3">
         <v>43830</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <v>3009</v>
       </c>
-      <c r="Z19" s="9" t="s">
+      <c r="Z19" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AA19" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB19" s="4">
@@ -3180,37 +3174,37 @@
       <c r="C20" s="4">
         <v>45016</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>41730</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N20" s="6" t="s">
+      <c r="M20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -3219,7 +3213,7 @@
       <c r="P20" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R20" s="3" t="s">
@@ -3240,16 +3234,16 @@
       <c r="W20" s="3">
         <v>43830</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="5">
         <v>2479</v>
       </c>
-      <c r="Z20" s="9" t="s">
+      <c r="Z20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AA20" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB20" s="4">
@@ -3270,37 +3264,37 @@
       <c r="C21" s="4">
         <v>45016</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>38626</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="M21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O21" s="3" t="s">
@@ -3309,7 +3303,7 @@
       <c r="P21" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R21" s="3" t="s">
@@ -3330,16 +3324,16 @@
       <c r="W21" s="3">
         <v>43830</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="5">
         <v>2223</v>
       </c>
-      <c r="Z21" s="9" t="s">
+      <c r="Z21" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="AA21" s="6" t="s">
+      <c r="AA21" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB21" s="4">
@@ -3360,37 +3354,37 @@
       <c r="C22" s="4">
         <v>45016</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>44761</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N22" s="6" t="s">
+      <c r="M22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -3399,7 +3393,7 @@
       <c r="P22" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R22" s="3" t="s">
@@ -3420,16 +3414,16 @@
       <c r="W22" s="3">
         <v>43830</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="5">
         <v>2223</v>
       </c>
-      <c r="Z22" s="9" t="s">
+      <c r="Z22" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="AA22" s="6" t="s">
+      <c r="AA22" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB22" s="4">
@@ -3450,37 +3444,37 @@
       <c r="C23" s="4">
         <v>45016</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>43719</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="M23" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -3489,7 +3483,7 @@
       <c r="P23" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R23" s="3" t="s">
@@ -3510,16 +3504,16 @@
       <c r="W23" s="3">
         <v>43830</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="5">
         <v>2343</v>
       </c>
-      <c r="Z23" s="9" t="s">
+      <c r="Z23" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AA23" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB23" s="4">
@@ -3530,7 +3524,7 @@
       </c>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2023</v>
       </c>
@@ -3540,37 +3534,37 @@
       <c r="C24" s="4">
         <v>45016</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>44120</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N24" s="6" t="s">
+      <c r="M24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -3579,7 +3573,7 @@
       <c r="P24" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R24" s="3" t="s">
@@ -3600,16 +3594,16 @@
       <c r="W24" s="3">
         <v>43830</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="5">
         <v>2528</v>
       </c>
-      <c r="Z24" s="9" t="s">
+      <c r="Z24" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AA24" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB24" s="4">
@@ -3630,37 +3624,37 @@
       <c r="C25" s="4">
         <v>45016</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>44761</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="M25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O25" s="3" t="s">
@@ -3669,7 +3663,7 @@
       <c r="P25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R25" s="3" t="s">
@@ -3690,16 +3684,16 @@
       <c r="W25" s="3">
         <v>43830</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="5">
         <v>2252</v>
       </c>
-      <c r="Z25" s="9" t="s">
+      <c r="Z25" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AA25" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB25" s="4">
@@ -3720,37 +3714,37 @@
       <c r="C26" s="4">
         <v>45016</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>44774</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N26" s="6" t="s">
+      <c r="M26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -3759,7 +3753,7 @@
       <c r="P26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R26" s="3" t="s">
@@ -3780,16 +3774,16 @@
       <c r="W26" s="3">
         <v>43830</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="5">
         <v>2214</v>
       </c>
-      <c r="Z26" s="9" t="s">
+      <c r="Z26" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AA26" s="6" t="s">
+      <c r="AA26" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB26" s="4">
@@ -3810,37 +3804,37 @@
       <c r="C27" s="4">
         <v>45016</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>37865</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="M27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O27" s="3" t="s">
@@ -3849,7 +3843,7 @@
       <c r="P27" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R27" s="3" t="s">
@@ -3870,16 +3864,16 @@
       <c r="W27" s="3">
         <v>43830</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y27" s="5">
         <v>2503</v>
       </c>
-      <c r="Z27" s="9" t="s">
+      <c r="Z27" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AA27" s="6" t="s">
+      <c r="AA27" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB27" s="4">
@@ -3900,37 +3894,37 @@
       <c r="C28" s="4">
         <v>45016</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>39295</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N28" s="6" t="s">
+      <c r="M28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O28" s="3" t="s">
@@ -3939,7 +3933,7 @@
       <c r="P28" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R28" s="3" t="s">
@@ -3960,16 +3954,16 @@
       <c r="W28" s="3">
         <v>43830</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Y28" s="5">
         <v>2503</v>
       </c>
-      <c r="Z28" s="9" t="s">
+      <c r="Z28" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="AA28" s="6" t="s">
+      <c r="AA28" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB28" s="4">
@@ -3990,37 +3984,37 @@
       <c r="C29" s="4">
         <v>45016</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>43831</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="M29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O29" s="3" t="s">
@@ -4029,7 +4023,7 @@
       <c r="P29" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R29" s="3" t="s">
@@ -4050,16 +4044,16 @@
       <c r="W29" s="3">
         <v>43830</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X29" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="5">
         <v>2503</v>
       </c>
-      <c r="Z29" s="9" t="s">
+      <c r="Z29" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="AA29" s="6" t="s">
+      <c r="AA29" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB29" s="4">
@@ -4080,37 +4074,37 @@
       <c r="C30" s="4">
         <v>45016</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>43537</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N30" s="6" t="s">
+      <c r="M30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O30" s="3" t="s">
@@ -4119,7 +4113,7 @@
       <c r="P30" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R30" s="3" t="s">
@@ -4140,16 +4134,16 @@
       <c r="W30" s="3">
         <v>43830</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="5">
         <v>2503</v>
       </c>
-      <c r="Z30" s="9" t="s">
+      <c r="Z30" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="AA30" s="6" t="s">
+      <c r="AA30" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB30" s="4">
@@ -4170,37 +4164,37 @@
       <c r="C31" s="4">
         <v>45016</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>44774</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N31" s="6" t="s">
+      <c r="M31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O31" s="3" t="s">
@@ -4209,7 +4203,7 @@
       <c r="P31" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R31" s="3" t="s">
@@ -4230,16 +4224,16 @@
       <c r="W31" s="3">
         <v>43830</v>
       </c>
-      <c r="X31" s="6">
+      <c r="X31" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="5">
         <v>2250</v>
       </c>
-      <c r="Z31" s="9" t="s">
+      <c r="Z31" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AA31" s="6" t="s">
+      <c r="AA31" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB31" s="4">
@@ -4260,37 +4254,37 @@
       <c r="C32" s="4">
         <v>45016</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>42095</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="M32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O32" s="3" t="s">
@@ -4299,7 +4293,7 @@
       <c r="P32" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R32" s="3" t="s">
@@ -4320,16 +4314,16 @@
       <c r="W32" s="3">
         <v>43830</v>
       </c>
-      <c r="X32" s="6">
+      <c r="X32" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="5">
         <v>2210</v>
       </c>
-      <c r="Z32" s="9" t="s">
+      <c r="Z32" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="AA32" s="6" t="s">
+      <c r="AA32" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB32" s="4">
@@ -4350,37 +4344,37 @@
       <c r="C33" s="4">
         <v>45016</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>45001</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N33" s="6" t="s">
+      <c r="M33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O33" s="3" t="s">
@@ -4389,7 +4383,7 @@
       <c r="P33" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R33" s="3" t="s">
@@ -4410,16 +4404,16 @@
       <c r="W33" s="3">
         <v>43830</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y33" s="5">
         <v>2464</v>
       </c>
-      <c r="Z33" s="9" t="s">
+      <c r="Z33" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="AA33" s="6" t="s">
+      <c r="AA33" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB33" s="4">
@@ -4440,37 +4434,37 @@
       <c r="C34" s="4">
         <v>45016</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>44927</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N34" s="6" t="s">
+      <c r="M34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -4479,7 +4473,7 @@
       <c r="P34" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -4500,16 +4494,16 @@
       <c r="W34" s="3">
         <v>43830</v>
       </c>
-      <c r="X34" s="6">
+      <c r="X34" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Y34" s="5">
         <v>2228</v>
       </c>
-      <c r="Z34" s="9" t="s">
+      <c r="Z34" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="AA34" s="6" t="s">
+      <c r="AA34" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB34" s="4">
@@ -4530,37 +4524,37 @@
       <c r="C35" s="4">
         <v>45016</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>41277</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N35" s="6" t="s">
+      <c r="M35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O35" s="3" t="s">
@@ -4569,7 +4563,7 @@
       <c r="P35" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -4590,16 +4584,16 @@
       <c r="W35" s="3">
         <v>43830</v>
       </c>
-      <c r="X35" s="6">
+      <c r="X35" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y35" s="6">
+      <c r="Y35" s="5">
         <v>2215</v>
       </c>
-      <c r="Z35" s="9" t="s">
+      <c r="Z35" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AA35" s="6" t="s">
+      <c r="AA35" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB35" s="4">
@@ -4620,37 +4614,37 @@
       <c r="C36" s="4">
         <v>45016</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>39326</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N36" s="6" t="s">
+      <c r="M36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O36" s="3" t="s">
@@ -4659,7 +4653,7 @@
       <c r="P36" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R36" s="3" t="s">
@@ -4680,16 +4674,16 @@
       <c r="W36" s="3">
         <v>43830</v>
       </c>
-      <c r="X36" s="6">
+      <c r="X36" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y36" s="5">
         <v>2230</v>
       </c>
-      <c r="Z36" s="9" t="s">
+      <c r="Z36" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="AA36" s="6" t="s">
+      <c r="AA36" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB36" s="4">
@@ -4710,37 +4704,37 @@
       <c r="C37" s="4">
         <v>45016</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>44942</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M37" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N37" s="6" t="s">
+      <c r="M37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O37" s="3" t="s">
@@ -4749,7 +4743,7 @@
       <c r="P37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R37" s="3" t="s">
@@ -4770,16 +4764,16 @@
       <c r="W37" s="3">
         <v>43830</v>
       </c>
-      <c r="X37" s="6">
+      <c r="X37" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Y37" s="5">
         <v>2205</v>
       </c>
-      <c r="Z37" s="9" t="s">
+      <c r="Z37" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="AA37" s="6" t="s">
+      <c r="AA37" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB37" s="4">
@@ -4800,37 +4794,37 @@
       <c r="C38" s="4">
         <v>45016</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>38384</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M38" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N38" s="6" t="s">
+      <c r="M38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O38" s="3" t="s">
@@ -4839,7 +4833,7 @@
       <c r="P38" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R38" s="3" t="s">
@@ -4860,16 +4854,16 @@
       <c r="W38" s="3">
         <v>43830</v>
       </c>
-      <c r="X38" s="6">
+      <c r="X38" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Y38" s="5">
         <v>2205</v>
       </c>
-      <c r="Z38" s="9" t="s">
+      <c r="Z38" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="AA38" s="6" t="s">
+      <c r="AA38" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB38" s="4">
@@ -4890,37 +4884,37 @@
       <c r="C39" s="4">
         <v>45016</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>43877</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M39" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N39" s="6" t="s">
+      <c r="M39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O39" s="3" t="s">
@@ -4929,7 +4923,7 @@
       <c r="P39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R39" s="3" t="s">
@@ -4950,16 +4944,16 @@
       <c r="W39" s="3">
         <v>43830</v>
       </c>
-      <c r="X39" s="6">
+      <c r="X39" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Y39" s="5">
         <v>2204</v>
       </c>
-      <c r="Z39" s="9" t="s">
+      <c r="Z39" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="AA39" s="6" t="s">
+      <c r="AA39" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB39" s="4">
@@ -4970,7 +4964,7 @@
       </c>
       <c r="AD39" s="2"/>
     </row>
-    <row r="40" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2023</v>
       </c>
@@ -4980,37 +4974,37 @@
       <c r="C40" s="4">
         <v>45016</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>38626</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M40" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N40" s="6" t="s">
+      <c r="M40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O40" s="3" t="s">
@@ -5019,7 +5013,7 @@
       <c r="P40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R40" s="3" t="s">
@@ -5040,16 +5034,16 @@
       <c r="W40" s="3">
         <v>43830</v>
       </c>
-      <c r="X40" s="6">
+      <c r="X40" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Y40" s="5">
         <v>2259</v>
       </c>
-      <c r="Z40" s="9" t="s">
+      <c r="Z40" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="AA40" s="6" t="s">
+      <c r="AA40" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB40" s="4">
@@ -5060,7 +5054,7 @@
       </c>
       <c r="AD40" s="2"/>
     </row>
-    <row r="41" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2023</v>
       </c>
@@ -5070,37 +5064,37 @@
       <c r="C41" s="4">
         <v>45016</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <v>43466</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M41" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N41" s="6" t="s">
+      <c r="M41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O41" s="3" t="s">
@@ -5109,7 +5103,7 @@
       <c r="P41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="Q41" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R41" s="3" t="s">
@@ -5130,16 +5124,16 @@
       <c r="W41" s="3">
         <v>43830</v>
       </c>
-      <c r="X41" s="6">
+      <c r="X41" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Y41" s="5">
         <v>2311</v>
       </c>
-      <c r="Z41" s="9" t="s">
+      <c r="Z41" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="AA41" s="6" t="s">
+      <c r="AA41" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB41" s="4">
@@ -5150,7 +5144,7 @@
       </c>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2023</v>
       </c>
@@ -5160,37 +5154,37 @@
       <c r="C42" s="4">
         <v>45016</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>43517</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M42" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N42" s="6" t="s">
+      <c r="M42" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N42" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O42" s="3" t="s">
@@ -5199,7 +5193,7 @@
       <c r="P42" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q42" s="8" t="s">
+      <c r="Q42" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R42" s="3" t="s">
@@ -5220,16 +5214,16 @@
       <c r="W42" s="3">
         <v>43830</v>
       </c>
-      <c r="X42" s="6">
+      <c r="X42" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Y42" s="5">
         <v>2824</v>
       </c>
-      <c r="Z42" s="9" t="s">
+      <c r="Z42" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="AA42" s="6" t="s">
+      <c r="AA42" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB42" s="4">
@@ -5250,37 +5244,37 @@
       <c r="C43" s="4">
         <v>45016</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>40452</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N43" s="6" t="s">
+      <c r="M43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O43" s="3" t="s">
@@ -5289,7 +5283,7 @@
       <c r="P43" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -5310,16 +5304,16 @@
       <c r="W43" s="3">
         <v>43830</v>
       </c>
-      <c r="X43" s="6">
+      <c r="X43" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="Y43" s="5">
         <v>2300</v>
       </c>
-      <c r="Z43" s="9" t="s">
+      <c r="Z43" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="AA43" s="6" t="s">
+      <c r="AA43" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB43" s="4">
@@ -5340,37 +5334,37 @@
       <c r="C44" s="4">
         <v>45016</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>44516</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N44" s="6" t="s">
+      <c r="M44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N44" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O44" s="3" t="s">
@@ -5379,7 +5373,7 @@
       <c r="P44" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="Q44" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -5400,16 +5394,16 @@
       <c r="W44" s="3">
         <v>43830</v>
       </c>
-      <c r="X44" s="6">
+      <c r="X44" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="Y44" s="5">
         <v>2300</v>
       </c>
-      <c r="Z44" s="9" t="s">
+      <c r="Z44" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="AA44" s="6" t="s">
+      <c r="AA44" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB44" s="4">
@@ -5430,37 +5424,37 @@
       <c r="C45" s="4">
         <v>45016</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>42646</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N45" s="6" t="s">
+      <c r="M45" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O45" s="3" t="s">
@@ -5469,7 +5463,7 @@
       <c r="P45" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="Q45" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R45" s="3" t="s">
@@ -5490,16 +5484,16 @@
       <c r="W45" s="3">
         <v>43830</v>
       </c>
-      <c r="X45" s="6">
+      <c r="X45" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="Y45" s="5">
         <v>2450</v>
       </c>
-      <c r="Z45" s="9" t="s">
+      <c r="Z45" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="AA45" s="6" t="s">
+      <c r="AA45" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB45" s="4">
@@ -5520,37 +5514,37 @@
       <c r="C46" s="4">
         <v>45016</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>44713</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M46" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N46" s="6" t="s">
+      <c r="M46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O46" s="3" t="s">
@@ -5559,7 +5553,7 @@
       <c r="P46" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -5580,16 +5574,16 @@
       <c r="W46" s="3">
         <v>43830</v>
       </c>
-      <c r="X46" s="6">
+      <c r="X46" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="Y46" s="5">
         <v>2316</v>
       </c>
-      <c r="Z46" s="9" t="s">
+      <c r="Z46" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="AA46" s="6" t="s">
+      <c r="AA46" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB46" s="4">
@@ -5610,37 +5604,37 @@
       <c r="C47" s="4">
         <v>45016</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>42445</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N47" s="6" t="s">
+      <c r="M47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O47" s="3" t="s">
@@ -5649,7 +5643,7 @@
       <c r="P47" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R47" s="3" t="s">
@@ -5670,16 +5664,16 @@
       <c r="W47" s="3">
         <v>43830</v>
       </c>
-      <c r="X47" s="6">
+      <c r="X47" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="Y47" s="5">
         <v>2820</v>
       </c>
-      <c r="Z47" s="9" t="s">
+      <c r="Z47" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="AA47" s="6" t="s">
+      <c r="AA47" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB47" s="4">
@@ -5700,37 +5694,37 @@
       <c r="C48" s="4">
         <v>45016</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <v>43160</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M48" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N48" s="6" t="s">
+      <c r="M48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O48" s="3" t="s">
@@ -5739,7 +5733,7 @@
       <c r="P48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R48" s="3" t="s">
@@ -5760,16 +5754,16 @@
       <c r="W48" s="3">
         <v>43830</v>
       </c>
-      <c r="X48" s="6">
+      <c r="X48" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y48" s="6">
+      <c r="Y48" s="5">
         <v>2227</v>
       </c>
-      <c r="Z48" s="9" t="s">
+      <c r="Z48" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="AA48" s="6" t="s">
+      <c r="AA48" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB48" s="4">
@@ -5790,37 +5784,37 @@
       <c r="C49" s="4">
         <v>45016</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <v>44988</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M49" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N49" s="6" t="s">
+      <c r="M49" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N49" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O49" s="3" t="s">
@@ -5829,7 +5823,7 @@
       <c r="P49" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q49" s="8" t="s">
+      <c r="Q49" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R49" s="3" t="s">
@@ -5850,16 +5844,16 @@
       <c r="W49" s="3">
         <v>43830</v>
       </c>
-      <c r="X49" s="6">
+      <c r="X49" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Y49" s="5">
         <v>2253</v>
       </c>
-      <c r="Z49" s="9" t="s">
+      <c r="Z49" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="AA49" s="6" t="s">
+      <c r="AA49" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB49" s="4">
@@ -5870,7 +5864,7 @@
       </c>
       <c r="AD49" s="2"/>
     </row>
-    <row r="50" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2023</v>
       </c>
@@ -5880,37 +5874,37 @@
       <c r="C50" s="4">
         <v>45016</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>42767</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M50" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N50" s="6" t="s">
+      <c r="M50" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O50" s="3" t="s">
@@ -5919,7 +5913,7 @@
       <c r="P50" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="Q50" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R50" s="3" t="s">
@@ -5940,16 +5934,16 @@
       <c r="W50" s="3">
         <v>43830</v>
       </c>
-      <c r="X50" s="6">
+      <c r="X50" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Y50" s="5">
         <v>2217</v>
       </c>
-      <c r="Z50" s="9" t="s">
+      <c r="Z50" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="AA50" s="6" t="s">
+      <c r="AA50" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB50" s="4">
@@ -5960,7 +5954,7 @@
       </c>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2023</v>
       </c>
@@ -5970,35 +5964,35 @@
       <c r="C51" s="4">
         <v>45016</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J51" s="7"/>
+      <c r="J51" s="6"/>
       <c r="K51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M51" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N51" s="6" t="s">
+      <c r="M51" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N51" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O51" s="3" t="s">
@@ -6007,7 +6001,7 @@
       <c r="P51" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q51" s="8" t="s">
+      <c r="Q51" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R51" s="3" t="s">
@@ -6028,16 +6022,16 @@
       <c r="W51" s="3">
         <v>43830</v>
       </c>
-      <c r="X51" s="6">
+      <c r="X51" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Y51" s="5">
         <v>3006</v>
       </c>
-      <c r="Z51" s="9" t="s">
+      <c r="Z51" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="AA51" s="6" t="s">
+      <c r="AA51" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB51" s="4">
@@ -6060,37 +6054,37 @@
       <c r="C52" s="4">
         <v>45016</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <v>44774</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N52" s="6" t="s">
+      <c r="M52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O52" s="3" t="s">
@@ -6099,7 +6093,7 @@
       <c r="P52" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R52" s="3" t="s">
@@ -6120,16 +6114,16 @@
       <c r="W52" s="3">
         <v>43830</v>
       </c>
-      <c r="X52" s="6">
+      <c r="X52" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Y52" s="5">
         <v>2439</v>
       </c>
-      <c r="Z52" s="9" t="s">
+      <c r="Z52" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AA52" s="6" t="s">
+      <c r="AA52" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB52" s="4">
@@ -6150,37 +6144,37 @@
       <c r="C53" s="4">
         <v>45016</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <v>44774</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M53" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N53" s="6" t="s">
+      <c r="M53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N53" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O53" s="3" t="s">
@@ -6189,7 +6183,7 @@
       <c r="P53" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q53" s="8" t="s">
+      <c r="Q53" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R53" s="3" t="s">
@@ -6210,16 +6204,16 @@
       <c r="W53" s="3">
         <v>43830</v>
       </c>
-      <c r="X53" s="6">
+      <c r="X53" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="Y53" s="5">
         <v>2464</v>
       </c>
-      <c r="Z53" s="9" t="s">
+      <c r="Z53" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="AA53" s="6" t="s">
+      <c r="AA53" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB53" s="4">
@@ -6230,7 +6224,7 @@
       </c>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2023</v>
       </c>
@@ -6240,37 +6234,37 @@
       <c r="C54" s="4">
         <v>45016</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <v>45001</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M54" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N54" s="6" t="s">
+      <c r="M54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N54" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O54" s="3" t="s">
@@ -6279,7 +6273,7 @@
       <c r="P54" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q54" s="8" t="s">
+      <c r="Q54" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R54" s="3" t="s">
@@ -6300,16 +6294,16 @@
       <c r="W54" s="3">
         <v>43830</v>
       </c>
-      <c r="X54" s="6">
+      <c r="X54" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Y54" s="5">
         <v>2464</v>
       </c>
-      <c r="Z54" s="9" t="s">
+      <c r="Z54" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="AA54" s="6" t="s">
+      <c r="AA54" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB54" s="4">
@@ -6320,7 +6314,7 @@
       </c>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2023</v>
       </c>
@@ -6330,37 +6324,37 @@
       <c r="C55" s="4">
         <v>45016</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <v>42767</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M55" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N55" s="6" t="s">
+      <c r="M55" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O55" s="3" t="s">
@@ -6369,7 +6363,7 @@
       <c r="P55" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q55" s="8" t="s">
+      <c r="Q55" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R55" s="3" t="s">
@@ -6390,16 +6384,16 @@
       <c r="W55" s="3">
         <v>43830</v>
       </c>
-      <c r="X55" s="6">
+      <c r="X55" s="5">
         <v>7717159903</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="Y55" s="5">
         <v>2218</v>
       </c>
-      <c r="Z55" s="9" t="s">
+      <c r="Z55" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="AA55" s="6" t="s">
+      <c r="AA55" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB55" s="4">
@@ -6420,37 +6414,37 @@
       <c r="C56" s="4">
         <v>45016</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <v>38687</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M56" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N56" s="6" t="s">
+      <c r="M56" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O56" s="3" t="s">
@@ -6459,7 +6453,7 @@
       <c r="P56" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q56" s="8" t="s">
+      <c r="Q56" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R56" s="3" t="s">
@@ -6480,16 +6474,16 @@
       <c r="W56" s="3">
         <v>43830</v>
       </c>
-      <c r="X56" s="6">
+      <c r="X56" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="Y56" s="5">
         <v>2231</v>
       </c>
-      <c r="Z56" s="9" t="s">
+      <c r="Z56" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="AA56" s="6" t="s">
+      <c r="AA56" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB56" s="4">
@@ -6510,37 +6504,37 @@
       <c r="C57" s="4">
         <v>45016</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <v>39569</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M57" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N57" s="6" t="s">
+      <c r="M57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N57" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O57" s="3" t="s">
@@ -6549,7 +6543,7 @@
       <c r="P57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q57" s="8" t="s">
+      <c r="Q57" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R57" s="3" t="s">
@@ -6570,16 +6564,16 @@
       <c r="W57" s="3">
         <v>43830</v>
       </c>
-      <c r="X57" s="6">
+      <c r="X57" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y57" s="6">
+      <c r="Y57" s="5">
         <v>2213</v>
       </c>
-      <c r="Z57" s="9" t="s">
+      <c r="Z57" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="AA57" s="6" t="s">
+      <c r="AA57" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB57" s="4">
@@ -6600,37 +6594,37 @@
       <c r="C58" s="4">
         <v>45016</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <v>41141</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M58" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N58" s="6" t="s">
+      <c r="M58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N58" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O58" s="3" t="s">
@@ -6639,7 +6633,7 @@
       <c r="P58" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q58" s="8" t="s">
+      <c r="Q58" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R58" s="3" t="s">
@@ -6660,16 +6654,16 @@
       <c r="W58" s="3">
         <v>43830</v>
       </c>
-      <c r="X58" s="6">
+      <c r="X58" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y58" s="6">
+      <c r="Y58" s="5">
         <v>2233</v>
       </c>
-      <c r="Z58" s="9" t="s">
+      <c r="Z58" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="AA58" s="6" t="s">
+      <c r="AA58" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB58" s="4">
@@ -6690,37 +6684,37 @@
       <c r="C59" s="4">
         <v>45016</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <v>45001</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M59" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N59" s="6" t="s">
+      <c r="M59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N59" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O59" s="3" t="s">
@@ -6729,7 +6723,7 @@
       <c r="P59" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q59" s="8" t="s">
+      <c r="Q59" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R59" s="3" t="s">
@@ -6750,16 +6744,16 @@
       <c r="W59" s="3">
         <v>43830</v>
       </c>
-      <c r="X59" s="6">
+      <c r="X59" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="Y59" s="5">
         <v>2474</v>
       </c>
-      <c r="Z59" s="9" t="s">
+      <c r="Z59" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="AA59" s="6" t="s">
+      <c r="AA59" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB59" s="4">
@@ -6780,37 +6774,37 @@
       <c r="C60" s="4">
         <v>45016</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <v>44774</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L60" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M60" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="N60" s="6" t="s">
+      <c r="M60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N60" s="5" t="s">
         <v>177</v>
       </c>
       <c r="O60" s="3" t="s">
@@ -6819,7 +6813,7 @@
       <c r="P60" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q60" s="8" t="s">
+      <c r="Q60" s="7" t="s">
         <v>179</v>
       </c>
       <c r="R60" s="3" t="s">
@@ -6840,16 +6834,16 @@
       <c r="W60" s="3">
         <v>43830</v>
       </c>
-      <c r="X60" s="6">
+      <c r="X60" s="5">
         <v>7715477510</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="Y60" s="5">
         <v>2228</v>
       </c>
-      <c r="Z60" s="9" t="s">
+      <c r="Z60" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="AA60" s="6" t="s">
+      <c r="AA60" s="5" t="s">
         <v>170</v>
       </c>
       <c r="AB60" s="4">
@@ -6859,16 +6853,6 @@
         <v>45026</v>
       </c>
       <c r="AD60" s="2"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6881,13 +6865,13 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K60">
       <formula1>Hidden_110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O60">
       <formula1>Hidden_214</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="V8:V60">
       <formula1>Hidden_321</formula1>
     </dataValidation>
   </dataValidations>
